--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_21_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_21_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>499113.9105203618</v>
+        <v>406808.4439759395</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14803319.36208672</v>
+        <v>14793534.46552419</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6041269.909777043</v>
+        <v>6050988.346027242</v>
       </c>
     </row>
     <row r="11">
@@ -664,70 +664,70 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.848256208035304</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>49.79500702712463</v>
       </c>
-      <c r="G2" t="n">
-        <v>1.848256208035304</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
+      <c r="Y2" t="n">
         <v>49.79500702712463</v>
-      </c>
-      <c r="U2" t="n">
-        <v>49.79500702712463</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>43.85944218949135</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -794,10 +794,10 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>43.85944218949135</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>49.79500702712463</v>
@@ -806,7 +806,7 @@
         <v>49.79500702712463</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
     </row>
     <row r="4">
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>81.61928733384123</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>33.05042947603758</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>24.91528667358037</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>23.65357118422324</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>92.6649492891022</v>
       </c>
       <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>92.6649492891022</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1019,28 +1019,28 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>14.3427387906227</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>84.56947841277972</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="U6" t="n">
-        <v>81.61928733384123</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>92.6649492891022</v>
+        <v>75.37201941954103</v>
       </c>
       <c r="W6" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>112.1126601249237</v>
       </c>
       <c r="H8" t="n">
-        <v>64.54245901085127</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1189,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>64.54245901085132</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="W8" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>112.1126601249237</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1226,16 +1226,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>64.26286446312977</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>30.08282103867671</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>9.256558775821418</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1265,22 +1265,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>98.74883103803275</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>107.2592468853286</v>
       </c>
     </row>
     <row r="10">
@@ -1323,37 +1323,37 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>3.625377488803587</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1417,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>77.08171901666378</v>
+        <v>62.8036383798902</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>212.4488789988175</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>200.9796816524772</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>253.2072517179844</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>253.2072517179844</v>
       </c>
       <c r="X11" t="n">
-        <v>88.09081815943075</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,10 +1448,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1460,16 +1460,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>56.78801872180775</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>58.90455890409149</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>129.6355047656654</v>
       </c>
       <c r="T12" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>187.5255871663199</v>
+        <v>225.855767372567</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>112.1537208505825</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1551,10 +1551,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>38.11163636040592</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>14.10430989402852</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>165.1725371760946</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>116.7083663906775</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,19 +1654,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>62.8036383798902</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>153.5962336622959</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>212.4488789988175</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.1510766325138</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>185.9385084029589</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1691,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1700,10 +1700,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>132.8201631493126</v>
+        <v>136.0421735954127</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>99.66720504223716</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1733,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>72.4328956284632</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>147.5112850967134</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.855767372567</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>85.56623424331221</v>
       </c>
       <c r="X15" t="n">
-        <v>187.52558716632</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1776,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>52.21594625443443</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>112.1537208505825</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1846,16 +1846,16 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>225.0811223986711</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>253.2072517179843</v>
       </c>
       <c r="E17" t="n">
-        <v>315.128434197949</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>253.2072517179843</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1897,10 +1897,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>26.4311910541735</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1339337873797</v>
+        <v>251.1510766325138</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>315.128434197949</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>315.128434197949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1922,28 +1922,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>151.6944935225506</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>135.9275207107687</v>
+        <v>136.0421735954127</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>50.7698705628534</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>64.88204981594637</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>147.5112850967134</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>34.69505022509209</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>123.9159858479443</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2058,13 +2058,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>112.1537208505825</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>59.20837644037779</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2086,16 +2086,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>253.2072517179843</v>
       </c>
       <c r="E20" t="n">
-        <v>315.128434197949</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>315.128434197949</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>253.2072517179843</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>62.80363837989023</v>
       </c>
       <c r="S20" t="n">
-        <v>26.4311910541735</v>
+        <v>153.5962336622959</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1339337873797</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>315.128434197949</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>253.2072517179843</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>6.625075271014394</v>
       </c>
     </row>
     <row r="21">
@@ -2159,25 +2159,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>122.693938380658</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>135.9275207107687</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>98.55989955107012</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2207,25 +2207,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>64.88204981594639</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>194.4572693097595</v>
+        <v>152.2098650008091</v>
       </c>
       <c r="U21" t="n">
-        <v>225.84822441963</v>
+        <v>225.855767372567</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.8038554991351</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>16.32050678918703</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>112.1537208505824</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2320,10 +2320,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>173.0985698045192</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>245.1809096732005</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2411,7 +2411,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>9.042552188062269</v>
+        <v>114.9487052041472</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S24" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>192.7632183107638</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>13.04911722935263</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2532,10 +2532,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>40.1813254917156</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>340.5082539501465</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>180.7886361583782</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,16 +2633,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>127.3495406851121</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2651,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,16 +2684,16 @@
         <v>31.66886087721431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T27" t="n">
         <v>192.7632183107638</v>
       </c>
       <c r="U27" t="n">
-        <v>173.7147002995374</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>73.57934302708379</v>
+        <v>125.0721477169158</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2794,25 +2794,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>166.7058708156239</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2851,16 +2851,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>208.0359646099581</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2870,16 +2870,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2888,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>49.14185495865149</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2918,16 +2918,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T30" t="n">
-        <v>165.3461923380901</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -3003,16 +3003,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>220.0133056736526</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>143.7034957973313</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3031,10 +3031,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>192.9879055521711</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>151.7402591402208</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3113,16 +3113,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>123.4095049414513</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3155,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S33" t="n">
         <v>137.5750138932992</v>
       </c>
       <c r="T33" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>174.4343180509882</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>31.75612696673495</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>220.0133056736529</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>324.9601934113938</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>36.06688573135749</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3344,22 +3344,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>80.81071583586571</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>54.51989709900458</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S36" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>192.7632183107638</v>
@@ -3404,10 +3404,10 @@
         <v>225.8205739680685</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>73.73431546344882</v>
       </c>
       <c r="H37" t="n">
-        <v>31.68046530976794</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>210.7284695252349</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>232.9816402794077</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3587,19 +3587,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S39" t="n">
         <v>137.5750138932992</v>
@@ -3638,13 +3638,13 @@
         <v>192.7632183107638</v>
       </c>
       <c r="U39" t="n">
-        <v>140.0981061540667</v>
+        <v>48.26464391191888</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>143.7034957973312</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>156.3643165376079</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3751,10 +3751,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>217.9335812216212</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3799,13 +3799,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>99.96222154055906</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3818,28 +3818,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H42" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>36.29946757904886</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,16 +3866,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>31.66886087721433</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>175.8174617131679</v>
+        <v>224.0114287358542</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3887,7 +3887,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3903,16 +3903,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>1.42865232155806</v>
+        <v>52.20554859797934</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>75.3307502399811</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>176.3304272509172</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>130.8133087092505</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,10 +4055,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>112.234117358337</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -4067,13 +4067,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>39.19727535296529</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4137,13 +4137,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>128.5292955912958</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>97.90148224719842</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4312,13 +4312,13 @@
         <v>56.14851292091738</v>
       </c>
       <c r="D2" t="n">
-        <v>56.14851292091738</v>
+        <v>5.850526024831893</v>
       </c>
       <c r="E2" t="n">
-        <v>56.14851292091738</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="F2" t="n">
-        <v>5.850526024831893</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="G2" t="n">
         <v>3.98360056216997</v>
@@ -4360,19 +4360,19 @@
         <v>156.7444867130883</v>
       </c>
       <c r="T2" t="n">
+        <v>156.7444867130883</v>
+      </c>
+      <c r="U2" t="n">
+        <v>156.7444867130883</v>
+      </c>
+      <c r="V2" t="n">
+        <v>156.7444867130883</v>
+      </c>
+      <c r="W2" t="n">
+        <v>156.7444867130883</v>
+      </c>
+      <c r="X2" t="n">
         <v>106.4464998170029</v>
-      </c>
-      <c r="U2" t="n">
-        <v>56.14851292091738</v>
-      </c>
-      <c r="V2" t="n">
-        <v>56.14851292091738</v>
-      </c>
-      <c r="W2" t="n">
-        <v>56.14851292091738</v>
-      </c>
-      <c r="X2" t="n">
-        <v>56.14851292091738</v>
       </c>
       <c r="Y2" t="n">
         <v>56.14851292091738</v>
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.98360056216997</v>
+        <v>48.28606742024204</v>
       </c>
       <c r="C3" t="n">
-        <v>3.98360056216997</v>
+        <v>48.28606742024204</v>
       </c>
       <c r="D3" t="n">
-        <v>3.98360056216997</v>
+        <v>48.28606742024204</v>
       </c>
       <c r="E3" t="n">
-        <v>3.98360056216997</v>
+        <v>48.28606742024204</v>
       </c>
       <c r="F3" t="n">
-        <v>3.98360056216997</v>
+        <v>48.28606742024204</v>
       </c>
       <c r="G3" t="n">
-        <v>3.98360056216997</v>
+        <v>48.28606742024204</v>
       </c>
       <c r="H3" t="n">
-        <v>3.98360056216997</v>
+        <v>48.28606742024204</v>
       </c>
       <c r="I3" t="n">
-        <v>3.98360056216997</v>
+        <v>48.28606742024204</v>
       </c>
       <c r="J3" t="n">
         <v>3.98360056216997</v>
@@ -4421,10 +4421,10 @@
         <v>99.60319867417761</v>
       </c>
       <c r="N3" t="n">
-        <v>148.900255631031</v>
+        <v>121.1430747948175</v>
       </c>
       <c r="O3" t="n">
-        <v>198.1973125878844</v>
+        <v>170.4401317516709</v>
       </c>
       <c r="P3" t="n">
         <v>199.1800281084985</v>
@@ -4442,19 +4442,19 @@
         <v>199.1800281084985</v>
       </c>
       <c r="U3" t="n">
-        <v>154.8775612504264</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="V3" t="n">
-        <v>104.5795743543409</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="W3" t="n">
-        <v>54.28158745825545</v>
+        <v>148.882041212413</v>
       </c>
       <c r="X3" t="n">
-        <v>3.98360056216997</v>
+        <v>98.58405431632752</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.98360056216997</v>
+        <v>48.28606742024204</v>
       </c>
     </row>
     <row r="4">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65.96442437708571</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="C5" t="n">
-        <v>65.96442437708571</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="D5" t="n">
-        <v>65.96442437708571</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="E5" t="n">
-        <v>65.96442437708571</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="F5" t="n">
-        <v>65.96442437708571</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="G5" t="n">
-        <v>65.96442437708571</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="H5" t="n">
-        <v>65.96442437708571</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I5" t="n">
-        <v>32.58015217906794</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J5" t="n">
         <v>7.413195943128176</v>
@@ -4588,31 +4588,31 @@
         <v>370.6597971564088</v>
       </c>
       <c r="Q5" t="n">
-        <v>346.7673010107287</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="R5" t="n">
-        <v>346.7673010107287</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="S5" t="n">
-        <v>346.7673010107287</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="T5" t="n">
-        <v>346.7673010107287</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="U5" t="n">
-        <v>346.7673010107287</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="V5" t="n">
-        <v>253.1663421328477</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="W5" t="n">
-        <v>159.5653832549667</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="X5" t="n">
-        <v>65.96442437708571</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="Y5" t="n">
-        <v>65.96442437708571</v>
+        <v>89.85692052276578</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.413195943128176</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="C6" t="n">
-        <v>7.413195943128176</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="D6" t="n">
-        <v>7.413195943128176</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="E6" t="n">
-        <v>7.413195943128176</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="F6" t="n">
-        <v>7.413195943128176</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="G6" t="n">
-        <v>7.413195943128176</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="H6" t="n">
         <v>7.413195943128176</v>
@@ -4667,31 +4667,31 @@
         <v>370.6597971564088</v>
       </c>
       <c r="Q6" t="n">
-        <v>370.6597971564088</v>
+        <v>356.1721822163859</v>
       </c>
       <c r="R6" t="n">
-        <v>370.6597971564088</v>
+        <v>270.7484666479215</v>
       </c>
       <c r="S6" t="n">
-        <v>370.6597971564088</v>
+        <v>270.7484666479215</v>
       </c>
       <c r="T6" t="n">
-        <v>370.6597971564088</v>
+        <v>177.1475077700405</v>
       </c>
       <c r="U6" t="n">
-        <v>288.2160725767712</v>
+        <v>177.1475077700405</v>
       </c>
       <c r="V6" t="n">
-        <v>194.6151136988902</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="W6" t="n">
         <v>101.0141548210092</v>
       </c>
       <c r="X6" t="n">
-        <v>7.413195943128176</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.413195943128176</v>
+        <v>101.0141548210092</v>
       </c>
     </row>
     <row r="7">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>206.191084370842</v>
+        <v>140.9966813295781</v>
       </c>
       <c r="C8" t="n">
-        <v>206.191084370842</v>
+        <v>140.9966813295781</v>
       </c>
       <c r="D8" t="n">
-        <v>206.191084370842</v>
+        <v>140.9966813295781</v>
       </c>
       <c r="E8" t="n">
-        <v>206.191084370842</v>
+        <v>140.9966813295781</v>
       </c>
       <c r="F8" t="n">
-        <v>206.191084370842</v>
+        <v>140.9966813295781</v>
       </c>
       <c r="G8" t="n">
-        <v>92.94597313354534</v>
+        <v>27.75157009228141</v>
       </c>
       <c r="H8" t="n">
         <v>27.75157009228141</v>
@@ -4804,7 +4804,7 @@
         <v>27.75157009228141</v>
       </c>
       <c r="J8" t="n">
-        <v>8.969012809993892</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="K8" t="n">
         <v>32.11753523687554</v>
@@ -4813,43 +4813,43 @@
         <v>97.73708609773416</v>
       </c>
       <c r="M8" t="n">
-        <v>202.4209174083929</v>
+        <v>202.420917408393</v>
       </c>
       <c r="N8" t="n">
-        <v>313.4124509320674</v>
+        <v>313.4124509320676</v>
       </c>
       <c r="O8" t="n">
-        <v>404.8833474416797</v>
+        <v>404.8833474416799</v>
       </c>
       <c r="P8" t="n">
-        <v>448.4506404996946</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="Q8" t="n">
-        <v>432.6813068454352</v>
+        <v>432.6813068454354</v>
       </c>
       <c r="R8" t="n">
-        <v>432.6813068454352</v>
+        <v>432.6813068454354</v>
       </c>
       <c r="S8" t="n">
-        <v>432.6813068454352</v>
+        <v>432.6813068454354</v>
       </c>
       <c r="T8" t="n">
-        <v>432.6813068454352</v>
+        <v>432.6813068454354</v>
       </c>
       <c r="U8" t="n">
-        <v>432.6813068454352</v>
+        <v>367.4869038041714</v>
       </c>
       <c r="V8" t="n">
-        <v>432.6813068454352</v>
+        <v>254.2417925668748</v>
       </c>
       <c r="W8" t="n">
-        <v>319.4361956081386</v>
+        <v>254.2417925668748</v>
       </c>
       <c r="X8" t="n">
-        <v>206.191084370842</v>
+        <v>140.9966813295781</v>
       </c>
       <c r="Y8" t="n">
-        <v>206.191084370842</v>
+        <v>140.9966813295781</v>
       </c>
     </row>
     <row r="9">
@@ -4859,31 +4859,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.969012809993892</v>
+        <v>217.5127962713375</v>
       </c>
       <c r="C9" t="n">
-        <v>8.969012809993892</v>
+        <v>217.5127962713375</v>
       </c>
       <c r="D9" t="n">
-        <v>8.969012809993892</v>
+        <v>217.5127962713375</v>
       </c>
       <c r="E9" t="n">
-        <v>8.969012809993892</v>
+        <v>217.5127962713375</v>
       </c>
       <c r="F9" t="n">
-        <v>8.969012809993892</v>
+        <v>217.5127962713375</v>
       </c>
       <c r="G9" t="n">
-        <v>8.969012809993892</v>
+        <v>104.2676850340409</v>
       </c>
       <c r="H9" t="n">
-        <v>8.969012809993892</v>
+        <v>104.2676850340409</v>
       </c>
       <c r="I9" t="n">
-        <v>8.969012809993892</v>
+        <v>39.35570072784916</v>
       </c>
       <c r="J9" t="n">
-        <v>8.969012809993892</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="K9" t="n">
         <v>36.22166818534551</v>
@@ -4892,43 +4892,43 @@
         <v>119.1887676792232</v>
       </c>
       <c r="M9" t="n">
-        <v>176.439439640395</v>
+        <v>230.1803012028977</v>
       </c>
       <c r="N9" t="n">
-        <v>287.4309731640694</v>
+        <v>341.1718347265722</v>
       </c>
       <c r="O9" t="n">
-        <v>387.4830745953194</v>
+        <v>441.2239361578222</v>
       </c>
       <c r="P9" t="n">
-        <v>448.4506404996946</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="Q9" t="n">
-        <v>448.4506404996946</v>
+        <v>439.1005811301782</v>
       </c>
       <c r="R9" t="n">
-        <v>448.4506404996946</v>
+        <v>439.1005811301782</v>
       </c>
       <c r="S9" t="n">
-        <v>448.4506404996946</v>
+        <v>439.1005811301782</v>
       </c>
       <c r="T9" t="n">
-        <v>348.7043465218837</v>
+        <v>439.1005811301782</v>
       </c>
       <c r="U9" t="n">
-        <v>235.4592352845871</v>
+        <v>439.1005811301782</v>
       </c>
       <c r="V9" t="n">
-        <v>122.2141240472905</v>
+        <v>439.1005811301782</v>
       </c>
       <c r="W9" t="n">
-        <v>8.969012809993892</v>
+        <v>439.1005811301782</v>
       </c>
       <c r="X9" t="n">
-        <v>8.969012809993892</v>
+        <v>439.1005811301782</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.969012809993892</v>
+        <v>330.7579075086342</v>
       </c>
     </row>
     <row r="10">
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12.63101027343186</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="C10" t="n">
-        <v>12.63101027343186</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="D10" t="n">
-        <v>12.63101027343186</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="E10" t="n">
-        <v>12.63101027343186</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="F10" t="n">
-        <v>12.63101027343186</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="G10" t="n">
-        <v>12.63101027343186</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="H10" t="n">
-        <v>12.63101027343186</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="I10" t="n">
-        <v>12.63101027343186</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="J10" t="n">
-        <v>12.63101027343186</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="K10" t="n">
-        <v>12.63101027343186</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="L10" t="n">
-        <v>12.63101027343186</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="M10" t="n">
-        <v>8.969012809993892</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="N10" t="n">
         <v>12.63101027343186</v>
@@ -5001,13 +5001,13 @@
         <v>12.63101027343186</v>
       </c>
       <c r="W10" t="n">
-        <v>12.63101027343186</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="X10" t="n">
-        <v>12.63101027343186</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="Y10" t="n">
-        <v>12.63101027343186</v>
+        <v>8.969012809993897</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>204.4218319897903</v>
+        <v>20.25658013743876</v>
       </c>
       <c r="C11" t="n">
-        <v>15.00204697330559</v>
+        <v>20.25658013743876</v>
       </c>
       <c r="D11" t="n">
-        <v>15.00204697330559</v>
+        <v>20.25658013743876</v>
       </c>
       <c r="E11" t="n">
-        <v>15.00204697330559</v>
+        <v>20.25658013743876</v>
       </c>
       <c r="F11" t="n">
-        <v>15.00204697330559</v>
+        <v>20.25658013743876</v>
       </c>
       <c r="G11" t="n">
-        <v>15.00204697330559</v>
+        <v>20.25658013743876</v>
       </c>
       <c r="H11" t="n">
-        <v>15.00204697330559</v>
+        <v>20.25658013743876</v>
       </c>
       <c r="I11" t="n">
-        <v>15.00204697330559</v>
+        <v>20.25658013743876</v>
       </c>
       <c r="J11" t="n">
-        <v>21.03371160678489</v>
+        <v>45.38705923343218</v>
       </c>
       <c r="K11" t="n">
-        <v>80.81213159058939</v>
+        <v>133.7896512396352</v>
       </c>
       <c r="L11" t="n">
-        <v>191.8743094079184</v>
+        <v>280.3626455731805</v>
       </c>
       <c r="M11" t="n">
-        <v>347.1218190644754</v>
+        <v>475.1227808058544</v>
       </c>
       <c r="N11" t="n">
-        <v>509.4952041123828</v>
+        <v>677.6481470208787</v>
       </c>
       <c r="O11" t="n">
-        <v>649.4845259985582</v>
+        <v>855.5518461470244</v>
       </c>
       <c r="P11" t="n">
-        <v>734.4611726020263</v>
+        <v>972.8875365446886</v>
       </c>
       <c r="Q11" t="n">
-        <v>750.1023486652795</v>
+        <v>1012.829006871938</v>
       </c>
       <c r="R11" t="n">
-        <v>672.2420264262252</v>
+        <v>949.390988306392</v>
       </c>
       <c r="S11" t="n">
-        <v>672.2420264262252</v>
+        <v>949.390988306392</v>
       </c>
       <c r="T11" t="n">
-        <v>672.2420264262252</v>
+        <v>734.7961610348591</v>
       </c>
       <c r="U11" t="n">
-        <v>672.2420264262252</v>
+        <v>531.7863815879124</v>
       </c>
       <c r="V11" t="n">
-        <v>672.2420264262252</v>
+        <v>276.0214808626756</v>
       </c>
       <c r="W11" t="n">
-        <v>672.2420264262252</v>
+        <v>20.25658013743876</v>
       </c>
       <c r="X11" t="n">
-        <v>583.2614020227597</v>
+        <v>20.25658013743876</v>
       </c>
       <c r="Y11" t="n">
-        <v>393.841617006275</v>
+        <v>20.25658013743876</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>371.26277863231</v>
+        <v>194.7096094185658</v>
       </c>
       <c r="C12" t="n">
-        <v>371.26277863231</v>
+        <v>20.25658013743876</v>
       </c>
       <c r="D12" t="n">
-        <v>371.26277863231</v>
+        <v>20.25658013743876</v>
       </c>
       <c r="E12" t="n">
-        <v>371.26277863231</v>
+        <v>20.25658013743876</v>
       </c>
       <c r="F12" t="n">
-        <v>313.9011435597769</v>
+        <v>20.25658013743876</v>
       </c>
       <c r="G12" t="n">
-        <v>176.361962382226</v>
+        <v>20.25658013743876</v>
       </c>
       <c r="H12" t="n">
-        <v>74.50160142188287</v>
+        <v>20.25658013743876</v>
       </c>
       <c r="I12" t="n">
-        <v>15.00204697330559</v>
+        <v>20.25658013743876</v>
       </c>
       <c r="J12" t="n">
-        <v>15.00204697330559</v>
+        <v>20.25658013743876</v>
       </c>
       <c r="K12" t="n">
-        <v>67.13418877024208</v>
+        <v>91.83061903642654</v>
       </c>
       <c r="L12" t="n">
-        <v>183.5548280772649</v>
+        <v>234.3932882762805</v>
       </c>
       <c r="M12" t="n">
-        <v>338.7690911140244</v>
+        <v>420.1140672047613</v>
       </c>
       <c r="N12" t="n">
-        <v>512.5000587546598</v>
+        <v>625.158967437801</v>
       </c>
       <c r="O12" t="n">
-        <v>649.2101578476347</v>
+        <v>790.5151971795242</v>
       </c>
       <c r="P12" t="n">
-        <v>739.598998701706</v>
+        <v>903.8950833667054</v>
       </c>
       <c r="Q12" t="n">
-        <v>750.1023486652795</v>
+        <v>929.7673382725094</v>
       </c>
       <c r="R12" t="n">
-        <v>750.1023486652795</v>
+        <v>929.7673382725094</v>
       </c>
       <c r="S12" t="n">
-        <v>750.1023486652795</v>
+        <v>798.8223839637565</v>
       </c>
       <c r="T12" t="n">
-        <v>560.6825636487947</v>
+        <v>798.8223839637565</v>
       </c>
       <c r="U12" t="n">
-        <v>371.26277863231</v>
+        <v>570.6852452035878</v>
       </c>
       <c r="V12" t="n">
-        <v>371.26277863231</v>
+        <v>570.6852452035878</v>
       </c>
       <c r="W12" t="n">
-        <v>371.26277863231</v>
+        <v>570.6852452035878</v>
       </c>
       <c r="X12" t="n">
-        <v>371.26277863231</v>
+        <v>570.6852452035878</v>
       </c>
       <c r="Y12" t="n">
-        <v>371.26277863231</v>
+        <v>362.9249464386338</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>67.74542702828987</v>
+        <v>133.5431668551989</v>
       </c>
       <c r="C13" t="n">
-        <v>67.74542702828987</v>
+        <v>133.5431668551989</v>
       </c>
       <c r="D13" t="n">
-        <v>67.74542702828987</v>
+        <v>133.5431668551989</v>
       </c>
       <c r="E13" t="n">
-        <v>67.74542702828987</v>
+        <v>133.5431668551989</v>
       </c>
       <c r="F13" t="n">
-        <v>67.74542702828987</v>
+        <v>133.5431668551989</v>
       </c>
       <c r="G13" t="n">
-        <v>67.74542702828987</v>
+        <v>20.25658013743876</v>
       </c>
       <c r="H13" t="n">
-        <v>67.74542702828987</v>
+        <v>20.25658013743876</v>
       </c>
       <c r="I13" t="n">
-        <v>67.74542702828987</v>
+        <v>20.25658013743876</v>
       </c>
       <c r="J13" t="n">
-        <v>29.24882464404147</v>
+        <v>20.25658013743876</v>
       </c>
       <c r="K13" t="n">
-        <v>15.00204697330559</v>
+        <v>20.25658013743876</v>
       </c>
       <c r="L13" t="n">
-        <v>27.03967056230175</v>
+        <v>47.3010787721022</v>
       </c>
       <c r="M13" t="n">
-        <v>42.98993985170716</v>
+        <v>79.07399367801985</v>
       </c>
       <c r="N13" t="n">
-        <v>66.41847329396334</v>
+        <v>117.9489455893794</v>
       </c>
       <c r="O13" t="n">
-        <v>67.74542702828987</v>
+        <v>133.5431668551989</v>
       </c>
       <c r="P13" t="n">
-        <v>67.74542702828987</v>
+        <v>133.5431668551989</v>
       </c>
       <c r="Q13" t="n">
-        <v>67.74542702828987</v>
+        <v>133.5431668551989</v>
       </c>
       <c r="R13" t="n">
-        <v>67.74542702828987</v>
+        <v>133.5431668551989</v>
       </c>
       <c r="S13" t="n">
-        <v>67.74542702828987</v>
+        <v>133.5431668551989</v>
       </c>
       <c r="T13" t="n">
-        <v>67.74542702828987</v>
+        <v>133.5431668551989</v>
       </c>
       <c r="U13" t="n">
-        <v>67.74542702828987</v>
+        <v>133.5431668551989</v>
       </c>
       <c r="V13" t="n">
-        <v>67.74542702828987</v>
+        <v>133.5431668551989</v>
       </c>
       <c r="W13" t="n">
-        <v>67.74542702828987</v>
+        <v>133.5431668551989</v>
       </c>
       <c r="X13" t="n">
-        <v>67.74542702828987</v>
+        <v>133.5431668551989</v>
       </c>
       <c r="Y13" t="n">
-        <v>67.74542702828987</v>
+        <v>133.5431668551989</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>583.26140202276</v>
+        <v>138.1438189159009</v>
       </c>
       <c r="C14" t="n">
-        <v>583.26140202276</v>
+        <v>138.1438189159009</v>
       </c>
       <c r="D14" t="n">
-        <v>583.26140202276</v>
+        <v>138.1438189159009</v>
       </c>
       <c r="E14" t="n">
-        <v>393.8416170062752</v>
+        <v>138.1438189159009</v>
       </c>
       <c r="F14" t="n">
-        <v>204.4218319897904</v>
+        <v>138.1438189159009</v>
       </c>
       <c r="G14" t="n">
-        <v>15.0020469733056</v>
+        <v>138.1438189159009</v>
       </c>
       <c r="H14" t="n">
-        <v>15.0020469733056</v>
+        <v>138.1438189159009</v>
       </c>
       <c r="I14" t="n">
-        <v>15.0020469733056</v>
+        <v>20.25658013743876</v>
       </c>
       <c r="J14" t="n">
-        <v>21.03371160678478</v>
+        <v>45.38705923343235</v>
       </c>
       <c r="K14" t="n">
-        <v>80.81213159058939</v>
+        <v>133.7896512396353</v>
       </c>
       <c r="L14" t="n">
-        <v>191.8743094079184</v>
+        <v>280.3626455731805</v>
       </c>
       <c r="M14" t="n">
-        <v>347.1218190644753</v>
+        <v>475.1227808058547</v>
       </c>
       <c r="N14" t="n">
-        <v>509.4952041123828</v>
+        <v>677.6481470208787</v>
       </c>
       <c r="O14" t="n">
-        <v>649.4845259985584</v>
+        <v>855.5518461470244</v>
       </c>
       <c r="P14" t="n">
-        <v>734.4611726020266</v>
+        <v>972.8875365446886</v>
       </c>
       <c r="Q14" t="n">
-        <v>750.1023486652798</v>
+        <v>1012.829006871938</v>
       </c>
       <c r="R14" t="n">
-        <v>750.1023486652798</v>
+        <v>949.390988306392</v>
       </c>
       <c r="S14" t="n">
-        <v>750.1023486652798</v>
+        <v>794.2432775363961</v>
       </c>
       <c r="T14" t="n">
-        <v>750.1023486652798</v>
+        <v>579.6484502648632</v>
       </c>
       <c r="U14" t="n">
-        <v>750.1023486652798</v>
+        <v>325.9604940704048</v>
       </c>
       <c r="V14" t="n">
-        <v>750.1023486652798</v>
+        <v>138.1438189159009</v>
       </c>
       <c r="W14" t="n">
-        <v>750.1023486652798</v>
+        <v>138.1438189159009</v>
       </c>
       <c r="X14" t="n">
-        <v>750.1023486652798</v>
+        <v>138.1438189159009</v>
       </c>
       <c r="Y14" t="n">
-        <v>750.1023486652798</v>
+        <v>138.1438189159009</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>298.0982375934585</v>
+        <v>258.3468615896103</v>
       </c>
       <c r="C15" t="n">
-        <v>298.0982375934585</v>
+        <v>258.3468615896103</v>
       </c>
       <c r="D15" t="n">
-        <v>149.1638279322073</v>
+        <v>258.3468615896103</v>
       </c>
       <c r="E15" t="n">
-        <v>149.1638279322073</v>
+        <v>258.3468615896103</v>
       </c>
       <c r="F15" t="n">
-        <v>149.1638279322073</v>
+        <v>258.3468615896103</v>
       </c>
       <c r="G15" t="n">
-        <v>15.0020469733056</v>
+        <v>120.930524624547</v>
       </c>
       <c r="H15" t="n">
-        <v>15.0020469733056</v>
+        <v>20.25658013743876</v>
       </c>
       <c r="I15" t="n">
-        <v>15.0020469733056</v>
+        <v>20.25658013743876</v>
       </c>
       <c r="J15" t="n">
-        <v>15.0020469733056</v>
+        <v>20.25658013743876</v>
       </c>
       <c r="K15" t="n">
-        <v>67.13418877024208</v>
+        <v>91.83061903642654</v>
       </c>
       <c r="L15" t="n">
-        <v>183.5548280772649</v>
+        <v>234.3932882762805</v>
       </c>
       <c r="M15" t="n">
-        <v>338.7690911140244</v>
+        <v>420.1140672047613</v>
       </c>
       <c r="N15" t="n">
-        <v>512.5000587546601</v>
+        <v>625.158967437801</v>
       </c>
       <c r="O15" t="n">
-        <v>649.2101578476349</v>
+        <v>790.5151971795242</v>
       </c>
       <c r="P15" t="n">
-        <v>739.5989987017064</v>
+        <v>903.8950833667054</v>
       </c>
       <c r="Q15" t="n">
-        <v>750.1023486652798</v>
+        <v>929.7673382725094</v>
       </c>
       <c r="R15" t="n">
-        <v>676.9378076264281</v>
+        <v>929.7673382725094</v>
       </c>
       <c r="S15" t="n">
-        <v>676.9378076264281</v>
+        <v>780.7660401950211</v>
       </c>
       <c r="T15" t="n">
-        <v>676.9378076264281</v>
+        <v>780.7660401950211</v>
       </c>
       <c r="U15" t="n">
-        <v>676.9378076264281</v>
+        <v>552.6289014348524</v>
       </c>
       <c r="V15" t="n">
-        <v>676.9378076264281</v>
+        <v>552.6289014348524</v>
       </c>
       <c r="W15" t="n">
-        <v>676.9378076264281</v>
+        <v>466.1983617951431</v>
       </c>
       <c r="X15" t="n">
-        <v>487.5180226099433</v>
+        <v>258.3468615896103</v>
       </c>
       <c r="Y15" t="n">
-        <v>298.0982375934585</v>
+        <v>258.3468615896103</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>67.74542702828987</v>
+        <v>133.5431668551989</v>
       </c>
       <c r="C16" t="n">
-        <v>67.74542702828987</v>
+        <v>133.5431668551989</v>
       </c>
       <c r="D16" t="n">
-        <v>67.74542702828987</v>
+        <v>133.5431668551989</v>
       </c>
       <c r="E16" t="n">
-        <v>67.74542702828987</v>
+        <v>133.5431668551989</v>
       </c>
       <c r="F16" t="n">
-        <v>15.0020469733056</v>
+        <v>133.5431668551989</v>
       </c>
       <c r="G16" t="n">
-        <v>15.0020469733056</v>
+        <v>20.25658013743876</v>
       </c>
       <c r="H16" t="n">
-        <v>15.0020469733056</v>
+        <v>20.25658013743876</v>
       </c>
       <c r="I16" t="n">
-        <v>15.0020469733056</v>
+        <v>20.25658013743876</v>
       </c>
       <c r="J16" t="n">
-        <v>15.0020469733056</v>
+        <v>20.25658013743876</v>
       </c>
       <c r="K16" t="n">
-        <v>15.0020469733056</v>
+        <v>20.25658013743876</v>
       </c>
       <c r="L16" t="n">
-        <v>27.03967056230176</v>
+        <v>47.3010787721022</v>
       </c>
       <c r="M16" t="n">
-        <v>42.98993985170716</v>
+        <v>79.07399367801985</v>
       </c>
       <c r="N16" t="n">
-        <v>66.41847329396334</v>
+        <v>117.9489455893794</v>
       </c>
       <c r="O16" t="n">
-        <v>67.74542702828987</v>
+        <v>133.5431668551989</v>
       </c>
       <c r="P16" t="n">
-        <v>67.74542702828987</v>
+        <v>133.5431668551989</v>
       </c>
       <c r="Q16" t="n">
-        <v>67.74542702828987</v>
+        <v>133.5431668551989</v>
       </c>
       <c r="R16" t="n">
-        <v>67.74542702828987</v>
+        <v>133.5431668551989</v>
       </c>
       <c r="S16" t="n">
-        <v>67.74542702828987</v>
+        <v>133.5431668551989</v>
       </c>
       <c r="T16" t="n">
-        <v>67.74542702828987</v>
+        <v>133.5431668551989</v>
       </c>
       <c r="U16" t="n">
-        <v>67.74542702828987</v>
+        <v>133.5431668551989</v>
       </c>
       <c r="V16" t="n">
-        <v>67.74542702828987</v>
+        <v>133.5431668551989</v>
       </c>
       <c r="W16" t="n">
-        <v>67.74542702828987</v>
+        <v>133.5431668551989</v>
       </c>
       <c r="X16" t="n">
-        <v>67.74542702828987</v>
+        <v>133.5431668551989</v>
       </c>
       <c r="Y16" t="n">
-        <v>67.74542702828987</v>
+        <v>133.5431668551989</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>343.5218244307339</v>
+        <v>759.1410506774789</v>
       </c>
       <c r="C17" t="n">
-        <v>343.5218244307339</v>
+        <v>531.7863815879122</v>
       </c>
       <c r="D17" t="n">
-        <v>343.5218244307339</v>
+        <v>276.0214808626754</v>
       </c>
       <c r="E17" t="n">
-        <v>25.21027473583592</v>
+        <v>276.0214808626754</v>
       </c>
       <c r="F17" t="n">
-        <v>25.21027473583592</v>
+        <v>20.25658013743875</v>
       </c>
       <c r="G17" t="n">
-        <v>25.21027473583592</v>
+        <v>20.25658013743875</v>
       </c>
       <c r="H17" t="n">
-        <v>25.21027473583592</v>
+        <v>20.25658013743875</v>
       </c>
       <c r="I17" t="n">
-        <v>25.21027473583592</v>
+        <v>20.25658013743875</v>
       </c>
       <c r="J17" t="n">
-        <v>68.34610104032015</v>
+        <v>45.38705923343235</v>
       </c>
       <c r="K17" t="n">
-        <v>183.7340411072845</v>
+        <v>133.7896512396353</v>
       </c>
       <c r="L17" t="n">
-        <v>363.7847459179076</v>
+        <v>280.3626455731804</v>
       </c>
       <c r="M17" t="n">
-        <v>595.7952845205618</v>
+        <v>475.1227808058544</v>
       </c>
       <c r="N17" t="n">
-        <v>836.1738045761902</v>
+        <v>677.6481470208781</v>
       </c>
       <c r="O17" t="n">
-        <v>1049.821163484949</v>
+        <v>855.551846147024</v>
       </c>
       <c r="P17" t="n">
-        <v>1197.663240548278</v>
+        <v>972.8875365446881</v>
       </c>
       <c r="Q17" t="n">
-        <v>1260.513736791796</v>
+        <v>1012.829006871937</v>
       </c>
       <c r="R17" t="n">
-        <v>1260.513736791796</v>
+        <v>1012.829006871937</v>
       </c>
       <c r="S17" t="n">
-        <v>1260.513736791796</v>
+        <v>1012.829006871937</v>
       </c>
       <c r="T17" t="n">
-        <v>1233.815564009803</v>
+        <v>1012.829006871937</v>
       </c>
       <c r="U17" t="n">
-        <v>980.14492382053</v>
+        <v>759.1410506774789</v>
       </c>
       <c r="V17" t="n">
-        <v>980.14492382053</v>
+        <v>759.1410506774789</v>
       </c>
       <c r="W17" t="n">
-        <v>980.14492382053</v>
+        <v>759.1410506774789</v>
       </c>
       <c r="X17" t="n">
-        <v>661.833374125632</v>
+        <v>759.1410506774789</v>
       </c>
       <c r="Y17" t="n">
-        <v>343.5218244307339</v>
+        <v>759.1410506774789</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>690.4076983208129</v>
+        <v>304.207475075617</v>
       </c>
       <c r="C18" t="n">
-        <v>515.9546690396859</v>
+        <v>304.207475075617</v>
       </c>
       <c r="D18" t="n">
-        <v>367.0202593784346</v>
+        <v>304.207475075617</v>
       </c>
       <c r="E18" t="n">
-        <v>213.7934982445451</v>
+        <v>304.207475075617</v>
       </c>
       <c r="F18" t="n">
-        <v>213.7934982445451</v>
+        <v>157.672917102502</v>
       </c>
       <c r="G18" t="n">
-        <v>76.49297227407168</v>
+        <v>20.25658013743875</v>
       </c>
       <c r="H18" t="n">
-        <v>76.49297227407168</v>
+        <v>20.25658013743875</v>
       </c>
       <c r="I18" t="n">
-        <v>25.21027473583592</v>
+        <v>20.25658013743875</v>
       </c>
       <c r="J18" t="n">
-        <v>32.08383041580012</v>
+        <v>20.25658013743875</v>
       </c>
       <c r="K18" t="n">
-        <v>121.9866566016244</v>
+        <v>91.83061903642653</v>
       </c>
       <c r="L18" t="n">
-        <v>289.1946422614703</v>
+        <v>234.3932882762805</v>
       </c>
       <c r="M18" t="n">
-        <v>503.6753430076045</v>
+        <v>420.1140672047612</v>
       </c>
       <c r="N18" t="n">
-        <v>738.2413546109927</v>
+        <v>625.158967437801</v>
       </c>
       <c r="O18" t="n">
-        <v>930.6036338393395</v>
+        <v>790.5151971795242</v>
       </c>
       <c r="P18" t="n">
-        <v>1065.658255634916</v>
+        <v>903.8950833667054</v>
       </c>
       <c r="Q18" t="n">
-        <v>1106.0194972913</v>
+        <v>929.7673382725094</v>
       </c>
       <c r="R18" t="n">
-        <v>1106.0194972913</v>
+        <v>864.229914215998</v>
       </c>
       <c r="S18" t="n">
-        <v>1106.0194972913</v>
+        <v>715.2286161385098</v>
       </c>
       <c r="T18" t="n">
-        <v>1106.0194972913</v>
+        <v>715.2286161385098</v>
       </c>
       <c r="U18" t="n">
-        <v>1106.0194972913</v>
+        <v>715.2286161385098</v>
       </c>
       <c r="V18" t="n">
-        <v>1106.0194972913</v>
+        <v>715.2286161385098</v>
       </c>
       <c r="W18" t="n">
-        <v>1106.0194972913</v>
+        <v>715.2286161385098</v>
       </c>
       <c r="X18" t="n">
-        <v>898.1679970857667</v>
+        <v>680.183110860639</v>
       </c>
       <c r="Y18" t="n">
-        <v>690.4076983208129</v>
+        <v>472.4228120956851</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>25.21027473583592</v>
+        <v>20.25658013743875</v>
       </c>
       <c r="C19" t="n">
-        <v>25.21027473583592</v>
+        <v>20.25658013743875</v>
       </c>
       <c r="D19" t="n">
-        <v>25.21027473583592</v>
+        <v>20.25658013743875</v>
       </c>
       <c r="E19" t="n">
-        <v>25.21027473583592</v>
+        <v>20.25658013743875</v>
       </c>
       <c r="F19" t="n">
-        <v>25.21027473583592</v>
+        <v>20.25658013743875</v>
       </c>
       <c r="G19" t="n">
-        <v>25.21027473583592</v>
+        <v>20.25658013743875</v>
       </c>
       <c r="H19" t="n">
-        <v>25.21027473583592</v>
+        <v>20.25658013743875</v>
       </c>
       <c r="I19" t="n">
-        <v>25.21027473583592</v>
+        <v>20.25658013743875</v>
       </c>
       <c r="J19" t="n">
-        <v>25.21027473583592</v>
+        <v>20.25658013743875</v>
       </c>
       <c r="K19" t="n">
-        <v>34.03013544641193</v>
+        <v>20.25658013743875</v>
       </c>
       <c r="L19" t="n">
-        <v>75.22231828639661</v>
+        <v>47.30107877210219</v>
       </c>
       <c r="M19" t="n">
-        <v>121.9119825351267</v>
+        <v>79.07399367801983</v>
       </c>
       <c r="N19" t="n">
-        <v>175.3489968305007</v>
+        <v>117.9489455893794</v>
       </c>
       <c r="O19" t="n">
-        <v>204.3936396460532</v>
+        <v>133.5431668551989</v>
       </c>
       <c r="P19" t="n">
-        <v>210.1843780573734</v>
+        <v>133.5431668551989</v>
       </c>
       <c r="Q19" t="n">
-        <v>210.1843780573734</v>
+        <v>133.5431668551989</v>
       </c>
       <c r="R19" t="n">
-        <v>85.01671558470238</v>
+        <v>133.5431668551989</v>
       </c>
       <c r="S19" t="n">
-        <v>85.01671558470238</v>
+        <v>133.5431668551989</v>
       </c>
       <c r="T19" t="n">
-        <v>85.01671558470238</v>
+        <v>133.5431668551989</v>
       </c>
       <c r="U19" t="n">
-        <v>85.01671558470238</v>
+        <v>20.25658013743875</v>
       </c>
       <c r="V19" t="n">
-        <v>85.01671558470238</v>
+        <v>20.25658013743875</v>
       </c>
       <c r="W19" t="n">
-        <v>25.21027473583592</v>
+        <v>20.25658013743875</v>
       </c>
       <c r="X19" t="n">
-        <v>25.21027473583592</v>
+        <v>20.25658013743875</v>
       </c>
       <c r="Y19" t="n">
-        <v>25.21027473583592</v>
+        <v>20.25658013743875</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>661.833374125632</v>
+        <v>531.7863815879122</v>
       </c>
       <c r="C20" t="n">
-        <v>661.833374125632</v>
+        <v>531.7863815879122</v>
       </c>
       <c r="D20" t="n">
-        <v>661.833374125632</v>
+        <v>276.0214808626754</v>
       </c>
       <c r="E20" t="n">
-        <v>343.5218244307339</v>
+        <v>276.0214808626754</v>
       </c>
       <c r="F20" t="n">
-        <v>25.21027473583592</v>
+        <v>276.0214808626754</v>
       </c>
       <c r="G20" t="n">
-        <v>25.21027473583592</v>
+        <v>20.25658013743875</v>
       </c>
       <c r="H20" t="n">
-        <v>25.21027473583592</v>
+        <v>20.25658013743875</v>
       </c>
       <c r="I20" t="n">
-        <v>25.21027473583592</v>
+        <v>20.25658013743875</v>
       </c>
       <c r="J20" t="n">
-        <v>68.34610104032021</v>
+        <v>45.38705923343196</v>
       </c>
       <c r="K20" t="n">
-        <v>183.7340411072845</v>
+        <v>133.7896512396355</v>
       </c>
       <c r="L20" t="n">
-        <v>363.7847459179077</v>
+        <v>280.3626455731809</v>
       </c>
       <c r="M20" t="n">
-        <v>595.7952845205618</v>
+        <v>475.1227808058547</v>
       </c>
       <c r="N20" t="n">
-        <v>836.1738045761905</v>
+        <v>677.6481470208787</v>
       </c>
       <c r="O20" t="n">
-        <v>1049.82116348495</v>
+        <v>855.5518461470244</v>
       </c>
       <c r="P20" t="n">
-        <v>1197.663240548278</v>
+        <v>972.8875365446881</v>
       </c>
       <c r="Q20" t="n">
-        <v>1260.513736791796</v>
+        <v>1012.829006871937</v>
       </c>
       <c r="R20" t="n">
-        <v>1260.513736791796</v>
+        <v>949.3909883063916</v>
       </c>
       <c r="S20" t="n">
-        <v>1233.815564009803</v>
+        <v>794.2432775363957</v>
       </c>
       <c r="T20" t="n">
-        <v>1233.815564009803</v>
+        <v>794.2432775363957</v>
       </c>
       <c r="U20" t="n">
-        <v>980.14492382053</v>
+        <v>794.2432775363957</v>
       </c>
       <c r="V20" t="n">
-        <v>980.14492382053</v>
+        <v>794.2432775363957</v>
       </c>
       <c r="W20" t="n">
-        <v>661.833374125632</v>
+        <v>794.2432775363957</v>
       </c>
       <c r="X20" t="n">
-        <v>661.833374125632</v>
+        <v>538.478376811159</v>
       </c>
       <c r="Y20" t="n">
-        <v>661.833374125632</v>
+        <v>531.7863815879122</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>557.5352224326657</v>
+        <v>20.25658013743875</v>
       </c>
       <c r="C21" t="n">
-        <v>557.5352224326657</v>
+        <v>20.25658013743875</v>
       </c>
       <c r="D21" t="n">
-        <v>408.6008127714144</v>
+        <v>20.25658013743875</v>
       </c>
       <c r="E21" t="n">
-        <v>408.6008127714144</v>
+        <v>20.25658013743875</v>
       </c>
       <c r="F21" t="n">
-        <v>262.0662547982994</v>
+        <v>20.25658013743875</v>
       </c>
       <c r="G21" t="n">
-        <v>124.765728827826</v>
+        <v>20.25658013743875</v>
       </c>
       <c r="H21" t="n">
-        <v>25.21027473583592</v>
+        <v>20.25658013743875</v>
       </c>
       <c r="I21" t="n">
-        <v>25.21027473583592</v>
+        <v>20.25658013743875</v>
       </c>
       <c r="J21" t="n">
-        <v>32.08383041580012</v>
+        <v>20.25658013743875</v>
       </c>
       <c r="K21" t="n">
-        <v>121.9866566016244</v>
+        <v>91.8306190364265</v>
       </c>
       <c r="L21" t="n">
-        <v>289.1946422614703</v>
+        <v>234.3932882762804</v>
       </c>
       <c r="M21" t="n">
-        <v>503.6753430076045</v>
+        <v>420.1140672047611</v>
       </c>
       <c r="N21" t="n">
-        <v>738.2413546109927</v>
+        <v>625.1589674378008</v>
       </c>
       <c r="O21" t="n">
-        <v>930.6036338393395</v>
+        <v>790.515197179524</v>
       </c>
       <c r="P21" t="n">
-        <v>1065.658255634916</v>
+        <v>903.8950833667052</v>
       </c>
       <c r="Q21" t="n">
-        <v>1106.0194972913</v>
+        <v>929.7673382725092</v>
       </c>
       <c r="R21" t="n">
-        <v>1106.0194972913</v>
+        <v>864.2299142159976</v>
       </c>
       <c r="S21" t="n">
-        <v>1106.0194972913</v>
+        <v>864.2299142159976</v>
       </c>
       <c r="T21" t="n">
-        <v>909.5980131400273</v>
+        <v>710.4825758313419</v>
       </c>
       <c r="U21" t="n">
-        <v>681.4684935242394</v>
+        <v>482.3454370711732</v>
       </c>
       <c r="V21" t="n">
-        <v>681.4684935242394</v>
+        <v>482.3454370711732</v>
       </c>
       <c r="W21" t="n">
-        <v>681.4684935242394</v>
+        <v>228.1080803429716</v>
       </c>
       <c r="X21" t="n">
-        <v>681.4684935242394</v>
+        <v>20.25658013743875</v>
       </c>
       <c r="Y21" t="n">
-        <v>681.4684935242394</v>
+        <v>20.25658013743875</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>210.1843780573734</v>
+        <v>20.25658013743875</v>
       </c>
       <c r="C22" t="n">
-        <v>210.1843780573734</v>
+        <v>20.25658013743875</v>
       </c>
       <c r="D22" t="n">
-        <v>210.1843780573734</v>
+        <v>20.25658013743875</v>
       </c>
       <c r="E22" t="n">
-        <v>210.1843780573734</v>
+        <v>20.25658013743875</v>
       </c>
       <c r="F22" t="n">
-        <v>210.1843780573734</v>
+        <v>20.25658013743875</v>
       </c>
       <c r="G22" t="n">
-        <v>41.69563512895414</v>
+        <v>20.25658013743875</v>
       </c>
       <c r="H22" t="n">
-        <v>25.21027473583592</v>
+        <v>20.25658013743875</v>
       </c>
       <c r="I22" t="n">
-        <v>25.21027473583592</v>
+        <v>20.25658013743875</v>
       </c>
       <c r="J22" t="n">
-        <v>25.21027473583592</v>
+        <v>20.25658013743875</v>
       </c>
       <c r="K22" t="n">
-        <v>34.03013544641193</v>
+        <v>20.25658013743875</v>
       </c>
       <c r="L22" t="n">
-        <v>75.22231828639661</v>
+        <v>47.30107877210216</v>
       </c>
       <c r="M22" t="n">
-        <v>121.9119825351267</v>
+        <v>79.07399367801978</v>
       </c>
       <c r="N22" t="n">
-        <v>175.3489968305007</v>
+        <v>117.9489455893793</v>
       </c>
       <c r="O22" t="n">
-        <v>204.3936396460532</v>
+        <v>133.5431668551988</v>
       </c>
       <c r="P22" t="n">
-        <v>210.1843780573734</v>
+        <v>133.5431668551988</v>
       </c>
       <c r="Q22" t="n">
-        <v>210.1843780573734</v>
+        <v>133.5431668551988</v>
       </c>
       <c r="R22" t="n">
-        <v>210.1843780573734</v>
+        <v>133.5431668551988</v>
       </c>
       <c r="S22" t="n">
-        <v>210.1843780573734</v>
+        <v>20.25658013743875</v>
       </c>
       <c r="T22" t="n">
-        <v>210.1843780573734</v>
+        <v>20.25658013743875</v>
       </c>
       <c r="U22" t="n">
-        <v>210.1843780573734</v>
+        <v>20.25658013743875</v>
       </c>
       <c r="V22" t="n">
-        <v>210.1843780573734</v>
+        <v>20.25658013743875</v>
       </c>
       <c r="W22" t="n">
-        <v>210.1843780573734</v>
+        <v>20.25658013743875</v>
       </c>
       <c r="X22" t="n">
-        <v>210.1843780573734</v>
+        <v>20.25658013743875</v>
       </c>
       <c r="Y22" t="n">
-        <v>210.1843780573734</v>
+        <v>20.25658013743875</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>770.5974120852552</v>
+        <v>634.2472820412709</v>
       </c>
       <c r="C23" t="n">
-        <v>401.6348951448435</v>
+        <v>459.4002418346858</v>
       </c>
       <c r="D23" t="n">
-        <v>43.36919653809306</v>
+        <v>459.4002418346858</v>
       </c>
       <c r="E23" t="n">
-        <v>43.36919653809306</v>
+        <v>459.4002418346858</v>
       </c>
       <c r="F23" t="n">
-        <v>43.36919653809306</v>
+        <v>459.4002418346858</v>
       </c>
       <c r="G23" t="n">
         <v>43.36919653809306</v>
@@ -5992,10 +5992,10 @@
         <v>152.5078184301901</v>
       </c>
       <c r="K23" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232718</v>
       </c>
       <c r="L23" t="n">
-        <v>669.5878927711865</v>
+        <v>669.5878927711867</v>
       </c>
       <c r="M23" t="n">
         <v>1038.14846457873</v>
@@ -6019,22 +6019,22 @@
         <v>2168.459826904653</v>
       </c>
       <c r="T23" t="n">
-        <v>2168.459826904653</v>
+        <v>1958.285829056568</v>
       </c>
       <c r="U23" t="n">
-        <v>2168.459826904653</v>
+        <v>1704.678664719077</v>
       </c>
       <c r="V23" t="n">
-        <v>2168.459826904653</v>
+        <v>1373.615777375507</v>
       </c>
       <c r="W23" t="n">
-        <v>1920.802342386268</v>
+        <v>1020.847122105393</v>
       </c>
       <c r="X23" t="n">
-        <v>1547.336584125189</v>
+        <v>1020.847122105393</v>
       </c>
       <c r="Y23" t="n">
-        <v>1157.197252149377</v>
+        <v>1020.847122105393</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>507.2095102769676</v>
+        <v>614.1854224144272</v>
       </c>
       <c r="C24" t="n">
-        <v>507.2095102769676</v>
+        <v>614.1854224144272</v>
       </c>
       <c r="D24" t="n">
-        <v>358.2751006157164</v>
+        <v>465.2510127531759</v>
       </c>
       <c r="E24" t="n">
-        <v>199.0376456102609</v>
+        <v>306.0135577477204</v>
       </c>
       <c r="F24" t="n">
-        <v>52.50308763714585</v>
+        <v>159.4789997746054</v>
       </c>
       <c r="G24" t="n">
         <v>43.36919653809306</v>
@@ -6092,28 +6092,28 @@
         <v>1766.227047333487</v>
       </c>
       <c r="R24" t="n">
-        <v>1766.227047333487</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="S24" t="n">
-        <v>1627.262386835205</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="T24" t="n">
-        <v>1432.552065309181</v>
+        <v>1539.52797744664</v>
       </c>
       <c r="U24" t="n">
-        <v>1204.450475442445</v>
+        <v>1311.426387579904</v>
       </c>
       <c r="V24" t="n">
-        <v>969.2983672107021</v>
+        <v>1076.274279348162</v>
       </c>
       <c r="W24" t="n">
-        <v>715.0610104825005</v>
+        <v>822.03692261996</v>
       </c>
       <c r="X24" t="n">
-        <v>507.2095102769676</v>
+        <v>614.1854224144272</v>
       </c>
       <c r="Y24" t="n">
-        <v>507.2095102769676</v>
+        <v>614.1854224144272</v>
       </c>
     </row>
     <row r="25">
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>43.36919653809306</v>
+        <v>507.1084205463035</v>
       </c>
       <c r="C25" t="n">
-        <v>43.36919653809306</v>
+        <v>338.1722376183965</v>
       </c>
       <c r="D25" t="n">
-        <v>43.36919653809306</v>
+        <v>338.1722376183965</v>
       </c>
       <c r="E25" t="n">
-        <v>43.36919653809306</v>
+        <v>190.2591440360034</v>
       </c>
       <c r="F25" t="n">
         <v>43.36919653809306</v>
@@ -6180,19 +6180,19 @@
         <v>520.2893470405991</v>
       </c>
       <c r="U25" t="n">
-        <v>479.7021495742197</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="V25" t="n">
-        <v>225.0176613683328</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="W25" t="n">
-        <v>225.0176613683328</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="X25" t="n">
-        <v>225.0176613683328</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.0176613683328</v>
+        <v>520.2893470405991</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1209.105870866357</v>
+        <v>1210.324016962511</v>
       </c>
       <c r="C26" t="n">
-        <v>840.1433539259449</v>
+        <v>1210.324016962511</v>
       </c>
       <c r="D26" t="n">
-        <v>840.1433539259449</v>
+        <v>852.058318355761</v>
       </c>
       <c r="E26" t="n">
-        <v>454.3551013277006</v>
+        <v>466.2700657575168</v>
       </c>
       <c r="F26" t="n">
-        <v>43.36919653809304</v>
+        <v>466.2700657575168</v>
       </c>
       <c r="G26" t="n">
-        <v>43.36919653809304</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="H26" t="n">
-        <v>43.36919653809304</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I26" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J26" t="n">
-        <v>152.5078184301901</v>
+        <v>152.5078184301898</v>
       </c>
       <c r="K26" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232715</v>
       </c>
       <c r="L26" t="n">
-        <v>669.587892771186</v>
+        <v>669.5878927711864</v>
       </c>
       <c r="M26" t="n">
         <v>1038.148464578729</v>
@@ -6241,37 +6241,37 @@
         <v>1417.286540135166</v>
       </c>
       <c r="O26" t="n">
-        <v>1761.960612545595</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P26" t="n">
-        <v>2021.630958172446</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q26" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R26" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S26" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T26" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U26" t="n">
-        <v>2168.459826904652</v>
+        <v>1914.852662567162</v>
       </c>
       <c r="V26" t="n">
-        <v>2168.459826904652</v>
+        <v>1583.789775223591</v>
       </c>
       <c r="W26" t="n">
-        <v>2168.459826904652</v>
+        <v>1583.789775223591</v>
       </c>
       <c r="X26" t="n">
-        <v>1985.84504290629</v>
+        <v>1210.324016962511</v>
       </c>
       <c r="Y26" t="n">
-        <v>1595.705710930478</v>
+        <v>1210.324016962511</v>
       </c>
     </row>
     <row r="27">
@@ -6281,31 +6281,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>525.9940904859268</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="C27" t="n">
-        <v>351.5410612047998</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="D27" t="n">
-        <v>202.6066515435485</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="E27" t="n">
-        <v>43.36919653809304</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="F27" t="n">
-        <v>43.36919653809304</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="G27" t="n">
-        <v>43.36919653809304</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="H27" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I27" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J27" t="n">
-        <v>89.55356510562314</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K27" t="n">
         <v>246.6448318504519</v>
@@ -6332,25 +6332,25 @@
         <v>1734.238298972664</v>
       </c>
       <c r="S27" t="n">
-        <v>1734.238298972664</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="T27" t="n">
-        <v>1539.52797744664</v>
+        <v>1400.563316948358</v>
       </c>
       <c r="U27" t="n">
-        <v>1364.058583204683</v>
+        <v>1172.461727081622</v>
       </c>
       <c r="V27" t="n">
-        <v>1364.058583204683</v>
+        <v>937.3096188498796</v>
       </c>
       <c r="W27" t="n">
-        <v>1109.821226476482</v>
+        <v>683.072262121678</v>
       </c>
       <c r="X27" t="n">
-        <v>901.9697262709487</v>
+        <v>475.2207619161452</v>
       </c>
       <c r="Y27" t="n">
-        <v>694.2094275059949</v>
+        <v>267.4604631511913</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>265.6048588347122</v>
+        <v>338.6408822103593</v>
       </c>
       <c r="C28" t="n">
-        <v>265.6048588347122</v>
+        <v>169.7046992824524</v>
       </c>
       <c r="D28" t="n">
-        <v>265.6048588347122</v>
+        <v>169.7046992824524</v>
       </c>
       <c r="E28" t="n">
-        <v>117.6917652523191</v>
+        <v>169.7046992824524</v>
       </c>
       <c r="F28" t="n">
-        <v>117.6917652523191</v>
+        <v>169.7046992824524</v>
       </c>
       <c r="G28" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H28" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I28" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J28" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K28" t="n">
-        <v>92.7168589798152</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L28" t="n">
         <v>185.7706748018941</v>
@@ -6420,16 +6420,16 @@
         <v>520.2893470405991</v>
       </c>
       <c r="V28" t="n">
-        <v>265.6048588347122</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="W28" t="n">
-        <v>265.6048588347122</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="X28" t="n">
-        <v>265.6048588347122</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Y28" t="n">
-        <v>265.6048588347122</v>
+        <v>520.2893470405991</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1181.583316874863</v>
+        <v>1450.79709949696</v>
       </c>
       <c r="C29" t="n">
-        <v>812.620799934451</v>
+        <v>1450.79709949696</v>
       </c>
       <c r="D29" t="n">
-        <v>454.3551013277006</v>
+        <v>1092.53140089021</v>
       </c>
       <c r="E29" t="n">
-        <v>454.3551013277006</v>
+        <v>706.7431482919656</v>
       </c>
       <c r="F29" t="n">
-        <v>43.36919653809306</v>
+        <v>538.3533797913353</v>
       </c>
       <c r="G29" t="n">
-        <v>43.36919653809306</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="H29" t="n">
-        <v>43.36919653809306</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I29" t="n">
         <v>43.36919653809306</v>
       </c>
       <c r="J29" t="n">
-        <v>152.5078184301901</v>
+        <v>152.50781843019</v>
       </c>
       <c r="K29" t="n">
-        <v>366.8168396232718</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L29" t="n">
-        <v>669.5878927711867</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M29" t="n">
         <v>1038.14846457873</v>
@@ -6499,16 +6499,16 @@
         <v>2168.459826904653</v>
       </c>
       <c r="V29" t="n">
-        <v>2168.459826904653</v>
+        <v>1837.396939561082</v>
       </c>
       <c r="W29" t="n">
-        <v>2168.459826904653</v>
+        <v>1837.396939561082</v>
       </c>
       <c r="X29" t="n">
-        <v>1958.322488914796</v>
+        <v>1837.396939561082</v>
       </c>
       <c r="Y29" t="n">
-        <v>1568.183156938984</v>
+        <v>1837.396939561082</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>525.9940904859268</v>
+        <v>267.4604631511913</v>
       </c>
       <c r="C30" t="n">
-        <v>351.5410612047998</v>
+        <v>93.00743387006426</v>
       </c>
       <c r="D30" t="n">
-        <v>202.6066515435486</v>
+        <v>93.00743387006426</v>
       </c>
       <c r="E30" t="n">
-        <v>43.36919653809306</v>
+        <v>93.00743387006426</v>
       </c>
       <c r="F30" t="n">
-        <v>43.36919653809306</v>
+        <v>93.00743387006426</v>
       </c>
       <c r="G30" t="n">
-        <v>43.36919653809306</v>
+        <v>93.00743387006426</v>
       </c>
       <c r="H30" t="n">
         <v>43.36919653809306</v>
@@ -6566,28 +6566,28 @@
         <v>1766.227047333487</v>
       </c>
       <c r="R30" t="n">
-        <v>1766.227047333487</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="S30" t="n">
-        <v>1766.227047333487</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="T30" t="n">
-        <v>1599.210691436426</v>
+        <v>1400.563316948358</v>
       </c>
       <c r="U30" t="n">
-        <v>1599.210691436426</v>
+        <v>1172.461727081622</v>
       </c>
       <c r="V30" t="n">
-        <v>1364.058583204683</v>
+        <v>937.3096188498796</v>
       </c>
       <c r="W30" t="n">
-        <v>1109.821226476482</v>
+        <v>683.072262121678</v>
       </c>
       <c r="X30" t="n">
-        <v>901.9697262709487</v>
+        <v>475.2207619161452</v>
       </c>
       <c r="Y30" t="n">
-        <v>694.2094275059949</v>
+        <v>267.4604631511913</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1691.539676402147</v>
+        <v>193.4858359504288</v>
       </c>
       <c r="C31" t="n">
-        <v>1691.539676402147</v>
+        <v>193.4858359504288</v>
       </c>
       <c r="D31" t="n">
-        <v>1691.539676402147</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E31" t="n">
-        <v>1691.539676402147</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F31" t="n">
-        <v>1691.539676402147</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G31" t="n">
-        <v>1691.539676402147</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H31" t="n">
-        <v>1691.539676402147</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I31" t="n">
-        <v>1691.539676402147</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J31" t="n">
-        <v>1691.539676402147</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K31" t="n">
-        <v>1740.887338843869</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L31" t="n">
-        <v>1833.941154665948</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M31" t="n">
-        <v>1935.311639356787</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N31" t="n">
-        <v>2042.1292864018</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O31" t="n">
-        <v>2120.47958346742</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P31" t="n">
-        <v>2168.459826904653</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q31" t="n">
-        <v>2168.459826904653</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R31" t="n">
-        <v>2168.459826904653</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S31" t="n">
-        <v>2168.459826904653</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T31" t="n">
-        <v>1946.224164608034</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U31" t="n">
-        <v>1946.224164608034</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="V31" t="n">
-        <v>1691.539676402147</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="W31" t="n">
-        <v>1691.539676402147</v>
+        <v>375.1343007806685</v>
       </c>
       <c r="X31" t="n">
-        <v>1691.539676402147</v>
+        <v>375.1343007806685</v>
       </c>
       <c r="Y31" t="n">
-        <v>1691.539676402147</v>
+        <v>375.1343007806685</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1018.254896603639</v>
+        <v>812.620799934451</v>
       </c>
       <c r="C32" t="n">
-        <v>649.2923796632269</v>
+        <v>812.620799934451</v>
       </c>
       <c r="D32" t="n">
-        <v>649.2923796632269</v>
+        <v>454.3551013277006</v>
       </c>
       <c r="E32" t="n">
-        <v>649.2923796632269</v>
+        <v>454.3551013277006</v>
       </c>
       <c r="F32" t="n">
-        <v>238.3064748736194</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G32" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H32" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I32" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J32" t="n">
         <v>152.5078184301901</v>
       </c>
       <c r="K32" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232718</v>
       </c>
       <c r="L32" t="n">
-        <v>669.587892771186</v>
+        <v>669.5878927711867</v>
       </c>
       <c r="M32" t="n">
-        <v>1038.148464578729</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N32" t="n">
         <v>1417.286540135166</v>
@@ -6718,34 +6718,34 @@
         <v>1761.960612545596</v>
       </c>
       <c r="P32" t="n">
-        <v>2021.630958172446</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q32" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R32" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S32" t="n">
-        <v>2168.459826904652</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T32" t="n">
-        <v>2168.459826904652</v>
+        <v>1883.052182612258</v>
       </c>
       <c r="U32" t="n">
-        <v>2168.459826904652</v>
+        <v>1883.052182612258</v>
       </c>
       <c r="V32" t="n">
-        <v>2168.459826904652</v>
+        <v>1551.989295268687</v>
       </c>
       <c r="W32" t="n">
-        <v>2168.459826904652</v>
+        <v>1199.220639998573</v>
       </c>
       <c r="X32" t="n">
-        <v>1794.994068643572</v>
+        <v>1199.220639998573</v>
       </c>
       <c r="Y32" t="n">
-        <v>1404.85473666776</v>
+        <v>1199.220639998573</v>
       </c>
     </row>
     <row r="33">
@@ -6755,31 +6755,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>672.5286484590418</v>
+        <v>501.7157464221012</v>
       </c>
       <c r="C33" t="n">
-        <v>498.0756191779149</v>
+        <v>327.2627171409741</v>
       </c>
       <c r="D33" t="n">
-        <v>349.1412095166636</v>
+        <v>327.2627171409741</v>
       </c>
       <c r="E33" t="n">
-        <v>189.9037545112081</v>
+        <v>168.0252621355186</v>
       </c>
       <c r="F33" t="n">
-        <v>43.36919653809304</v>
+        <v>168.0252621355186</v>
       </c>
       <c r="G33" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H33" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I33" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J33" t="n">
-        <v>89.55356510562314</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K33" t="n">
         <v>246.6448318504519</v>
@@ -6803,28 +6803,28 @@
         <v>1766.227047333487</v>
       </c>
       <c r="R33" t="n">
-        <v>1766.227047333487</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="S33" t="n">
-        <v>1627.262386835205</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="T33" t="n">
-        <v>1432.552065309181</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="U33" t="n">
-        <v>1256.355784449597</v>
+        <v>1367.172048607646</v>
       </c>
       <c r="V33" t="n">
-        <v>1256.355784449597</v>
+        <v>1132.019940375904</v>
       </c>
       <c r="W33" t="n">
-        <v>1256.355784449597</v>
+        <v>877.782583647702</v>
       </c>
       <c r="X33" t="n">
-        <v>1048.504284244064</v>
+        <v>669.9310834421692</v>
       </c>
       <c r="Y33" t="n">
-        <v>840.7439854791098</v>
+        <v>669.9310834421692</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2168.459826904652</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C34" t="n">
-        <v>2168.459826904652</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D34" t="n">
-        <v>2168.459826904652</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E34" t="n">
-        <v>2020.546733322259</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F34" t="n">
-        <v>1873.656785824348</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G34" t="n">
-        <v>1873.656785824348</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H34" t="n">
-        <v>1723.616572328141</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I34" t="n">
-        <v>1691.539676402146</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J34" t="n">
-        <v>1691.539676402146</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K34" t="n">
-        <v>1740.887338843868</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L34" t="n">
-        <v>1833.941154665947</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M34" t="n">
-        <v>1935.311639356786</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N34" t="n">
-        <v>2042.129286401799</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O34" t="n">
-        <v>2120.479583467419</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P34" t="n">
-        <v>2168.459826904652</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q34" t="n">
-        <v>2168.459826904652</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R34" t="n">
-        <v>2168.459826904652</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S34" t="n">
-        <v>2168.459826904652</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T34" t="n">
-        <v>2168.459826904652</v>
+        <v>298.0536847439799</v>
       </c>
       <c r="U34" t="n">
-        <v>2168.459826904652</v>
+        <v>298.0536847439799</v>
       </c>
       <c r="V34" t="n">
-        <v>2168.459826904652</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="W34" t="n">
-        <v>2168.459826904652</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="X34" t="n">
-        <v>2168.459826904652</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="Y34" t="n">
-        <v>2168.459826904652</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1484.628284290968</v>
+        <v>870.3861466242934</v>
       </c>
       <c r="C35" t="n">
-        <v>1115.665767350556</v>
+        <v>870.3861466242934</v>
       </c>
       <c r="D35" t="n">
-        <v>757.4000687438058</v>
+        <v>870.3861466242934</v>
       </c>
       <c r="E35" t="n">
-        <v>371.6118161455616</v>
+        <v>870.3861466242934</v>
       </c>
       <c r="F35" t="n">
-        <v>371.6118161455616</v>
+        <v>459.4002418346858</v>
       </c>
       <c r="G35" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="H35" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="I35" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="J35" t="n">
         <v>152.5078184301901</v>
       </c>
       <c r="K35" t="n">
-        <v>366.8168396232718</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L35" t="n">
-        <v>669.5878927711867</v>
+        <v>669.5878927711863</v>
       </c>
       <c r="M35" t="n">
-        <v>1038.14846457873</v>
+        <v>1038.148464578729</v>
       </c>
       <c r="N35" t="n">
         <v>1417.286540135166</v>
       </c>
       <c r="O35" t="n">
-        <v>1761.960612545596</v>
+        <v>1761.960612545595</v>
       </c>
       <c r="P35" t="n">
-        <v>2021.630958172447</v>
+        <v>2021.630958172446</v>
       </c>
       <c r="Q35" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="R35" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="S35" t="n">
-        <v>2168.459826904653</v>
+        <v>2036.325171642783</v>
       </c>
       <c r="T35" t="n">
-        <v>2168.459826904653</v>
+        <v>2036.325171642783</v>
       </c>
       <c r="U35" t="n">
-        <v>2168.459826904653</v>
+        <v>1999.893973934341</v>
       </c>
       <c r="V35" t="n">
-        <v>1837.396939561082</v>
+        <v>1999.893973934341</v>
       </c>
       <c r="W35" t="n">
-        <v>1484.628284290968</v>
+        <v>1647.125318664227</v>
       </c>
       <c r="X35" t="n">
-        <v>1484.628284290968</v>
+        <v>1647.125318664227</v>
       </c>
       <c r="Y35" t="n">
-        <v>1484.628284290968</v>
+        <v>1256.985986688415</v>
       </c>
     </row>
     <row r="36">
@@ -6992,31 +6992,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>299.4492115120137</v>
+        <v>727.5992515893495</v>
       </c>
       <c r="C36" t="n">
-        <v>124.9961822308867</v>
+        <v>553.1462223082225</v>
       </c>
       <c r="D36" t="n">
-        <v>124.9961822308867</v>
+        <v>404.2118126469712</v>
       </c>
       <c r="E36" t="n">
-        <v>43.36919653809306</v>
+        <v>244.9743576415157</v>
       </c>
       <c r="F36" t="n">
-        <v>43.36919653809306</v>
+        <v>98.4397996684007</v>
       </c>
       <c r="G36" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="H36" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="I36" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="J36" t="n">
-        <v>89.55356510562316</v>
+        <v>89.55356510562314</v>
       </c>
       <c r="K36" t="n">
         <v>246.6448318504519</v>
@@ -7040,28 +7040,28 @@
         <v>1766.227047333487</v>
       </c>
       <c r="R36" t="n">
-        <v>1766.227047333487</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="S36" t="n">
-        <v>1627.262386835205</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="T36" t="n">
-        <v>1432.552065309181</v>
+        <v>1539.52797744664</v>
       </c>
       <c r="U36" t="n">
-        <v>1204.450475442445</v>
+        <v>1311.426387579904</v>
       </c>
       <c r="V36" t="n">
-        <v>969.2983672107021</v>
+        <v>1311.426387579904</v>
       </c>
       <c r="W36" t="n">
-        <v>715.0610104825005</v>
+        <v>1311.426387579904</v>
       </c>
       <c r="X36" t="n">
-        <v>507.2095102769676</v>
+        <v>1103.574887374371</v>
       </c>
       <c r="Y36" t="n">
-        <v>299.4492115120137</v>
+        <v>895.8145886094176</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2168.459826904653</v>
+        <v>117.8483030668292</v>
       </c>
       <c r="C37" t="n">
-        <v>2168.459826904653</v>
+        <v>117.8483030668292</v>
       </c>
       <c r="D37" t="n">
-        <v>2018.343187492317</v>
+        <v>117.8483030668292</v>
       </c>
       <c r="E37" t="n">
-        <v>1870.430093909924</v>
+        <v>117.8483030668292</v>
       </c>
       <c r="F37" t="n">
-        <v>1723.540146412014</v>
+        <v>117.8483030668292</v>
       </c>
       <c r="G37" t="n">
-        <v>1723.540146412014</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="H37" t="n">
-        <v>1691.539676402147</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="I37" t="n">
-        <v>1691.539676402147</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="J37" t="n">
-        <v>1691.539676402147</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="K37" t="n">
-        <v>1740.887338843869</v>
+        <v>92.7168589798152</v>
       </c>
       <c r="L37" t="n">
-        <v>1833.941154665948</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M37" t="n">
-        <v>1935.311639356787</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N37" t="n">
-        <v>2042.1292864018</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O37" t="n">
-        <v>2120.47958346742</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P37" t="n">
-        <v>2168.459826904653</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q37" t="n">
-        <v>2168.459826904653</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R37" t="n">
-        <v>2168.459826904653</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S37" t="n">
-        <v>2168.459826904653</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T37" t="n">
-        <v>2168.459826904653</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U37" t="n">
-        <v>2168.459826904653</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="V37" t="n">
-        <v>2168.459826904653</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="W37" t="n">
-        <v>2168.459826904653</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="X37" t="n">
-        <v>2168.459826904653</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Y37" t="n">
-        <v>2168.459826904653</v>
+        <v>299.4967678970689</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1391.720654864719</v>
+        <v>1083.243186548773</v>
       </c>
       <c r="C38" t="n">
-        <v>1022.758137924308</v>
+        <v>870.3861466242934</v>
       </c>
       <c r="D38" t="n">
-        <v>664.4924393175572</v>
+        <v>870.3861466242934</v>
       </c>
       <c r="E38" t="n">
-        <v>278.704186719313</v>
+        <v>870.3861466242934</v>
       </c>
       <c r="F38" t="n">
-        <v>43.36919653809306</v>
+        <v>459.4002418346858</v>
       </c>
       <c r="G38" t="n">
         <v>43.36919653809306</v>
@@ -7201,25 +7201,25 @@
         <v>2168.459826904653</v>
       </c>
       <c r="S38" t="n">
-        <v>2168.459826904653</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T38" t="n">
-        <v>2168.459826904653</v>
+        <v>1826.151173794699</v>
       </c>
       <c r="U38" t="n">
-        <v>2168.459826904653</v>
+        <v>1826.151173794699</v>
       </c>
       <c r="V38" t="n">
-        <v>2168.459826904653</v>
+        <v>1826.151173794699</v>
       </c>
       <c r="W38" t="n">
-        <v>2168.459826904653</v>
+        <v>1473.382518524585</v>
       </c>
       <c r="X38" t="n">
-        <v>2168.459826904653</v>
+        <v>1473.382518524585</v>
       </c>
       <c r="Y38" t="n">
-        <v>1778.320494928841</v>
+        <v>1083.243186548773</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>217.8222258192201</v>
+        <v>767.9840153902086</v>
       </c>
       <c r="C39" t="n">
-        <v>43.36919653809306</v>
+        <v>593.5309861090816</v>
       </c>
       <c r="D39" t="n">
-        <v>43.36919653809306</v>
+        <v>444.5965764478304</v>
       </c>
       <c r="E39" t="n">
-        <v>43.36919653809306</v>
+        <v>285.3591214423749</v>
       </c>
       <c r="F39" t="n">
-        <v>43.36919653809306</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="G39" t="n">
-        <v>43.36919653809306</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="H39" t="n">
         <v>43.36919653809306</v>
@@ -7277,28 +7277,28 @@
         <v>1766.227047333487</v>
       </c>
       <c r="R39" t="n">
-        <v>1766.227047333487</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="S39" t="n">
-        <v>1627.262386835205</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="T39" t="n">
-        <v>1432.552065309181</v>
+        <v>1400.563316948358</v>
       </c>
       <c r="U39" t="n">
-        <v>1291.038826769719</v>
+        <v>1351.811151380763</v>
       </c>
       <c r="V39" t="n">
-        <v>1055.886718537977</v>
+        <v>1351.811151380763</v>
       </c>
       <c r="W39" t="n">
-        <v>801.6493618097749</v>
+        <v>1351.811151380763</v>
       </c>
       <c r="X39" t="n">
-        <v>593.797861604242</v>
+        <v>1143.95965117523</v>
       </c>
       <c r="Y39" t="n">
-        <v>386.0375628392881</v>
+        <v>936.1993524102766</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>520.2893470405991</v>
+        <v>338.6408822103593</v>
       </c>
       <c r="C40" t="n">
-        <v>351.3531641126922</v>
+        <v>338.6408822103593</v>
       </c>
       <c r="D40" t="n">
-        <v>351.3531641126922</v>
+        <v>188.5242427980236</v>
       </c>
       <c r="E40" t="n">
-        <v>351.3531641126922</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F40" t="n">
-        <v>351.3531641126922</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G40" t="n">
-        <v>193.4094100343004</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H40" t="n">
         <v>43.36919653809306</v>
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1018.254896603639</v>
+        <v>1214.151011373342</v>
       </c>
       <c r="C41" t="n">
-        <v>649.2923796632274</v>
+        <v>845.18849443293</v>
       </c>
       <c r="D41" t="n">
-        <v>649.2923796632274</v>
+        <v>845.18849443293</v>
       </c>
       <c r="E41" t="n">
-        <v>263.5041270649832</v>
+        <v>459.4002418346858</v>
       </c>
       <c r="F41" t="n">
-        <v>43.36919653809305</v>
+        <v>459.4002418346858</v>
       </c>
       <c r="G41" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H41" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I41" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J41" t="n">
         <v>152.5078184301901</v>
       </c>
       <c r="K41" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232718</v>
       </c>
       <c r="L41" t="n">
-        <v>669.5878927711863</v>
+        <v>669.5878927711867</v>
       </c>
       <c r="M41" t="n">
-        <v>1038.148464578729</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N41" t="n">
         <v>1417.286540135166</v>
@@ -7432,31 +7432,31 @@
         <v>2021.630958172447</v>
       </c>
       <c r="Q41" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R41" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S41" t="n">
-        <v>2168.459826904652</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T41" t="n">
-        <v>2168.459826904652</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="U41" t="n">
-        <v>2168.459826904652</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="V41" t="n">
-        <v>2168.459826904652</v>
+        <v>1705.262284299213</v>
       </c>
       <c r="W41" t="n">
-        <v>2168.459826904652</v>
+        <v>1604.290343349154</v>
       </c>
       <c r="X41" t="n">
-        <v>1794.994068643573</v>
+        <v>1604.290343349154</v>
       </c>
       <c r="Y41" t="n">
-        <v>1404.854736667761</v>
+        <v>1214.151011373342</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>898.711059162394</v>
+        <v>634.9516129627989</v>
       </c>
       <c r="C42" t="n">
-        <v>724.258029881267</v>
+        <v>634.9516129627989</v>
       </c>
       <c r="D42" t="n">
-        <v>724.258029881267</v>
+        <v>486.0172033015477</v>
       </c>
       <c r="E42" t="n">
-        <v>724.258029881267</v>
+        <v>326.7797482960922</v>
       </c>
       <c r="F42" t="n">
-        <v>577.723471908152</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="G42" t="n">
-        <v>577.723471908152</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H42" t="n">
-        <v>482.2681049769851</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I42" t="n">
-        <v>445.601976109259</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J42" t="n">
-        <v>491.7863446767891</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K42" t="n">
-        <v>648.8776114216179</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L42" t="n">
-        <v>906.4287469816054</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M42" t="n">
-        <v>1226.335642450115</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N42" t="n">
-        <v>1569.118166444746</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O42" t="n">
-        <v>1860.477412699312</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P42" t="n">
-        <v>2074.985828260213</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q42" t="n">
-        <v>2168.459826904652</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R42" t="n">
-        <v>2136.47107854383</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S42" t="n">
-        <v>2136.47107854383</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="T42" t="n">
-        <v>1941.760757017806</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="U42" t="n">
-        <v>1764.167361347939</v>
+        <v>1539.95287689323</v>
       </c>
       <c r="V42" t="n">
-        <v>1529.015253116196</v>
+        <v>1304.800768661487</v>
       </c>
       <c r="W42" t="n">
-        <v>1274.777896387995</v>
+        <v>1050.563411933286</v>
       </c>
       <c r="X42" t="n">
-        <v>1066.926396182462</v>
+        <v>842.7119117277527</v>
       </c>
       <c r="Y42" t="n">
-        <v>1066.926396182462</v>
+        <v>634.9516129627989</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>44.812279691182</v>
+        <v>411.1248508126813</v>
       </c>
       <c r="C43" t="n">
-        <v>44.812279691182</v>
+        <v>411.1248508126813</v>
       </c>
       <c r="D43" t="n">
-        <v>43.36919653809305</v>
+        <v>358.391973440985</v>
       </c>
       <c r="E43" t="n">
-        <v>43.36919653809305</v>
+        <v>358.391973440985</v>
       </c>
       <c r="F43" t="n">
-        <v>43.36919653809305</v>
+        <v>211.5020259430747</v>
       </c>
       <c r="G43" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H43" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I43" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J43" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K43" t="n">
-        <v>92.71685897981519</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L43" t="n">
         <v>185.7706748018941</v>
       </c>
       <c r="M43" t="n">
-        <v>287.1411594927331</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N43" t="n">
-        <v>393.9588065377459</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O43" t="n">
-        <v>472.3091036033657</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P43" t="n">
-        <v>520.289347040599</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q43" t="n">
-        <v>520.289347040599</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R43" t="n">
-        <v>520.289347040599</v>
+        <v>411.1248508126813</v>
       </c>
       <c r="S43" t="n">
-        <v>520.289347040599</v>
+        <v>411.1248508126813</v>
       </c>
       <c r="T43" t="n">
-        <v>520.289347040599</v>
+        <v>411.1248508126813</v>
       </c>
       <c r="U43" t="n">
-        <v>520.289347040599</v>
+        <v>411.1248508126813</v>
       </c>
       <c r="V43" t="n">
-        <v>265.6048588347121</v>
+        <v>411.1248508126813</v>
       </c>
       <c r="W43" t="n">
-        <v>265.6048588347121</v>
+        <v>411.1248508126813</v>
       </c>
       <c r="X43" t="n">
-        <v>265.6048588347121</v>
+        <v>411.1248508126813</v>
       </c>
       <c r="Y43" t="n">
-        <v>44.812279691182</v>
+        <v>411.1248508126813</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1018.254896603639</v>
+        <v>888.7124668435229</v>
       </c>
       <c r="C44" t="n">
-        <v>1018.254896603639</v>
+        <v>812.620799934451</v>
       </c>
       <c r="D44" t="n">
-        <v>1018.254896603639</v>
+        <v>454.3551013277006</v>
       </c>
       <c r="E44" t="n">
-        <v>632.4666440053948</v>
+        <v>454.3551013277006</v>
       </c>
       <c r="F44" t="n">
-        <v>221.4807392157872</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="G44" t="n">
         <v>43.36919653809305</v>
@@ -7654,19 +7654,19 @@
         <v>366.8168396232717</v>
       </c>
       <c r="L44" t="n">
-        <v>669.5878927711864</v>
+        <v>669.5878927711869</v>
       </c>
       <c r="M44" t="n">
-        <v>1038.148464578729</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N44" t="n">
-        <v>1417.286540135166</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O44" t="n">
         <v>1761.960612545596</v>
       </c>
       <c r="P44" t="n">
-        <v>2021.630958172446</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q44" t="n">
         <v>2168.459826904652</v>
@@ -7675,25 +7675,25 @@
         <v>2168.459826904652</v>
       </c>
       <c r="S44" t="n">
-        <v>2168.459826904652</v>
+        <v>2036.325171642783</v>
       </c>
       <c r="T44" t="n">
-        <v>2168.459826904652</v>
+        <v>1826.151173794698</v>
       </c>
       <c r="U44" t="n">
-        <v>2168.459826904652</v>
+        <v>1572.544009457207</v>
       </c>
       <c r="V44" t="n">
-        <v>2168.459826904652</v>
+        <v>1241.481122113637</v>
       </c>
       <c r="W44" t="n">
-        <v>2168.459826904652</v>
+        <v>888.7124668435229</v>
       </c>
       <c r="X44" t="n">
-        <v>1794.994068643573</v>
+        <v>888.7124668435229</v>
       </c>
       <c r="Y44" t="n">
-        <v>1404.854736667761</v>
+        <v>888.7124668435229</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>464.9088565162513</v>
+        <v>633.1241935363194</v>
       </c>
       <c r="C45" t="n">
-        <v>351.5410612047998</v>
+        <v>633.1241935363194</v>
       </c>
       <c r="D45" t="n">
-        <v>202.6066515435485</v>
+        <v>484.1897838750681</v>
       </c>
       <c r="E45" t="n">
-        <v>43.36919653809305</v>
+        <v>324.9523288696126</v>
       </c>
       <c r="F45" t="n">
-        <v>43.36919653809305</v>
+        <v>178.4177708964976</v>
       </c>
       <c r="G45" t="n">
-        <v>43.36919653809305</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="H45" t="n">
         <v>43.36919653809305</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>193.4094100343004</v>
+        <v>321.1098614248253</v>
       </c>
       <c r="C46" t="n">
-        <v>193.4094100343004</v>
+        <v>191.2822901204862</v>
       </c>
       <c r="D46" t="n">
-        <v>193.4094100343004</v>
+        <v>191.2822901204862</v>
       </c>
       <c r="E46" t="n">
-        <v>193.4094100343004</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="F46" t="n">
-        <v>193.4094100343004</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="G46" t="n">
-        <v>193.4094100343004</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="H46" t="n">
         <v>43.36919653809305</v>
@@ -7833,25 +7833,25 @@
         <v>520.289347040599</v>
       </c>
       <c r="S46" t="n">
-        <v>520.289347040599</v>
+        <v>321.1098614248253</v>
       </c>
       <c r="T46" t="n">
-        <v>520.289347040599</v>
+        <v>321.1098614248253</v>
       </c>
       <c r="U46" t="n">
-        <v>421.3989609323177</v>
+        <v>321.1098614248253</v>
       </c>
       <c r="V46" t="n">
-        <v>421.3989609323177</v>
+        <v>321.1098614248253</v>
       </c>
       <c r="W46" t="n">
-        <v>421.3989609323177</v>
+        <v>321.1098614248253</v>
       </c>
       <c r="X46" t="n">
-        <v>193.4094100343004</v>
+        <v>321.1098614248253</v>
       </c>
       <c r="Y46" t="n">
-        <v>193.4094100343004</v>
+        <v>321.1098614248253</v>
       </c>
     </row>
   </sheetData>
@@ -22552,16 +22552,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>304.8880345935584</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>380.0821138642265</v>
       </c>
       <c r="F2" t="n">
-        <v>357.0810387145868</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.8590644497427</v>
+        <v>413.707320657778</v>
       </c>
       <c r="H2" t="n">
         <v>323.1357392253592</v>
@@ -22600,10 +22600,10 @@
         <v>172.6645079492214</v>
       </c>
       <c r="T2" t="n">
-        <v>166.3169052439262</v>
+        <v>216.1119122710508</v>
       </c>
       <c r="U2" t="n">
-        <v>201.4230125321233</v>
+        <v>251.2180195592479</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22612,10 +22612,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>319.9360936513444</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>336.4429316289289</v>
       </c>
     </row>
     <row r="3">
@@ -22649,7 +22649,7 @@
         <v>70.13228042782632</v>
       </c>
       <c r="J3" t="n">
-        <v>46.18894706358476</v>
+        <v>2.329504874093416</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22682,10 +22682,10 @@
         <v>196.7240278659264</v>
       </c>
       <c r="U3" t="n">
-        <v>182.0257804655494</v>
+        <v>225.8852226550407</v>
       </c>
       <c r="V3" t="n">
-        <v>183.0055801223006</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>201.899976133795</v>
@@ -22694,7 +22694,7 @@
         <v>155.9779781763528</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>155.8876887501797</v>
       </c>
     </row>
     <row r="4">
@@ -22792,7 +22792,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>300.3110827384206</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22804,10 +22804,10 @@
         <v>320.6353766150897</v>
       </c>
       <c r="I5" t="n">
-        <v>106.5057040475121</v>
+        <v>139.5561335235496</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>24.91528667358037</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,7 +22828,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>23.65357118422324</v>
       </c>
       <c r="R5" t="n">
         <v>100.0310828299331</v>
@@ -22849,10 +22849,10 @@
         <v>256.5760194283108</v>
       </c>
       <c r="X5" t="n">
-        <v>277.0661513893668</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>293.5729893669514</v>
       </c>
     </row>
     <row r="6">
@@ -22880,7 +22880,7 @@
         <v>136.3592641379443</v>
       </c>
       <c r="H6" t="n">
-        <v>102.729632124056</v>
+        <v>10.06468283495377</v>
       </c>
       <c r="I6" t="n">
         <v>65.63472101605001</v>
@@ -22907,28 +22907,28 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>14.3427387906227</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>84.56947841277972</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>153.4011028494393</v>
       </c>
       <c r="T6" t="n">
-        <v>196.197498299121</v>
+        <v>103.5325490100188</v>
       </c>
       <c r="U6" t="n">
-        <v>144.2573412586293</v>
+        <v>225.8766285924705</v>
       </c>
       <c r="V6" t="n">
-        <v>140.1356378603231</v>
+        <v>157.4285677298842</v>
       </c>
       <c r="W6" t="n">
-        <v>159.0300338718174</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>113.1080359143753</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -23038,7 +23038,7 @@
         <v>301.2760442195641</v>
       </c>
       <c r="H8" t="n">
-        <v>255.3302508960248</v>
+        <v>319.8727099068761</v>
       </c>
       <c r="I8" t="n">
         <v>136.685125759028</v>
@@ -23077,16 +23077,16 @@
         <v>214.717169359623</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1925302541847</v>
+        <v>186.6500712433334</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>215.6395983452112</v>
       </c>
       <c r="W8" t="n">
-        <v>237.1283085924894</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>257.6184405535454</v>
+        <v>257.6184405535453</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23099,7 +23099,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>54.42052352494363</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -23114,16 +23114,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.3194191323308</v>
+        <v>24.20675900740713</v>
       </c>
       <c r="H9" t="n">
         <v>102.3448132540521</v>
       </c>
       <c r="I9" t="n">
-        <v>64.26286446312977</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>30.08282103867671</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23144,7 +23144,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>9.256558775821418</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>82.095592888813</v>
@@ -23153,22 +23153,22 @@
         <v>152.6609993460486</v>
       </c>
       <c r="T9" t="n">
-        <v>97.28806392705845</v>
+        <v>196.0368949650912</v>
       </c>
       <c r="U9" t="n">
-        <v>113.7613470855985</v>
+        <v>225.8740072105222</v>
       </c>
       <c r="V9" t="n">
-        <v>120.6879270245016</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>139.582323035996</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>98.4234488919758</v>
       </c>
     </row>
     <row r="10">
@@ -23211,7 +23211,7 @@
         <v>7.238823902544752</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7157523946084789</v>
+        <v>4.341129883412066</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>282.8976208477874</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>195.2082544971607</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>177.7473046046877</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23272,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>413.097833230058</v>
+        <v>412.8705340736013</v>
       </c>
       <c r="H11" t="n">
-        <v>316.8938261062223</v>
+        <v>314.56599862016</v>
       </c>
       <c r="I11" t="n">
-        <v>125.4713171199747</v>
+        <v>116.7083663906775</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>158.7758131900531</v>
+        <v>153.5962336622959</v>
       </c>
       <c r="T11" t="n">
-        <v>213.4438810562068</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1692605650303</v>
+        <v>50.17139498003655</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>74.54500675215047</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>96.03371699942858</v>
       </c>
       <c r="X11" t="n">
-        <v>281.6402825190383</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>198.7123514897337</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23336,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23348,19 +23348,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>88.28119367157612</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.0421735954127</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>99.66720504223716</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>54.71734926660513</v>
       </c>
       <c r="J12" t="n">
-        <v>15.37922103265839</v>
+        <v>3.889197745894847</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>72.4328956284632</v>
+        <v>64.88204981594637</v>
       </c>
       <c r="S12" t="n">
-        <v>149.7702446909496</v>
+        <v>17.87578033104796</v>
       </c>
       <c r="T12" t="n">
-        <v>7.884010625681384</v>
+        <v>194.9194008930395</v>
       </c>
       <c r="U12" t="n">
-        <v>38.33818124377106</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23405,7 +23405,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23430,19 +23430,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.0019352027142</v>
+        <v>54.74625577559813</v>
       </c>
       <c r="H13" t="n">
-        <v>153.4336708318196</v>
+        <v>152.5271663968213</v>
       </c>
       <c r="I13" t="n">
-        <v>125.7072197708667</v>
+        <v>122.6410473056577</v>
       </c>
       <c r="J13" t="n">
-        <v>18.95836326784826</v>
+        <v>49.86152826733209</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>2.258577093130469</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,22 +23457,22 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>18.10760906709386</v>
+        <v>5.776182683435991</v>
       </c>
       <c r="Q13" t="n">
-        <v>68.68604055159726</v>
+        <v>60.14840011113779</v>
       </c>
       <c r="R13" t="n">
-        <v>132.8223696106904</v>
+        <v>128.2379412512818</v>
       </c>
       <c r="S13" t="n">
-        <v>206.7802557954962</v>
+        <v>205.0033958753615</v>
       </c>
       <c r="T13" t="n">
-        <v>223.7196734901001</v>
+        <v>223.2840322994568</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2595201165485</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>217.5613044873859</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23503,19 +23503,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>194.4047829059418</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>219.3504585753915</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>225.5722460637381</v>
+        <v>412.8705340736013</v>
       </c>
       <c r="H14" t="n">
-        <v>316.8938261062223</v>
+        <v>314.56599862016</v>
       </c>
       <c r="I14" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,19 +23542,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>77.08171901666378</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>213.4438810562068</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1692605650303</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>141.813750067176</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23579,7 +23579,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -23588,16 +23588,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>3.343626216462695</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>58.90455890409149</v>
+        <v>54.71734926660513</v>
       </c>
       <c r="J15" t="n">
-        <v>15.37922103265839</v>
+        <v>3.889197745894847</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>64.88204981594637</v>
       </c>
       <c r="S15" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>195.4095977920013</v>
+        <v>194.9194008930395</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8637684100909</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>166.1287489176074</v>
       </c>
       <c r="X15" t="n">
-        <v>18.24739803715752</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>18.15710861098441</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23664,22 +23664,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>93.20510176849682</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.0019352027142</v>
+        <v>54.74625577559813</v>
       </c>
       <c r="H16" t="n">
-        <v>153.4336708318196</v>
+        <v>152.5271663968213</v>
       </c>
       <c r="I16" t="n">
-        <v>125.7072197708667</v>
+        <v>122.6410473056577</v>
       </c>
       <c r="J16" t="n">
-        <v>57.06999962825418</v>
+        <v>49.86152826733209</v>
       </c>
       <c r="K16" t="n">
-        <v>14.10430989402852</v>
+        <v>2.258577093130469</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,22 +23694,22 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>18.10760906709386</v>
+        <v>5.776182683435991</v>
       </c>
       <c r="Q16" t="n">
-        <v>68.68604055159726</v>
+        <v>60.14840011113779</v>
       </c>
       <c r="R16" t="n">
-        <v>132.8223696106904</v>
+        <v>128.2379412512818</v>
       </c>
       <c r="S16" t="n">
-        <v>206.7802557954962</v>
+        <v>205.0033958753615</v>
       </c>
       <c r="T16" t="n">
-        <v>223.7196734901001</v>
+        <v>223.2840322994568</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2595201165485</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23734,25 +23734,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>140.1917693723365</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>101.4757899026986</v>
       </c>
       <c r="E17" t="n">
-        <v>66.80193587431279</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>153.6687940237271</v>
       </c>
       <c r="G17" t="n">
-        <v>412.6562485094249</v>
+        <v>412.8705340736013</v>
       </c>
       <c r="H17" t="n">
-        <v>312.3714465860386</v>
+        <v>314.56599862016</v>
       </c>
       <c r="I17" t="n">
-        <v>108.4471221777673</v>
+        <v>116.7083663906775</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,13 +23779,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>49.34302280919511</v>
+        <v>62.8036383798902</v>
       </c>
       <c r="S17" t="n">
-        <v>148.7132013686264</v>
+        <v>153.5962336622959</v>
       </c>
       <c r="T17" t="n">
-        <v>185.0796528874619</v>
+        <v>212.4488789988175</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23797,10 +23797,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>54.60266648052004</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>71.1095044581046</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23810,31 +23810,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>5.950586932850342</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>98.55989955107012</v>
+        <v>99.66720504223716</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>54.71734926660513</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>3.889197745894847</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>57.76351369743561</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>145.381658050804</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>194.4572693097595</v>
+        <v>194.9194008930395</v>
       </c>
       <c r="U18" t="n">
-        <v>225.84822441963</v>
+        <v>225.855767372567</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23876,7 +23876,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>171.0779349783854</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -23904,19 +23904,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.8038554991351</v>
+        <v>166.8999766261806</v>
       </c>
       <c r="H19" t="n">
-        <v>151.6725621945438</v>
+        <v>152.5271663968213</v>
       </c>
       <c r="I19" t="n">
-        <v>119.7504228668707</v>
+        <v>122.6410473056577</v>
       </c>
       <c r="J19" t="n">
-        <v>43.06576458521415</v>
+        <v>49.86152826733209</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>2.258577093130469</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23931,28 +23931,28 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>5.776182683435991</v>
       </c>
       <c r="Q19" t="n">
-        <v>52.09956646371739</v>
+        <v>60.14840011113779</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>128.2379412512818</v>
       </c>
       <c r="S19" t="n">
-        <v>203.3282667794865</v>
+        <v>205.0033958753615</v>
       </c>
       <c r="T19" t="n">
-        <v>222.8733329384441</v>
+        <v>223.2840322994568</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2542771459823</v>
+        <v>174.1057992659659</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>227.3146218962132</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23974,22 +23974,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>101.4757899026986</v>
       </c>
       <c r="E20" t="n">
-        <v>66.80193587431279</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>91.74761154376245</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>412.6562485094249</v>
+        <v>159.663282355617</v>
       </c>
       <c r="H20" t="n">
-        <v>312.3714465860386</v>
+        <v>314.56599862016</v>
       </c>
       <c r="I20" t="n">
-        <v>108.4471221777673</v>
+        <v>116.7083663906776</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>49.34302280919511</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>122.2820103144529</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>211.5108439416354</v>
+        <v>212.4488789988175</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.1510766325138</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>34.11253451946402</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>116.5238489604847</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>379.6128633850392</v>
       </c>
     </row>
     <row r="21">
@@ -24047,31 +24047,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>43.83924526920937</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.0421735954127</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>99.66720504223716</v>
       </c>
       <c r="I21" t="n">
-        <v>50.7698705628534</v>
+        <v>54.71734926660513</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>3.889197745894862</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>57.76351369743561</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>145.381658050804</v>
+        <v>147.5112850967134</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>42.70953589223035</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24110,10 +24110,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24141,19 +24141,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.8999766261806</v>
       </c>
       <c r="H22" t="n">
-        <v>135.3520554053568</v>
+        <v>152.5271663968213</v>
       </c>
       <c r="I22" t="n">
-        <v>119.7504228668707</v>
+        <v>122.6410473056577</v>
       </c>
       <c r="J22" t="n">
-        <v>43.06576458521415</v>
+        <v>49.8615282673321</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>2.258577093130498</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24168,22 +24168,22 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>5.776182683436019</v>
       </c>
       <c r="Q22" t="n">
-        <v>52.09956646371739</v>
+        <v>60.1484001111378</v>
       </c>
       <c r="R22" t="n">
-        <v>123.9159858479443</v>
+        <v>128.2379412512818</v>
       </c>
       <c r="S22" t="n">
-        <v>203.3282667794865</v>
+        <v>92.84967502477912</v>
       </c>
       <c r="T22" t="n">
-        <v>222.8733329384441</v>
+        <v>223.2840322994568</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2542771459823</v>
+        <v>286.2595201165485</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24208,10 +24208,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>192.1743219664883</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24220,7 +24220,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.8707348436268</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>304.326804756183</v>
@@ -24259,22 +24259,22 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T23" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>104.0600590442126</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24299,7 +24299,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>126.464681658973</v>
+        <v>20.55852864288805</v>
       </c>
       <c r="H24" t="n">
         <v>94.50081326185514</v>
@@ -24332,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>166.7828629525847</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4515011109318</v>
@@ -24420,10 +24420,10 @@
         <v>221.3678187343026</v>
       </c>
       <c r="U25" t="n">
-        <v>246.0537323240011</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.8707348436268</v>
+        <v>71.36248089348032</v>
       </c>
       <c r="H26" t="n">
         <v>304.326804756183</v>
       </c>
       <c r="I26" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24499,19 +24499,19 @@
         <v>208.0722578696039</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>188.9424645200908</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24521,16 +24521,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>39.18364296475526</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24539,7 +24539,7 @@
         <v>135.5072338470353</v>
       </c>
       <c r="H27" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>36.29946757904885</v>
@@ -24572,16 +24572,16 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>52.10587366853119</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>92.87215808384799</v>
+        <v>41.37935339401602</v>
       </c>
       <c r="H28" t="n">
         <v>148.5398113612452</v>
@@ -24660,7 +24660,7 @@
         <v>286.2350578157167</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24682,25 +24682,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>240.1701749260875</v>
       </c>
       <c r="G29" t="n">
-        <v>411.8707348436268</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>304.326804756183</v>
       </c>
       <c r="I29" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24739,16 +24739,16 @@
         <v>251.0710926941158</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>161.695136068511</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24758,16 +24758,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24776,7 +24776,7 @@
         <v>135.5072338470353</v>
       </c>
       <c r="H30" t="n">
-        <v>94.50081326185514</v>
+        <v>45.35895830320365</v>
       </c>
       <c r="I30" t="n">
         <v>36.29946757904885</v>
@@ -24806,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>27.41702597267363</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24891,16 +24891,16 @@
         <v>197.1876907596159</v>
       </c>
       <c r="T31" t="n">
-        <v>1.354513060650049</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U31" t="n">
         <v>286.2350578157167</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>142.8195025392597</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24919,10 +24919,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24931,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>218.8828292914557</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H32" t="n">
         <v>304.326804756183</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>208.0722578696039</v>
+        <v>56.33199872938303</v>
       </c>
       <c r="U32" t="n">
         <v>251.0710926941158</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25001,16 +25001,16 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>135.5072338470353</v>
+        <v>12.09772890558395</v>
       </c>
       <c r="H33" t="n">
         <v>94.50081326185514</v>
@@ -25043,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U33" t="n">
-        <v>51.38625591708038</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25083,19 +25083,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4515011109318</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I34" t="n">
-        <v>77.39803848034857</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J34" t="n">
         <v>18.15430933923925</v>
@@ -25128,13 +25128,13 @@
         <v>197.1876907596159</v>
       </c>
       <c r="T34" t="n">
-        <v>221.3678187343026</v>
+        <v>1.354513060649708</v>
       </c>
       <c r="U34" t="n">
         <v>286.2350578157167</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>86.91054143223295</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>304.326804756183</v>
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>208.0722578696039</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0710926941158</v>
+        <v>215.0042069627583</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25232,22 +25232,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>76.83436461953524</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>135.5072338470353</v>
+        <v>80.98733674803067</v>
       </c>
       <c r="H36" t="n">
         <v>94.50081326185514</v>
@@ -25280,10 +25280,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25292,10 +25292,10 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4515011109318</v>
+        <v>92.71718564748296</v>
       </c>
       <c r="H37" t="n">
-        <v>116.8593460514773</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I37" t="n">
         <v>109.1541654470835</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>154.5444222457726</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>173.8944054623037</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>411.8707348436268</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>304.326804756183</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.0710926941158</v>
@@ -25453,7 +25453,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25475,19 +25475,19 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>135.5072338470353</v>
       </c>
       <c r="H39" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>36.29946757904885</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25526,13 +25526,13 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>85.72246781400185</v>
+        <v>177.5559300561497</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>2.730466849237956</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>10.0871845733239</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I40" t="n">
         <v>109.1541654470835</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25639,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>188.9424645200902</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.8707348436268</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>304.326804756183</v>
       </c>
       <c r="I41" t="n">
-        <v>78.16360657708302</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>130.8133087092505</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>208.0722578696039</v>
@@ -25687,13 +25687,13 @@
         <v>251.0710926941158</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>249.278747176854</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25706,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S42" t="n">
         <v>137.5750138932992</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U42" t="n">
-        <v>50.00311225490063</v>
+        <v>1.809145232214377</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25775,7 +25775,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25791,16 +25791,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>147.1868206966543</v>
+        <v>96.40992442023301</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.5398113612452</v>
@@ -25809,7 +25809,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J43" t="n">
-        <v>18.15430933923926</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,10 +25830,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>22.59469128425556</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R43" t="n">
-        <v>108.0728512656386</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.1876907596159</v>
@@ -25845,7 +25845,7 @@
         <v>286.2350578157167</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>289.9421415310264</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>235.5403075927096</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H44" t="n">
         <v>304.326804756183</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>130.8133087092505</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25943,10 +25943,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>60.47438162997875</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -25955,13 +25955,13 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>135.5072338470353</v>
+        <v>96.30995849406996</v>
       </c>
       <c r="H45" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>36.29946757904886</v>
@@ -26025,13 +26025,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>38.71752550733206</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,7 +26040,7 @@
         <v>166.4515011109318</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I46" t="n">
         <v>109.1541654470835</v>
@@ -26073,13 +26073,13 @@
         <v>108.0728512656386</v>
       </c>
       <c r="S46" t="n">
-        <v>197.1876907596159</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.3678187343026</v>
       </c>
       <c r="U46" t="n">
-        <v>188.3335755685183</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26088,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>348932.9768560525</v>
+        <v>348932.9768560526</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>365065.7310253116</v>
+        <v>365065.7310253117</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>424931.0936061952</v>
+        <v>468224.6527275802</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>424931.0936061953</v>
+        <v>468224.6527275802</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>509023.063225517</v>
+        <v>468224.6527275802</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>509023.063225517</v>
+        <v>468224.65272758</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>658545.8706526516</v>
+        <v>658545.8706526515</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>658545.8706526516</v>
+        <v>658545.8706526515</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>658545.8706526514</v>
+        <v>658545.8706526515</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>658545.8706526516</v>
+        <v>658545.8706526514</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>658545.8706526516</v>
+        <v>658545.8706526515</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>658545.8706526515</v>
+        <v>658545.8706526516</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>658545.8706526515</v>
+        <v>658545.8706526516</v>
       </c>
     </row>
   </sheetData>
@@ -26319,31 +26319,31 @@
         <v>129994.6384365685</v>
       </c>
       <c r="D2" t="n">
-        <v>136004.8801859004</v>
+        <v>136004.8801859003</v>
       </c>
       <c r="E2" t="n">
-        <v>158307.6623238766</v>
+        <v>174436.6353298828</v>
       </c>
       <c r="F2" t="n">
-        <v>158307.6623238766</v>
+        <v>174436.6353298828</v>
       </c>
       <c r="G2" t="n">
-        <v>189636.0431624473</v>
+        <v>174436.6353298828</v>
       </c>
       <c r="H2" t="n">
-        <v>189636.0431624473</v>
+        <v>174436.6353298827</v>
       </c>
       <c r="I2" t="n">
         <v>245340.6184784387</v>
       </c>
       <c r="J2" t="n">
-        <v>245340.6184784386</v>
+        <v>245340.6184784387</v>
       </c>
       <c r="K2" t="n">
-        <v>245340.6184784386</v>
+        <v>245340.6184784387</v>
       </c>
       <c r="L2" t="n">
-        <v>245340.6184784386</v>
+        <v>245340.6184784387</v>
       </c>
       <c r="M2" t="n">
         <v>245340.6184784386</v>
@@ -26352,10 +26352,10 @@
         <v>245340.6184784387</v>
       </c>
       <c r="O2" t="n">
+        <v>245340.6184784387</v>
+      </c>
+      <c r="P2" t="n">
         <v>245340.6184784386</v>
-      </c>
-      <c r="P2" t="n">
-        <v>245340.6184784387</v>
       </c>
     </row>
     <row r="3">
@@ -26371,40 +26371,40 @@
         <v>69152.13364531014</v>
       </c>
       <c r="D3" t="n">
-        <v>21905.62569575124</v>
+        <v>21905.62569575126</v>
       </c>
       <c r="E3" t="n">
-        <v>80646.21400928601</v>
+        <v>145682.2540662463</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>120376.4632767664</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>207445.0213781837</v>
+        <v>264035.3461263064</v>
       </c>
       <c r="J3" t="n">
-        <v>13028.56481860493</v>
+        <v>13028.56481860499</v>
       </c>
       <c r="K3" t="n">
-        <v>11033.3513000807</v>
+        <v>11033.35130008064</v>
       </c>
       <c r="L3" t="n">
-        <v>4922.040583148831</v>
+        <v>4922.040583148902</v>
       </c>
       <c r="M3" t="n">
-        <v>18793.20307042416</v>
+        <v>35161.33660335705</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>30707.75274100853</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>81.37067654131212</v>
       </c>
       <c r="E4" t="n">
-        <v>137.800118072334</v>
+        <v>182.2589384760899</v>
       </c>
       <c r="F4" t="n">
-        <v>137.800118072334</v>
+        <v>182.2589384760899</v>
       </c>
       <c r="G4" t="n">
-        <v>225.1452198420045</v>
+        <v>182.2589384760899</v>
       </c>
       <c r="H4" t="n">
-        <v>225.1452198420045</v>
+        <v>182.2589384760898</v>
       </c>
       <c r="I4" t="n">
         <v>384.3219252469136</v>
@@ -26456,7 +26456,7 @@
         <v>384.3219252469136</v>
       </c>
       <c r="O4" t="n">
-        <v>384.3219252469135</v>
+        <v>384.3219252469136</v>
       </c>
       <c r="P4" t="n">
         <v>384.3219252469135</v>
@@ -26478,31 +26478,31 @@
         <v>50823.37311172271</v>
       </c>
       <c r="E5" t="n">
-        <v>23358.20041161357</v>
+        <v>28584.23211703038</v>
       </c>
       <c r="F5" t="n">
-        <v>23358.20041161357</v>
+        <v>28584.23211703038</v>
       </c>
       <c r="G5" t="n">
-        <v>33511.05705494974</v>
+        <v>28584.23211703037</v>
       </c>
       <c r="H5" t="n">
-        <v>33511.05705494974</v>
+        <v>28584.23211703037</v>
       </c>
       <c r="I5" t="n">
         <v>51571.48185587223</v>
       </c>
       <c r="J5" t="n">
-        <v>51571.48185587222</v>
+        <v>51571.48185587223</v>
       </c>
       <c r="K5" t="n">
         <v>51571.48185587223</v>
       </c>
       <c r="L5" t="n">
+        <v>51571.48185587223</v>
+      </c>
+      <c r="M5" t="n">
         <v>51571.48185587222</v>
-      </c>
-      <c r="M5" t="n">
-        <v>51571.48185587223</v>
       </c>
       <c r="N5" t="n">
         <v>51571.48185587223</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-331764.4455588156</v>
+        <v>-346359.9606441642</v>
       </c>
       <c r="C6" t="n">
-        <v>11538.23954156153</v>
+        <v>-2145.981629436714</v>
       </c>
       <c r="D6" t="n">
-        <v>63194.51070188512</v>
+        <v>49826.61804400958</v>
       </c>
       <c r="E6" t="n">
-        <v>54165.44778490467</v>
+        <v>-11357.27849479902</v>
       </c>
       <c r="F6" t="n">
-        <v>134811.6617941907</v>
+        <v>134324.9755714473</v>
       </c>
       <c r="G6" t="n">
-        <v>35523.37761088916</v>
+        <v>134324.9755714473</v>
       </c>
       <c r="H6" t="n">
-        <v>155899.8408876556</v>
+        <v>134324.9755714472</v>
       </c>
       <c r="I6" t="n">
-        <v>-14060.20668086418</v>
+        <v>-78263.91154514978</v>
       </c>
       <c r="J6" t="n">
-        <v>180356.2498787146</v>
+        <v>172742.8697625516</v>
       </c>
       <c r="K6" t="n">
-        <v>182351.4633972388</v>
+        <v>174738.0832810759</v>
       </c>
       <c r="L6" t="n">
-        <v>188462.7741141707</v>
+        <v>180849.3939980077</v>
       </c>
       <c r="M6" t="n">
-        <v>174591.6116268953</v>
+        <v>150610.0979777995</v>
       </c>
       <c r="N6" t="n">
-        <v>193384.8146973196</v>
+        <v>185771.4345811566</v>
       </c>
       <c r="O6" t="n">
-        <v>162677.0619563109</v>
+        <v>185771.4345811566</v>
       </c>
       <c r="P6" t="n">
-        <v>193384.8146973196</v>
+        <v>185771.4345811566</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>476.1157511985022</v>
       </c>
       <c r="E3" t="n">
-        <v>548.4699409129046</v>
+        <v>605.0106060815103</v>
       </c>
       <c r="F3" t="n">
-        <v>548.4699409129046</v>
+        <v>605.0106060815103</v>
       </c>
       <c r="G3" t="n">
-        <v>658.3141401703871</v>
+        <v>605.0106060815103</v>
       </c>
       <c r="H3" t="n">
-        <v>658.3141401703871</v>
+        <v>605.0106060815102</v>
       </c>
       <c r="I3" t="n">
         <v>853.7106645376841</v>
@@ -26776,7 +26776,7 @@
         <v>853.7106645376841</v>
       </c>
       <c r="O3" t="n">
-        <v>853.710664537684</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="P3" t="n">
         <v>853.710664537684</v>
@@ -26798,37 +26798,37 @@
         <v>112.1126601249237</v>
       </c>
       <c r="E4" t="n">
-        <v>187.5255871663199</v>
+        <v>253.2072517179844</v>
       </c>
       <c r="F4" t="n">
-        <v>187.52558716632</v>
+        <v>253.2072517179844</v>
       </c>
       <c r="G4" t="n">
-        <v>315.128434197949</v>
+        <v>253.2072517179843</v>
       </c>
       <c r="H4" t="n">
-        <v>315.128434197949</v>
+        <v>253.2072517179843</v>
       </c>
       <c r="I4" t="n">
         <v>542.1149567261632</v>
       </c>
       <c r="J4" t="n">
-        <v>542.114956726163</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="K4" t="n">
         <v>542.1149567261632</v>
       </c>
       <c r="L4" t="n">
+        <v>542.1149567261632</v>
+      </c>
+      <c r="M4" t="n">
         <v>542.114956726163</v>
-      </c>
-      <c r="M4" t="n">
-        <v>542.1149567261632</v>
       </c>
       <c r="N4" t="n">
         <v>542.1149567261632</v>
       </c>
       <c r="O4" t="n">
-        <v>542.1149567261631</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="P4" t="n">
         <v>542.1149567261631</v>
@@ -26968,19 +26968,19 @@
         <v>18.52443243433669</v>
       </c>
       <c r="E3" t="n">
-        <v>72.35418971440237</v>
+        <v>128.8948548830081</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>109.8441992574825</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>195.396524367297</v>
+        <v>248.7000584561739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27017,40 +27017,40 @@
         <v>42.86994226197757</v>
       </c>
       <c r="D4" t="n">
-        <v>19.44771083582145</v>
+        <v>19.44771083582151</v>
       </c>
       <c r="E4" t="n">
-        <v>75.41292704139622</v>
+        <v>141.0945915930607</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>127.602847031629</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>226.9865225282142</v>
+        <v>288.9077050081789</v>
       </c>
       <c r="J4" t="n">
-        <v>49.79500702712437</v>
+        <v>49.7950070271246</v>
       </c>
       <c r="K4" t="n">
-        <v>42.8699422619778</v>
+        <v>42.86994226197757</v>
       </c>
       <c r="L4" t="n">
-        <v>19.44771083582123</v>
+        <v>19.44771083582151</v>
       </c>
       <c r="M4" t="n">
-        <v>75.41292704139644</v>
+        <v>141.0945915930605</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>127.6028470316289</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27263,16 +27263,16 @@
         <v>42.86994226197757</v>
       </c>
       <c r="L4" t="n">
-        <v>19.44771083582145</v>
+        <v>19.44771083582151</v>
       </c>
       <c r="M4" t="n">
-        <v>75.41292704139622</v>
+        <v>141.0945915930607</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>127.602847031629</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31141,13 +31141,13 @@
         <v>191.9290409491429</v>
       </c>
       <c r="N3" t="n">
-        <v>181.1367191104579</v>
+        <v>153.0991627102423</v>
       </c>
       <c r="O3" t="n">
         <v>192.3912514715691</v>
       </c>
       <c r="P3" t="n">
-        <v>134.9670493543445</v>
+        <v>163.0046057545602</v>
       </c>
       <c r="Q3" t="n">
         <v>108.96426215905</v>
@@ -31612,7 +31612,7 @@
         <v>222.3595307837911</v>
       </c>
       <c r="M9" t="n">
-        <v>199.9629954989595</v>
+        <v>254.246694046942</v>
       </c>
       <c r="N9" t="n">
         <v>243.454372208257</v>
@@ -31621,7 +31621,7 @@
         <v>243.6589731628788</v>
       </c>
       <c r="P9" t="n">
-        <v>195.5578073177395</v>
+        <v>141.2741087697572</v>
       </c>
       <c r="Q9" t="n">
         <v>130.7252153102001</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.204904285077002</v>
+        <v>2.432203441533708</v>
       </c>
       <c r="H11" t="n">
-        <v>22.58097600954485</v>
+        <v>24.90880349560709</v>
       </c>
       <c r="I11" t="n">
-        <v>85.00457245043118</v>
+        <v>93.76752317972837</v>
       </c>
       <c r="J11" t="n">
-        <v>187.1384950655543</v>
+        <v>206.4302268458717</v>
       </c>
       <c r="K11" t="n">
-        <v>280.4720934528639</v>
+        <v>309.3853985259937</v>
       </c>
       <c r="L11" t="n">
-        <v>347.9504329672893</v>
+        <v>383.8199445998309</v>
       </c>
       <c r="M11" t="n">
-        <v>387.1618995470274</v>
+        <v>427.073642553206</v>
       </c>
       <c r="N11" t="n">
-        <v>393.4265838470024</v>
+        <v>433.9841405814637</v>
       </c>
       <c r="O11" t="n">
-        <v>371.501566862268</v>
+        <v>409.7989176097129</v>
       </c>
       <c r="P11" t="n">
-        <v>317.0679923244294</v>
+        <v>349.7538951468494</v>
       </c>
       <c r="Q11" t="n">
-        <v>238.1048576151092</v>
+        <v>262.6506093969234</v>
       </c>
       <c r="R11" t="n">
-        <v>138.5038187974683</v>
+        <v>152.7818994342419</v>
       </c>
       <c r="S11" t="n">
-        <v>50.24425639619223</v>
+        <v>55.42383592394943</v>
       </c>
       <c r="T11" t="n">
-        <v>9.651968507924579</v>
+        <v>10.64697056531381</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1945762753226966</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.179727797435304</v>
+        <v>1.301343567797966</v>
       </c>
       <c r="H12" t="n">
-        <v>11.39368688575676</v>
+        <v>12.5682391942593</v>
       </c>
       <c r="I12" t="n">
-        <v>40.6178210959085</v>
+        <v>44.80503073339487</v>
       </c>
       <c r="J12" t="n">
-        <v>111.4584056340083</v>
+        <v>122.9484289207718</v>
       </c>
       <c r="K12" t="n">
-        <v>190.5001680621737</v>
+        <v>210.1384479632355</v>
       </c>
       <c r="L12" t="n">
-        <v>256.1509851405032</v>
+        <v>282.5570759817469</v>
       </c>
       <c r="M12" t="n">
-        <v>298.9161177975329</v>
+        <v>329.7307803144231</v>
       </c>
       <c r="N12" t="n">
-        <v>306.8275379829654</v>
+        <v>338.4577729247876</v>
       </c>
       <c r="O12" t="n">
-        <v>280.6872536292673</v>
+        <v>309.6227391330537</v>
       </c>
       <c r="P12" t="n">
-        <v>225.2762668628872</v>
+        <v>248.4995449771396</v>
       </c>
       <c r="Q12" t="n">
-        <v>150.5912184936715</v>
+        <v>166.1153648999649</v>
       </c>
       <c r="R12" t="n">
-        <v>73.24660833550075</v>
+        <v>80.79745414801758</v>
       </c>
       <c r="S12" t="n">
-        <v>21.9129264128882</v>
+        <v>24.17188600712448</v>
       </c>
       <c r="T12" t="n">
-        <v>4.755130902820369</v>
+        <v>5.245327801782149</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.08561470840776093</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9890441557445819</v>
+        <v>1.091002732278133</v>
       </c>
       <c r="H13" t="n">
-        <v>8.793501675620016</v>
+        <v>9.70000611061832</v>
       </c>
       <c r="I13" t="n">
-        <v>29.74325515639162</v>
+        <v>32.8094276216006</v>
       </c>
       <c r="J13" t="n">
-        <v>69.92542181114193</v>
+        <v>77.13389317206402</v>
       </c>
       <c r="K13" t="n">
-        <v>114.9089482765069</v>
+        <v>126.7546810774049</v>
       </c>
       <c r="L13" t="n">
-        <v>147.0438920276991</v>
+        <v>162.2023516697872</v>
       </c>
       <c r="M13" t="n">
-        <v>155.0371670682166</v>
+        <v>171.0196373879259</v>
       </c>
       <c r="N13" t="n">
-        <v>151.3507297604415</v>
+        <v>166.9531726585257</v>
       </c>
       <c r="O13" t="n">
-        <v>139.7968957592433</v>
+        <v>154.2082771041857</v>
       </c>
       <c r="P13" t="n">
-        <v>119.6203949820538</v>
+        <v>131.9518213657116</v>
       </c>
       <c r="Q13" t="n">
-        <v>82.81896107784858</v>
+        <v>91.35660151830805</v>
       </c>
       <c r="R13" t="n">
-        <v>44.4710217664791</v>
+        <v>49.05545012588769</v>
       </c>
       <c r="S13" t="n">
-        <v>17.23634224147603</v>
+        <v>19.01320216161074</v>
       </c>
       <c r="T13" t="n">
-        <v>4.225915938181394</v>
+        <v>4.66155712882475</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.0595092399424437</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.204904285077002</v>
+        <v>2.432203441533708</v>
       </c>
       <c r="H14" t="n">
-        <v>22.58097600954485</v>
+        <v>24.90880349560709</v>
       </c>
       <c r="I14" t="n">
-        <v>85.00457245043118</v>
+        <v>93.76752317972837</v>
       </c>
       <c r="J14" t="n">
-        <v>187.1384950655543</v>
+        <v>206.4302268458717</v>
       </c>
       <c r="K14" t="n">
-        <v>280.4720934528639</v>
+        <v>309.3853985259937</v>
       </c>
       <c r="L14" t="n">
-        <v>347.9504329672893</v>
+        <v>383.8199445998309</v>
       </c>
       <c r="M14" t="n">
-        <v>387.1618995470274</v>
+        <v>427.073642553206</v>
       </c>
       <c r="N14" t="n">
-        <v>393.4265838470024</v>
+        <v>433.9841405814637</v>
       </c>
       <c r="O14" t="n">
-        <v>371.501566862268</v>
+        <v>409.7989176097129</v>
       </c>
       <c r="P14" t="n">
-        <v>317.0679923244294</v>
+        <v>349.7538951468494</v>
       </c>
       <c r="Q14" t="n">
-        <v>238.1048576151092</v>
+        <v>262.6506093969234</v>
       </c>
       <c r="R14" t="n">
-        <v>138.5038187974683</v>
+        <v>152.7818994342419</v>
       </c>
       <c r="S14" t="n">
-        <v>50.24425639619223</v>
+        <v>55.42383592394943</v>
       </c>
       <c r="T14" t="n">
-        <v>9.651968507924579</v>
+        <v>10.64697056531381</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1945762753226966</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.179727797435304</v>
+        <v>1.301343567797966</v>
       </c>
       <c r="H15" t="n">
-        <v>11.39368688575676</v>
+        <v>12.5682391942593</v>
       </c>
       <c r="I15" t="n">
-        <v>40.6178210959085</v>
+        <v>44.80503073339487</v>
       </c>
       <c r="J15" t="n">
-        <v>111.4584056340083</v>
+        <v>122.9484289207718</v>
       </c>
       <c r="K15" t="n">
-        <v>190.5001680621737</v>
+        <v>210.1384479632355</v>
       </c>
       <c r="L15" t="n">
-        <v>256.1509851405032</v>
+        <v>282.5570759817469</v>
       </c>
       <c r="M15" t="n">
-        <v>298.9161177975329</v>
+        <v>329.7307803144231</v>
       </c>
       <c r="N15" t="n">
-        <v>306.8275379829654</v>
+        <v>338.4577729247876</v>
       </c>
       <c r="O15" t="n">
-        <v>280.6872536292673</v>
+        <v>309.6227391330537</v>
       </c>
       <c r="P15" t="n">
-        <v>225.2762668628872</v>
+        <v>248.4995449771396</v>
       </c>
       <c r="Q15" t="n">
-        <v>150.5912184936715</v>
+        <v>166.1153648999649</v>
       </c>
       <c r="R15" t="n">
-        <v>73.24660833550075</v>
+        <v>80.79745414801758</v>
       </c>
       <c r="S15" t="n">
-        <v>21.9129264128882</v>
+        <v>24.17188600712448</v>
       </c>
       <c r="T15" t="n">
-        <v>4.755130902820369</v>
+        <v>5.245327801782149</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.08561470840776093</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9890441557445819</v>
+        <v>1.091002732278133</v>
       </c>
       <c r="H16" t="n">
-        <v>8.793501675620016</v>
+        <v>9.70000611061832</v>
       </c>
       <c r="I16" t="n">
-        <v>29.74325515639162</v>
+        <v>32.8094276216006</v>
       </c>
       <c r="J16" t="n">
-        <v>69.92542181114193</v>
+        <v>77.13389317206402</v>
       </c>
       <c r="K16" t="n">
-        <v>114.9089482765069</v>
+        <v>126.7546810774049</v>
       </c>
       <c r="L16" t="n">
-        <v>147.0438920276991</v>
+        <v>162.2023516697872</v>
       </c>
       <c r="M16" t="n">
-        <v>155.0371670682166</v>
+        <v>171.0196373879259</v>
       </c>
       <c r="N16" t="n">
-        <v>151.3507297604415</v>
+        <v>166.9531726585257</v>
       </c>
       <c r="O16" t="n">
-        <v>139.7968957592433</v>
+        <v>154.2082771041857</v>
       </c>
       <c r="P16" t="n">
-        <v>119.6203949820538</v>
+        <v>131.9518213657116</v>
       </c>
       <c r="Q16" t="n">
-        <v>82.81896107784858</v>
+        <v>91.35660151830805</v>
       </c>
       <c r="R16" t="n">
-        <v>44.4710217664791</v>
+        <v>49.05545012588769</v>
       </c>
       <c r="S16" t="n">
-        <v>17.23634224147603</v>
+        <v>19.01320216161074</v>
       </c>
       <c r="T16" t="n">
-        <v>4.225915938181394</v>
+        <v>4.66155712882475</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.0595092399424437</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.646489005710097</v>
+        <v>2.432203441533708</v>
       </c>
       <c r="H17" t="n">
-        <v>27.10335552972854</v>
+        <v>24.90880349560709</v>
       </c>
       <c r="I17" t="n">
-        <v>102.0287673926386</v>
+        <v>93.76752317972837</v>
       </c>
       <c r="J17" t="n">
-        <v>224.6174462483875</v>
+        <v>206.4302268458717</v>
       </c>
       <c r="K17" t="n">
-        <v>336.643325860096</v>
+        <v>309.3853985259937</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6358137685964</v>
+        <v>383.8199445998309</v>
       </c>
       <c r="M17" t="n">
-        <v>464.7003126238934</v>
+        <v>427.073642553206</v>
       </c>
       <c r="N17" t="n">
-        <v>472.2196495113672</v>
+        <v>433.9841405814637</v>
       </c>
       <c r="O17" t="n">
-        <v>445.9036244608374</v>
+        <v>409.7989176097129</v>
       </c>
       <c r="P17" t="n">
-        <v>380.5684271323693</v>
+        <v>349.7538951468494</v>
       </c>
       <c r="Q17" t="n">
-        <v>285.7910396153764</v>
+        <v>262.6506093969234</v>
       </c>
       <c r="R17" t="n">
-        <v>166.242515004937</v>
+        <v>152.7818994342419</v>
       </c>
       <c r="S17" t="n">
-        <v>60.30686821761889</v>
+        <v>55.42383592394943</v>
       </c>
       <c r="T17" t="n">
-        <v>11.58500562249595</v>
+        <v>10.64697056531381</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2117191204568077</v>
+        <v>0.1945762753226966</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.415996452441965</v>
+        <v>1.301343567797966</v>
       </c>
       <c r="H18" t="n">
-        <v>13.67554468542635</v>
+        <v>12.5682391942593</v>
       </c>
       <c r="I18" t="n">
-        <v>48.7525094371466</v>
+        <v>44.80503073339487</v>
       </c>
       <c r="J18" t="n">
-        <v>133.7806122019841</v>
+        <v>122.9484289207718</v>
       </c>
       <c r="K18" t="n">
-        <v>228.6523745155957</v>
+        <v>210.1384479632355</v>
       </c>
       <c r="L18" t="n">
-        <v>307.4513349918398</v>
+        <v>282.5570759817469</v>
       </c>
       <c r="M18" t="n">
-        <v>358.7812063928609</v>
+        <v>329.7307803144231</v>
       </c>
       <c r="N18" t="n">
-        <v>368.277077339281</v>
+        <v>338.4577729247876</v>
       </c>
       <c r="O18" t="n">
-        <v>336.9015769983301</v>
+        <v>309.6227391330537</v>
       </c>
       <c r="P18" t="n">
-        <v>270.3932173088521</v>
+        <v>248.4995449771396</v>
       </c>
       <c r="Q18" t="n">
-        <v>180.7507050520655</v>
+        <v>166.1153648999649</v>
       </c>
       <c r="R18" t="n">
-        <v>87.91599026652834</v>
+        <v>80.79745414801758</v>
       </c>
       <c r="S18" t="n">
-        <v>26.30151305303384</v>
+        <v>24.17188600712448</v>
       </c>
       <c r="T18" t="n">
-        <v>5.707459385062127</v>
+        <v>5.245327801782149</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09315766134486614</v>
+        <v>0.08561470840776093</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.187123859323649</v>
+        <v>1.091002732278133</v>
       </c>
       <c r="H19" t="n">
-        <v>10.55461031289572</v>
+        <v>9.70000611061832</v>
       </c>
       <c r="I19" t="n">
-        <v>35.70005206038756</v>
+        <v>32.8094276216006</v>
       </c>
       <c r="J19" t="n">
-        <v>83.92965685418196</v>
+        <v>77.13389317206402</v>
       </c>
       <c r="K19" t="n">
-        <v>137.9222083832384</v>
+        <v>126.7546810774049</v>
       </c>
       <c r="L19" t="n">
-        <v>176.4929417761723</v>
+        <v>162.2023516697872</v>
       </c>
       <c r="M19" t="n">
-        <v>186.0870609665243</v>
+        <v>171.0196373879259</v>
       </c>
       <c r="N19" t="n">
-        <v>181.6623265817726</v>
+        <v>166.9531726585257</v>
       </c>
       <c r="O19" t="n">
-        <v>167.7945614978554</v>
+        <v>154.2082771041857</v>
       </c>
       <c r="P19" t="n">
-        <v>143.5772347676529</v>
+        <v>131.9518213657116</v>
       </c>
       <c r="Q19" t="n">
-        <v>99.40543516572845</v>
+        <v>91.35660151830805</v>
       </c>
       <c r="R19" t="n">
-        <v>53.37740552922514</v>
+        <v>49.05545012588769</v>
       </c>
       <c r="S19" t="n">
-        <v>20.68833125748576</v>
+        <v>19.01320216161074</v>
       </c>
       <c r="T19" t="n">
-        <v>5.072256489837407</v>
+        <v>4.66155712882475</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06475221050856272</v>
+        <v>0.0595092399424437</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.646489005710097</v>
+        <v>2.432203441533708</v>
       </c>
       <c r="H20" t="n">
-        <v>27.10335552972854</v>
+        <v>24.90880349560709</v>
       </c>
       <c r="I20" t="n">
-        <v>102.0287673926386</v>
+        <v>93.76752317972836</v>
       </c>
       <c r="J20" t="n">
-        <v>224.6174462483875</v>
+        <v>206.4302268458717</v>
       </c>
       <c r="K20" t="n">
-        <v>336.643325860096</v>
+        <v>309.3853985259936</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6358137685964</v>
+        <v>383.8199445998309</v>
       </c>
       <c r="M20" t="n">
-        <v>464.7003126238934</v>
+        <v>427.073642553206</v>
       </c>
       <c r="N20" t="n">
-        <v>472.2196495113672</v>
+        <v>433.9841405814636</v>
       </c>
       <c r="O20" t="n">
-        <v>445.9036244608374</v>
+        <v>409.7989176097128</v>
       </c>
       <c r="P20" t="n">
-        <v>380.5684271323693</v>
+        <v>349.7538951468493</v>
       </c>
       <c r="Q20" t="n">
-        <v>285.7910396153764</v>
+        <v>262.6506093969234</v>
       </c>
       <c r="R20" t="n">
-        <v>166.242515004937</v>
+        <v>152.7818994342419</v>
       </c>
       <c r="S20" t="n">
-        <v>60.30686821761889</v>
+        <v>55.42383592394942</v>
       </c>
       <c r="T20" t="n">
-        <v>11.58500562249595</v>
+        <v>10.64697056531381</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2117191204568077</v>
+        <v>0.1945762753226966</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.415996452441965</v>
+        <v>1.301343567797965</v>
       </c>
       <c r="H21" t="n">
-        <v>13.67554468542635</v>
+        <v>12.5682391942593</v>
       </c>
       <c r="I21" t="n">
-        <v>48.7525094371466</v>
+        <v>44.80503073339487</v>
       </c>
       <c r="J21" t="n">
-        <v>133.7806122019841</v>
+        <v>122.9484289207718</v>
       </c>
       <c r="K21" t="n">
-        <v>228.6523745155957</v>
+        <v>210.1384479632355</v>
       </c>
       <c r="L21" t="n">
-        <v>307.4513349918398</v>
+        <v>282.5570759817468</v>
       </c>
       <c r="M21" t="n">
-        <v>358.7812063928609</v>
+        <v>329.730780314423</v>
       </c>
       <c r="N21" t="n">
-        <v>368.277077339281</v>
+        <v>338.4577729247875</v>
       </c>
       <c r="O21" t="n">
-        <v>336.9015769983301</v>
+        <v>309.6227391330536</v>
       </c>
       <c r="P21" t="n">
-        <v>270.3932173088521</v>
+        <v>248.4995449771396</v>
       </c>
       <c r="Q21" t="n">
-        <v>180.7507050520655</v>
+        <v>166.1153648999649</v>
       </c>
       <c r="R21" t="n">
-        <v>87.91599026652834</v>
+        <v>80.79745414801756</v>
       </c>
       <c r="S21" t="n">
-        <v>26.30151305303384</v>
+        <v>24.17188600712447</v>
       </c>
       <c r="T21" t="n">
-        <v>5.707459385062127</v>
+        <v>5.245327801782148</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09315766134486614</v>
+        <v>0.08561470840776092</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.187123859323649</v>
+        <v>1.091002732278133</v>
       </c>
       <c r="H22" t="n">
-        <v>10.55461031289572</v>
+        <v>9.700006110618318</v>
       </c>
       <c r="I22" t="n">
-        <v>35.70005206038756</v>
+        <v>32.80942762160059</v>
       </c>
       <c r="J22" t="n">
-        <v>83.92965685418196</v>
+        <v>77.13389317206401</v>
       </c>
       <c r="K22" t="n">
-        <v>137.9222083832384</v>
+        <v>126.7546810774049</v>
       </c>
       <c r="L22" t="n">
-        <v>176.4929417761723</v>
+        <v>162.2023516697872</v>
       </c>
       <c r="M22" t="n">
-        <v>186.0870609665243</v>
+        <v>171.0196373879259</v>
       </c>
       <c r="N22" t="n">
-        <v>181.6623265817726</v>
+        <v>166.9531726585257</v>
       </c>
       <c r="O22" t="n">
-        <v>167.7945614978554</v>
+        <v>154.2082771041856</v>
       </c>
       <c r="P22" t="n">
-        <v>143.5772347676529</v>
+        <v>131.9518213657116</v>
       </c>
       <c r="Q22" t="n">
-        <v>99.40543516572845</v>
+        <v>91.35660151830804</v>
       </c>
       <c r="R22" t="n">
-        <v>53.37740552922514</v>
+        <v>49.05545012588768</v>
       </c>
       <c r="S22" t="n">
-        <v>20.68833125748576</v>
+        <v>19.01320216161073</v>
       </c>
       <c r="T22" t="n">
-        <v>5.072256489837407</v>
+        <v>4.661557128824749</v>
       </c>
       <c r="U22" t="n">
-        <v>0.06475221050856272</v>
+        <v>0.05950923994244369</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34137,10 +34137,10 @@
         <v>436.5636098258711</v>
       </c>
       <c r="L41" t="n">
-        <v>541.5957615840425</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M41" t="n">
-        <v>602.6296390934777</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N41" t="n">
         <v>612.3808166839008</v>
@@ -34149,22 +34149,22 @@
         <v>578.2538401190903</v>
       </c>
       <c r="P41" t="n">
-        <v>493.5262741662297</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q41" t="n">
-        <v>370.6176784928394</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R41" t="n">
         <v>215.5855378141319</v>
       </c>
       <c r="S41" t="n">
-        <v>78.20676087699489</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T41" t="n">
         <v>15.02359169452748</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2745602137206619</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,7 +34207,7 @@
         <v>17.73463097464133</v>
       </c>
       <c r="I42" t="n">
-        <v>63.22291242095114</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J42" t="n">
         <v>173.4885040076062</v>
@@ -34216,19 +34216,19 @@
         <v>296.5194861913577</v>
       </c>
       <c r="L42" t="n">
-        <v>398.7070419616797</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M42" t="n">
-        <v>465.2723121730377</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N42" t="n">
-        <v>477.5866858152842</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O42" t="n">
-        <v>436.8985133884504</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P42" t="n">
-        <v>350.6495746475631</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q42" t="n">
         <v>234.3999545349506</v>
@@ -34237,10 +34237,10 @@
         <v>114.0106430867496</v>
       </c>
       <c r="S42" t="n">
-        <v>34.10815721053858</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T42" t="n">
-        <v>7.401510384057842</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U42" t="n">
         <v>0.1208081129062761</v>
@@ -34286,22 +34286,22 @@
         <v>13.68736114619435</v>
       </c>
       <c r="I43" t="n">
-        <v>46.29630948017474</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J43" t="n">
-        <v>108.8411121001568</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K43" t="n">
         <v>178.8593818490426</v>
       </c>
       <c r="L43" t="n">
-        <v>228.8784296368735</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M43" t="n">
-        <v>241.3202129282505</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N43" t="n">
-        <v>235.5821576420138</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O43" t="n">
         <v>217.5982526595396</v>
@@ -34313,13 +34313,13 @@
         <v>128.9103103451903</v>
       </c>
       <c r="R43" t="n">
-        <v>69.22054011153088</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S43" t="n">
         <v>26.82890727735639</v>
       </c>
       <c r="T43" t="n">
-        <v>6.577770693978874</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U43" t="n">
         <v>0.08397154077419852</v>
@@ -34380,7 +34380,7 @@
         <v>602.6296390934777</v>
       </c>
       <c r="N44" t="n">
-        <v>612.3808166839009</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O44" t="n">
         <v>578.2538401190903</v>
@@ -34789,13 +34789,13 @@
         <v>49.79500702712463</v>
       </c>
       <c r="N3" t="n">
-        <v>49.79500702712463</v>
+        <v>21.75745062690899</v>
       </c>
       <c r="O3" t="n">
         <v>49.79500702712463</v>
       </c>
       <c r="P3" t="n">
-        <v>0.9926419400142784</v>
+        <v>29.03019834022993</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35260,7 +35260,7 @@
         <v>83.8051510039169</v>
       </c>
       <c r="M9" t="n">
-        <v>57.82896157694119</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="N9" t="n">
         <v>112.1126601249237</v>
@@ -35269,7 +35269,7 @@
         <v>101.0627287184343</v>
       </c>
       <c r="P9" t="n">
-        <v>61.58339990340929</v>
+        <v>7.299701355426945</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>6.092590538868052</v>
+        <v>25.38432231918546</v>
       </c>
       <c r="K11" t="n">
-        <v>60.38224240788333</v>
+        <v>89.2955474810131</v>
       </c>
       <c r="L11" t="n">
-        <v>112.184017997302</v>
+        <v>148.0535296298437</v>
       </c>
       <c r="M11" t="n">
-        <v>156.8156663197546</v>
+        <v>196.7274093259333</v>
       </c>
       <c r="N11" t="n">
-        <v>164.0135202504115</v>
+        <v>204.5710769848728</v>
       </c>
       <c r="O11" t="n">
-        <v>141.4033554405812</v>
+        <v>179.7007061880261</v>
       </c>
       <c r="P11" t="n">
-        <v>85.8349965691599</v>
+        <v>118.5208993915799</v>
       </c>
       <c r="Q11" t="n">
-        <v>15.79916774065975</v>
+        <v>40.34491952247393</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>52.65872908781469</v>
+        <v>72.29700898887654</v>
       </c>
       <c r="L12" t="n">
-        <v>117.596605360629</v>
+        <v>144.0026962018727</v>
       </c>
       <c r="M12" t="n">
-        <v>156.7820838755146</v>
+        <v>187.5967463924048</v>
       </c>
       <c r="N12" t="n">
-        <v>175.4858258996321</v>
+        <v>207.1160608414543</v>
       </c>
       <c r="O12" t="n">
-        <v>138.0910091848229</v>
+        <v>167.0264946886093</v>
       </c>
       <c r="P12" t="n">
-        <v>91.30185944855694</v>
+        <v>114.5251375628094</v>
       </c>
       <c r="Q12" t="n">
-        <v>10.60944440764996</v>
+        <v>26.13359081394339</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35573,16 +35573,16 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>12.15921574646077</v>
+        <v>27.31767538854893</v>
       </c>
       <c r="M13" t="n">
-        <v>16.11138312061152</v>
+        <v>32.09385344032086</v>
       </c>
       <c r="N13" t="n">
-        <v>23.66518529520826</v>
+        <v>39.26762819329252</v>
       </c>
       <c r="O13" t="n">
-        <v>1.340357307400524</v>
+        <v>15.75173865234288</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>6.092590538868052</v>
+        <v>25.38432231918546</v>
       </c>
       <c r="K14" t="n">
-        <v>60.38224240788333</v>
+        <v>89.2955474810131</v>
       </c>
       <c r="L14" t="n">
-        <v>112.184017997302</v>
+        <v>148.0535296298437</v>
       </c>
       <c r="M14" t="n">
-        <v>156.8156663197546</v>
+        <v>196.7274093259333</v>
       </c>
       <c r="N14" t="n">
-        <v>164.0135202504115</v>
+        <v>204.5710769848728</v>
       </c>
       <c r="O14" t="n">
-        <v>141.4033554405812</v>
+        <v>179.7007061880261</v>
       </c>
       <c r="P14" t="n">
-        <v>85.8349965691599</v>
+        <v>118.5208993915799</v>
       </c>
       <c r="Q14" t="n">
-        <v>15.79916774065975</v>
+        <v>40.34491952247393</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>52.65872908781469</v>
+        <v>72.29700898887654</v>
       </c>
       <c r="L15" t="n">
-        <v>117.596605360629</v>
+        <v>144.0026962018727</v>
       </c>
       <c r="M15" t="n">
-        <v>156.7820838755146</v>
+        <v>187.5967463924048</v>
       </c>
       <c r="N15" t="n">
-        <v>175.4858258996321</v>
+        <v>207.1160608414543</v>
       </c>
       <c r="O15" t="n">
-        <v>138.0910091848229</v>
+        <v>167.0264946886093</v>
       </c>
       <c r="P15" t="n">
-        <v>91.30185944855694</v>
+        <v>114.5251375628094</v>
       </c>
       <c r="Q15" t="n">
-        <v>10.60944440764996</v>
+        <v>26.13359081394339</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35810,16 +35810,16 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>12.15921574646077</v>
+        <v>27.31767538854893</v>
       </c>
       <c r="M16" t="n">
-        <v>16.11138312061152</v>
+        <v>32.09385344032086</v>
       </c>
       <c r="N16" t="n">
-        <v>23.66518529520826</v>
+        <v>39.26762819329252</v>
       </c>
       <c r="O16" t="n">
-        <v>1.340357307400524</v>
+        <v>15.75173865234288</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>43.57154172170124</v>
+        <v>25.38432231918546</v>
       </c>
       <c r="K17" t="n">
-        <v>116.5534748151155</v>
+        <v>89.2955474810131</v>
       </c>
       <c r="L17" t="n">
-        <v>181.8693987986092</v>
+        <v>148.0535296298437</v>
       </c>
       <c r="M17" t="n">
-        <v>234.3540793966206</v>
+        <v>196.7274093259333</v>
       </c>
       <c r="N17" t="n">
-        <v>242.8065859147763</v>
+        <v>204.5710769848728</v>
       </c>
       <c r="O17" t="n">
-        <v>215.8054130391507</v>
+        <v>179.7007061880261</v>
       </c>
       <c r="P17" t="n">
-        <v>149.3354313770998</v>
+        <v>118.5208993915799</v>
       </c>
       <c r="Q17" t="n">
-        <v>63.48534974092692</v>
+        <v>40.34491952247393</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>6.942985535317376</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>90.81093554123669</v>
+        <v>72.29700898887654</v>
       </c>
       <c r="L18" t="n">
-        <v>168.8969552119656</v>
+        <v>144.0026962018727</v>
       </c>
       <c r="M18" t="n">
-        <v>216.6471724708426</v>
+        <v>187.5967463924048</v>
       </c>
       <c r="N18" t="n">
-        <v>236.9353652559477</v>
+        <v>207.1160608414543</v>
       </c>
       <c r="O18" t="n">
-        <v>194.3053325538856</v>
+        <v>167.0264946886093</v>
       </c>
       <c r="P18" t="n">
-        <v>136.4188098945218</v>
+        <v>114.5251375628094</v>
       </c>
       <c r="Q18" t="n">
-        <v>40.76893096604402</v>
+        <v>26.13359081394339</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>8.908950212703047</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>41.60826549493402</v>
+        <v>27.31767538854893</v>
       </c>
       <c r="M19" t="n">
-        <v>47.16127701891924</v>
+        <v>32.09385344032086</v>
       </c>
       <c r="N19" t="n">
-        <v>53.97678211653945</v>
+        <v>39.26762819329252</v>
       </c>
       <c r="O19" t="n">
-        <v>29.33802304601264</v>
+        <v>15.75173865234288</v>
       </c>
       <c r="P19" t="n">
-        <v>5.849230718505254</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>43.57154172170124</v>
+        <v>25.38432231918543</v>
       </c>
       <c r="K20" t="n">
-        <v>116.5534748151155</v>
+        <v>89.29554748101305</v>
       </c>
       <c r="L20" t="n">
-        <v>181.8693987986092</v>
+        <v>148.0535296298436</v>
       </c>
       <c r="M20" t="n">
-        <v>234.3540793966206</v>
+        <v>196.7274093259332</v>
       </c>
       <c r="N20" t="n">
-        <v>242.8065859147763</v>
+        <v>204.5710769848727</v>
       </c>
       <c r="O20" t="n">
-        <v>215.8054130391507</v>
+        <v>179.7007061880261</v>
       </c>
       <c r="P20" t="n">
-        <v>149.3354313770998</v>
+        <v>118.5208993915798</v>
       </c>
       <c r="Q20" t="n">
-        <v>63.48534974092692</v>
+        <v>40.34491952247387</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>6.942985535317376</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>90.81093554123669</v>
+        <v>72.29700898887651</v>
       </c>
       <c r="L21" t="n">
-        <v>168.8969552119656</v>
+        <v>144.0026962018727</v>
       </c>
       <c r="M21" t="n">
-        <v>216.6471724708426</v>
+        <v>187.5967463924047</v>
       </c>
       <c r="N21" t="n">
-        <v>236.9353652559477</v>
+        <v>207.1160608414542</v>
       </c>
       <c r="O21" t="n">
-        <v>194.3053325538856</v>
+        <v>167.0264946886092</v>
       </c>
       <c r="P21" t="n">
-        <v>136.4188098945218</v>
+        <v>114.5251375628093</v>
       </c>
       <c r="Q21" t="n">
-        <v>40.76893096604402</v>
+        <v>26.13359081394336</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>8.908950212703047</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>41.60826549493402</v>
+        <v>27.31767538854891</v>
       </c>
       <c r="M22" t="n">
-        <v>47.16127701891924</v>
+        <v>32.09385344032083</v>
       </c>
       <c r="N22" t="n">
-        <v>53.97678211653945</v>
+        <v>39.2676281932925</v>
       </c>
       <c r="O22" t="n">
-        <v>29.33802304601264</v>
+        <v>15.75173865234285</v>
       </c>
       <c r="P22" t="n">
-        <v>5.849230718505254</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -37779,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>110.2410322142394</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K41" t="n">
-        <v>216.4737587808905</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L41" t="n">
-        <v>305.8293466140553</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M41" t="n">
-        <v>372.283405866205</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N41" t="n">
         <v>382.9677530873099</v>
@@ -37797,7 +37797,7 @@
         <v>348.1556286974036</v>
       </c>
       <c r="P41" t="n">
-        <v>262.2932784109601</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q41" t="n">
         <v>148.31198861839</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>46.65087734093947</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K42" t="n">
         <v>158.6780472169987</v>
@@ -37867,7 +37867,7 @@
         <v>260.1526621818056</v>
       </c>
       <c r="M42" t="n">
-        <v>323.1382782510194</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N42" t="n">
         <v>346.2449737319509</v>
@@ -37879,7 +37879,7 @@
         <v>216.6751672332329</v>
       </c>
       <c r="Q42" t="n">
-        <v>94.41818044892904</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,19 +37940,19 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>49.84612367850721</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L43" t="n">
-        <v>93.99375335563525</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M43" t="n">
         <v>102.3944289806455</v>
       </c>
       <c r="N43" t="n">
-        <v>107.8966131767806</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O43" t="n">
-        <v>79.14171420769679</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P43" t="n">
         <v>48.46489236084162</v>
@@ -38028,7 +38028,7 @@
         <v>372.283405866205</v>
       </c>
       <c r="N44" t="n">
-        <v>382.96775308731</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O44" t="n">
         <v>348.1556286974036</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_21_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_21_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>406808.4439759395</v>
+        <v>488530.8701657228</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14793534.46552419</v>
+        <v>14803319.36208674</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6050988.346027242</v>
+        <v>6041269.909777043</v>
       </c>
     </row>
     <row r="11">
@@ -664,50 +664,50 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.848256208035306</v>
+      </c>
+      <c r="R2" t="n">
         <v>49.79500702712463</v>
       </c>
-      <c r="E2" t="n">
-        <v>1.848256208035304</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>49.79500702712463</v>
       </c>
       <c r="Y2" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -761,43 +761,43 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
         <v>43.85944218949135</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>49.79500702712463</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="E5" t="n">
         <v>81.61928733384123</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>92.6649492891022</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -980,67 +980,67 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>81.61928733384123</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
         <v>92.6649492891022</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>14.3427387906227</v>
-      </c>
-      <c r="R6" t="n">
-        <v>84.56947841277972</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>92.6649492891022</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>75.37201941954103</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,49 +1147,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
+        <v>98.74883103803279</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
         <v>112.1126601249237</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>18.59473170946464</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>15.61164031771682</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>64.54245901085132</v>
       </c>
       <c r="V8" t="n">
         <v>112.1126601249237</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,64 +1211,64 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>16.65323814921982</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>82.095592888813</v>
+      </c>
+      <c r="S9" t="n">
         <v>112.1126601249237</v>
       </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="T9" t="n">
         <v>112.1126601249237</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>64.26286446312977</v>
-      </c>
-      <c r="J9" t="n">
-        <v>30.08282103867671</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>9.256558775821418</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>107.2592468853286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>3.625377488803587</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>3.625377488803587</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>165.1725371760943</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,10 +1378,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1417,22 +1417,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>62.8036383798902</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>212.4488789988175</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="U11" t="n">
-        <v>200.9796816524772</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>253.2072517179844</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>253.2072517179844</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1448,10 +1448,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>129.6355047656654</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="U12" t="n">
-        <v>225.855767372567</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1514,10 +1514,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>29.00874781031889</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>187.5255871663196</v>
       </c>
     </row>
     <row r="13">
@@ -1539,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>52.21594625443403</v>
       </c>
       <c r="G13" t="n">
-        <v>112.1537208505825</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>116.7083663906775</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,25 +1654,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>62.8036383798902</v>
+        <v>6.396723986041094</v>
       </c>
       <c r="S14" t="n">
-        <v>153.5962336622959</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T14" t="n">
-        <v>212.4488789988175</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1510766325138</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>185.9385084029589</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1691,19 +1691,19 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.0421735954127</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>99.66720504223716</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,22 +1736,22 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>147.5112850967134</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="U15" t="n">
-        <v>225.855767372567</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>85.56623424331221</v>
+        <v>47.60797832237478</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1776,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>52.21594625443417</v>
       </c>
       <c r="G16" t="n">
-        <v>112.1537208505825</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1846,22 +1846,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>225.0811223986711</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>253.2072517179843</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>253.2072517179843</v>
+        <v>315.1284341979487</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>312.3714465860386</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,10 +1897,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>211.5108439416354</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1510766325138</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>68.81126851182799</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>315.1284341979487</v>
       </c>
     </row>
     <row r="18">
@@ -1922,10 +1922,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>118.8801316281258</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1934,10 +1934,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>136.0421735954127</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1970,28 +1970,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>64.88204981594637</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>147.5112850967134</v>
+        <v>145.381658050804</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>194.4572693097595</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>34.69505022509209</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2007,10 +2007,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>34.50888927010934</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>112.1537208505825</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>277.5651248415533</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>315.1284341979488</v>
       </c>
       <c r="D20" t="n">
-        <v>253.2072517179843</v>
+        <v>315.1284341979488</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>315.1284341979488</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>253.2072517179843</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,10 +2128,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>62.80363837989023</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>153.5962336622959</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>253.2072517179843</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.625075271014394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2165,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>107.4365525927378</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2207,25 +2207,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>64.88204981594639</v>
+        <v>57.76351369743567</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>152.2098650008091</v>
+        <v>194.4572693097595</v>
       </c>
       <c r="U21" t="n">
-        <v>225.855767372567</v>
+        <v>225.84822441963</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>112.1537208505824</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>183.1243622883217</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>173.0985698045192</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2332,13 +2332,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>411.8707348436268</v>
+        <v>83.81888533052681</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>208.0722578696039</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2411,10 +2411,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>114.9487052041472</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>57.47824508598671</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2444,16 +2444,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2465,7 +2465,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>13.04911722935263</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>177.1015133326994</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2557,19 +2557,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>340.5082539501465</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2611,16 +2611,16 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>110.4851063397898</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2633,28 +2633,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>127.3495406851121</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H27" t="n">
-        <v>94.50081326185514</v>
+        <v>91.56994144011513</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2690,16 +2690,16 @@
         <v>192.7632183107638</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>125.0721477169158</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>185.62795066089</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>323.7791809800379</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>166.7058708156239</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>411.8707348436268</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I29" t="n">
         <v>78.16360657708299</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2870,16 +2870,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>2.66988556356747</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2888,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>49.14185495865149</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2918,13 +2918,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>225.8205739680685</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>143.7034957973313</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>158.4701652522839</v>
       </c>
     </row>
     <row r="32">
@@ -3034,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>23.35303183393661</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>151.7402591402208</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -3116,19 +3116,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>123.4095049414513</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>15.34481450688993</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3161,7 +3161,7 @@
         <v>137.5750138932992</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U33" t="n">
         <v>225.8205739680685</v>
@@ -3173,10 +3173,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3195,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>40.20690263795868</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3240,16 +3240,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>220.0133056736529</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>36.06688573135749</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>72.68466480993119</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3353,13 +3353,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>97.17069882542259</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>54.51989709900458</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3392,22 +3392,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.8205739680685</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3435,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>53.56180456272117</v>
       </c>
       <c r="G37" t="n">
-        <v>73.73431546344882</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,13 +3505,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>210.7284695252349</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>343.4571073712032</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3520,7 +3520,7 @@
         <v>411.8707348436268</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3584,7 +3584,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -3593,10 +3593,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>115.0266573988722</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H39" t="n">
         <v>94.50081326185514</v>
@@ -3629,22 +3629,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>48.26464391191888</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>143.7034957973312</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3723,10 +3723,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>185.6279506608899</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>191.8258701100579</v>
       </c>
       <c r="G41" t="n">
         <v>411.8707348436268</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3799,10 +3799,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>99.96222154055906</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3818,16 +3818,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>94.39960817649275</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -3836,7 +3836,7 @@
         <v>135.5072338470353</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3875,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>224.0114287358542</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3884,7 +3884,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3903,16 +3903,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>52.20554859797934</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>108.0728512656386</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>185.9158911817641</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>75.3307502399811</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>167.3551093645983</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>130.8133087092505</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4055,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>39.19727535296529</v>
+        <v>107.0407504967617</v>
       </c>
       <c r="H45" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4137,19 +4137,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>128.5292955912958</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.1876907596159</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>157.0839748683367</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>56.14851292091738</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="C2" t="n">
-        <v>56.14851292091738</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="D2" t="n">
-        <v>5.850526024831893</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="E2" t="n">
         <v>3.98360056216997</v>
@@ -4351,31 +4351,31 @@
         <v>156.7444867130883</v>
       </c>
       <c r="Q2" t="n">
-        <v>156.7444867130883</v>
+        <v>154.8775612504264</v>
       </c>
       <c r="R2" t="n">
-        <v>156.7444867130883</v>
+        <v>104.5795743543409</v>
       </c>
       <c r="S2" t="n">
-        <v>156.7444867130883</v>
+        <v>104.5795743543409</v>
       </c>
       <c r="T2" t="n">
-        <v>156.7444867130883</v>
+        <v>104.5795743543409</v>
       </c>
       <c r="U2" t="n">
-        <v>156.7444867130883</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="V2" t="n">
-        <v>156.7444867130883</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="W2" t="n">
-        <v>156.7444867130883</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="X2" t="n">
-        <v>106.4464998170029</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="Y2" t="n">
-        <v>56.14851292091738</v>
+        <v>3.98360056216997</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>48.28606742024204</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="C3" t="n">
-        <v>48.28606742024204</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="D3" t="n">
-        <v>48.28606742024204</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="E3" t="n">
-        <v>48.28606742024204</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="F3" t="n">
-        <v>48.28606742024204</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="G3" t="n">
-        <v>48.28606742024204</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="H3" t="n">
-        <v>48.28606742024204</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="I3" t="n">
-        <v>48.28606742024204</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="J3" t="n">
         <v>3.98360056216997</v>
@@ -4421,10 +4421,10 @@
         <v>99.60319867417761</v>
       </c>
       <c r="N3" t="n">
-        <v>121.1430747948175</v>
+        <v>148.900255631031</v>
       </c>
       <c r="O3" t="n">
-        <v>170.4401317516709</v>
+        <v>198.1973125878844</v>
       </c>
       <c r="P3" t="n">
         <v>199.1800281084985</v>
@@ -4445,16 +4445,16 @@
         <v>199.1800281084985</v>
       </c>
       <c r="V3" t="n">
-        <v>199.1800281084985</v>
+        <v>154.8775612504264</v>
       </c>
       <c r="W3" t="n">
-        <v>148.882041212413</v>
+        <v>104.5795743543409</v>
       </c>
       <c r="X3" t="n">
-        <v>98.58405431632752</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="Y3" t="n">
-        <v>48.28606742024204</v>
+        <v>3.98360056216997</v>
       </c>
     </row>
     <row r="4">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89.85692052276578</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="C5" t="n">
-        <v>89.85692052276578</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="D5" t="n">
         <v>89.85692052276578</v>
@@ -4573,7 +4573,7 @@
         <v>21.18357364821451</v>
       </c>
       <c r="L5" t="n">
-        <v>75.16870670940374</v>
+        <v>75.16870670940366</v>
       </c>
       <c r="M5" t="n">
         <v>166.9070065056148</v>
@@ -4603,16 +4603,16 @@
         <v>370.6597971564088</v>
       </c>
       <c r="V5" t="n">
+        <v>370.6597971564088</v>
+      </c>
+      <c r="W5" t="n">
         <v>277.0588382785278</v>
       </c>
-      <c r="W5" t="n">
-        <v>183.4578794006468</v>
-      </c>
       <c r="X5" t="n">
-        <v>183.4578794006468</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="Y5" t="n">
-        <v>89.85692052276578</v>
+        <v>277.0588382785278</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>101.0141548210092</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="C6" t="n">
-        <v>101.0141548210092</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="D6" t="n">
-        <v>101.0141548210092</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="E6" t="n">
-        <v>101.0141548210092</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="F6" t="n">
         <v>101.0141548210092</v>
       </c>
       <c r="G6" t="n">
-        <v>101.0141548210092</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="H6" t="n">
         <v>7.413195943128176</v>
@@ -4667,31 +4667,31 @@
         <v>370.6597971564088</v>
       </c>
       <c r="Q6" t="n">
-        <v>356.1721822163859</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="R6" t="n">
-        <v>270.7484666479215</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="S6" t="n">
-        <v>270.7484666479215</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="T6" t="n">
-        <v>177.1475077700405</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="U6" t="n">
-        <v>177.1475077700405</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="V6" t="n">
-        <v>101.0141548210092</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="W6" t="n">
-        <v>101.0141548210092</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="X6" t="n">
-        <v>101.0141548210092</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="Y6" t="n">
-        <v>101.0141548210092</v>
+        <v>277.0588382785278</v>
       </c>
     </row>
     <row r="7">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>140.9966813295781</v>
+        <v>221.9604180251015</v>
       </c>
       <c r="C8" t="n">
-        <v>140.9966813295781</v>
+        <v>221.9604180251015</v>
       </c>
       <c r="D8" t="n">
-        <v>140.9966813295781</v>
+        <v>108.7153067878048</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9966813295781</v>
+        <v>108.7153067878048</v>
       </c>
       <c r="F8" t="n">
-        <v>140.9966813295781</v>
+        <v>108.7153067878048</v>
       </c>
       <c r="G8" t="n">
-        <v>27.75157009228141</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="H8" t="n">
-        <v>27.75157009228141</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="I8" t="n">
-        <v>27.75157009228141</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="J8" t="n">
         <v>8.969012809993897</v>
@@ -4825,31 +4825,31 @@
         <v>448.4506404996948</v>
       </c>
       <c r="Q8" t="n">
-        <v>432.6813068454354</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="R8" t="n">
-        <v>432.6813068454354</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="S8" t="n">
-        <v>432.6813068454354</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="T8" t="n">
-        <v>432.6813068454354</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="U8" t="n">
-        <v>367.4869038041714</v>
+        <v>335.2055292623982</v>
       </c>
       <c r="V8" t="n">
-        <v>254.2417925668748</v>
+        <v>221.9604180251015</v>
       </c>
       <c r="W8" t="n">
-        <v>254.2417925668748</v>
+        <v>221.9604180251015</v>
       </c>
       <c r="X8" t="n">
-        <v>140.9966813295781</v>
+        <v>221.9604180251015</v>
       </c>
       <c r="Y8" t="n">
-        <v>140.9966813295781</v>
+        <v>221.9604180251015</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>217.5127962713375</v>
+        <v>25.79046548597351</v>
       </c>
       <c r="C9" t="n">
-        <v>217.5127962713375</v>
+        <v>25.79046548597351</v>
       </c>
       <c r="D9" t="n">
-        <v>217.5127962713375</v>
+        <v>25.79046548597351</v>
       </c>
       <c r="E9" t="n">
-        <v>217.5127962713375</v>
+        <v>25.79046548597351</v>
       </c>
       <c r="F9" t="n">
-        <v>217.5127962713375</v>
+        <v>25.79046548597351</v>
       </c>
       <c r="G9" t="n">
-        <v>104.2676850340409</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="H9" t="n">
-        <v>104.2676850340409</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="I9" t="n">
-        <v>39.35570072784916</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="J9" t="n">
         <v>8.969012809993897</v>
@@ -4904,31 +4904,31 @@
         <v>448.4506404996948</v>
       </c>
       <c r="Q9" t="n">
-        <v>439.1005811301782</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="R9" t="n">
-        <v>439.1005811301782</v>
+        <v>365.5257991978635</v>
       </c>
       <c r="S9" t="n">
-        <v>439.1005811301782</v>
+        <v>252.2806879605669</v>
       </c>
       <c r="T9" t="n">
-        <v>439.1005811301782</v>
+        <v>139.0355767232702</v>
       </c>
       <c r="U9" t="n">
-        <v>439.1005811301782</v>
+        <v>25.79046548597351</v>
       </c>
       <c r="V9" t="n">
-        <v>439.1005811301782</v>
+        <v>25.79046548597351</v>
       </c>
       <c r="W9" t="n">
-        <v>439.1005811301782</v>
+        <v>25.79046548597351</v>
       </c>
       <c r="X9" t="n">
-        <v>439.1005811301782</v>
+        <v>25.79046548597351</v>
       </c>
       <c r="Y9" t="n">
-        <v>330.7579075086342</v>
+        <v>25.79046548597351</v>
       </c>
     </row>
     <row r="10">
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.969012809993897</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="C10" t="n">
-        <v>8.969012809993897</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="D10" t="n">
         <v>8.969012809993897</v>
@@ -5001,13 +5001,13 @@
         <v>12.63101027343186</v>
       </c>
       <c r="W10" t="n">
-        <v>8.969012809993897</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="X10" t="n">
-        <v>8.969012809993897</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.969012809993897</v>
+        <v>12.63101027343186</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>20.25658013743876</v>
+        <v>393.8416170062745</v>
       </c>
       <c r="C11" t="n">
-        <v>20.25658013743876</v>
+        <v>393.8416170062745</v>
       </c>
       <c r="D11" t="n">
-        <v>20.25658013743876</v>
+        <v>393.8416170062745</v>
       </c>
       <c r="E11" t="n">
-        <v>20.25658013743876</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="F11" t="n">
-        <v>20.25658013743876</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="G11" t="n">
-        <v>20.25658013743876</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H11" t="n">
-        <v>20.25658013743876</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I11" t="n">
-        <v>20.25658013743876</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J11" t="n">
-        <v>45.38705923343218</v>
+        <v>21.033711606785</v>
       </c>
       <c r="K11" t="n">
-        <v>133.7896512396352</v>
+        <v>80.81213159058973</v>
       </c>
       <c r="L11" t="n">
-        <v>280.3626455731805</v>
+        <v>191.8743094079186</v>
       </c>
       <c r="M11" t="n">
-        <v>475.1227808058544</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N11" t="n">
-        <v>677.6481470208787</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O11" t="n">
-        <v>855.5518461470244</v>
+        <v>649.4845259985576</v>
       </c>
       <c r="P11" t="n">
-        <v>972.8875365446886</v>
+        <v>734.4611726020256</v>
       </c>
       <c r="Q11" t="n">
-        <v>1012.829006871938</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R11" t="n">
-        <v>949.390988306392</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="S11" t="n">
-        <v>949.390988306392</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="T11" t="n">
-        <v>734.7961610348591</v>
+        <v>560.682563648794</v>
       </c>
       <c r="U11" t="n">
-        <v>531.7863815879124</v>
+        <v>560.682563648794</v>
       </c>
       <c r="V11" t="n">
-        <v>276.0214808626756</v>
+        <v>560.682563648794</v>
       </c>
       <c r="W11" t="n">
-        <v>20.25658013743876</v>
+        <v>560.682563648794</v>
       </c>
       <c r="X11" t="n">
-        <v>20.25658013743876</v>
+        <v>560.682563648794</v>
       </c>
       <c r="Y11" t="n">
-        <v>20.25658013743876</v>
+        <v>560.682563648794</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>194.7096094185658</v>
+        <v>152.5412281508564</v>
       </c>
       <c r="C12" t="n">
-        <v>20.25658013743876</v>
+        <v>152.5412281508564</v>
       </c>
       <c r="D12" t="n">
-        <v>20.25658013743876</v>
+        <v>152.5412281508564</v>
       </c>
       <c r="E12" t="n">
-        <v>20.25658013743876</v>
+        <v>152.5412281508564</v>
       </c>
       <c r="F12" t="n">
-        <v>20.25658013743876</v>
+        <v>152.5412281508564</v>
       </c>
       <c r="G12" t="n">
-        <v>20.25658013743876</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H12" t="n">
-        <v>20.25658013743876</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I12" t="n">
-        <v>20.25658013743876</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J12" t="n">
-        <v>20.25658013743876</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K12" t="n">
-        <v>91.83061903642654</v>
+        <v>67.13418877024199</v>
       </c>
       <c r="L12" t="n">
-        <v>234.3932882762805</v>
+        <v>183.5548280772646</v>
       </c>
       <c r="M12" t="n">
-        <v>420.1140672047613</v>
+        <v>338.7690911140239</v>
       </c>
       <c r="N12" t="n">
-        <v>625.158967437801</v>
+        <v>512.5000587546594</v>
       </c>
       <c r="O12" t="n">
-        <v>790.5151971795242</v>
+        <v>649.2101578476339</v>
       </c>
       <c r="P12" t="n">
-        <v>903.8950833667054</v>
+        <v>739.5989987017052</v>
       </c>
       <c r="Q12" t="n">
-        <v>929.7673382725094</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R12" t="n">
-        <v>929.7673382725094</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="S12" t="n">
-        <v>798.8223839637565</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="T12" t="n">
-        <v>798.8223839637565</v>
+        <v>560.682563648794</v>
       </c>
       <c r="U12" t="n">
-        <v>570.6852452035878</v>
+        <v>371.2627786323095</v>
       </c>
       <c r="V12" t="n">
-        <v>570.6852452035878</v>
+        <v>371.2627786323095</v>
       </c>
       <c r="W12" t="n">
-        <v>570.6852452035878</v>
+        <v>371.2627786323095</v>
       </c>
       <c r="X12" t="n">
-        <v>570.6852452035878</v>
+        <v>341.9610131673409</v>
       </c>
       <c r="Y12" t="n">
-        <v>362.9249464386338</v>
+        <v>152.5412281508564</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>133.5431668551989</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="C13" t="n">
-        <v>133.5431668551989</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="D13" t="n">
-        <v>133.5431668551989</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="E13" t="n">
-        <v>133.5431668551989</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="F13" t="n">
-        <v>133.5431668551989</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="G13" t="n">
-        <v>20.25658013743876</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H13" t="n">
-        <v>20.25658013743876</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I13" t="n">
-        <v>20.25658013743876</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J13" t="n">
-        <v>20.25658013743876</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K13" t="n">
-        <v>20.25658013743876</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="L13" t="n">
-        <v>47.3010787721022</v>
+        <v>27.03967056230162</v>
       </c>
       <c r="M13" t="n">
-        <v>79.07399367801985</v>
+        <v>42.98993985170694</v>
       </c>
       <c r="N13" t="n">
-        <v>117.9489455893794</v>
+        <v>66.418473293963</v>
       </c>
       <c r="O13" t="n">
-        <v>133.5431668551989</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="P13" t="n">
-        <v>133.5431668551989</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="Q13" t="n">
-        <v>133.5431668551989</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="R13" t="n">
-        <v>133.5431668551989</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="S13" t="n">
-        <v>133.5431668551989</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="T13" t="n">
-        <v>133.5431668551989</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="U13" t="n">
-        <v>133.5431668551989</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="V13" t="n">
-        <v>133.5431668551989</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="W13" t="n">
-        <v>133.5431668551989</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="X13" t="n">
-        <v>133.5431668551989</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="Y13" t="n">
-        <v>133.5431668551989</v>
+        <v>67.74542702828944</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>138.1438189159009</v>
+        <v>204.42183198979</v>
       </c>
       <c r="C14" t="n">
-        <v>138.1438189159009</v>
+        <v>204.42183198979</v>
       </c>
       <c r="D14" t="n">
-        <v>138.1438189159009</v>
+        <v>204.42183198979</v>
       </c>
       <c r="E14" t="n">
-        <v>138.1438189159009</v>
+        <v>204.42183198979</v>
       </c>
       <c r="F14" t="n">
-        <v>138.1438189159009</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="G14" t="n">
-        <v>138.1438189159009</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="H14" t="n">
-        <v>138.1438189159009</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="I14" t="n">
-        <v>20.25658013743876</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="J14" t="n">
-        <v>45.38705923343235</v>
+        <v>21.03371160678483</v>
       </c>
       <c r="K14" t="n">
-        <v>133.7896512396353</v>
+        <v>80.81213159058922</v>
       </c>
       <c r="L14" t="n">
-        <v>280.3626455731805</v>
+        <v>191.8743094079179</v>
       </c>
       <c r="M14" t="n">
-        <v>475.1227808058547</v>
+        <v>347.1218190644747</v>
       </c>
       <c r="N14" t="n">
-        <v>677.6481470208787</v>
+        <v>509.495204112382</v>
       </c>
       <c r="O14" t="n">
-        <v>855.5518461470244</v>
+        <v>649.4845259985573</v>
       </c>
       <c r="P14" t="n">
-        <v>972.8875365446886</v>
+        <v>734.4611726020252</v>
       </c>
       <c r="Q14" t="n">
-        <v>1012.829006871938</v>
+        <v>750.1023486652782</v>
       </c>
       <c r="R14" t="n">
-        <v>949.390988306392</v>
+        <v>743.6410113056407</v>
       </c>
       <c r="S14" t="n">
-        <v>794.2432775363961</v>
+        <v>583.2614020227588</v>
       </c>
       <c r="T14" t="n">
-        <v>579.6484502648632</v>
+        <v>583.2614020227588</v>
       </c>
       <c r="U14" t="n">
-        <v>325.9604940704048</v>
+        <v>583.2614020227588</v>
       </c>
       <c r="V14" t="n">
-        <v>138.1438189159009</v>
+        <v>583.2614020227588</v>
       </c>
       <c r="W14" t="n">
-        <v>138.1438189159009</v>
+        <v>583.2614020227588</v>
       </c>
       <c r="X14" t="n">
-        <v>138.1438189159009</v>
+        <v>393.8416170062744</v>
       </c>
       <c r="Y14" t="n">
-        <v>138.1438189159009</v>
+        <v>393.8416170062744</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>258.3468615896103</v>
+        <v>323.1739116400123</v>
       </c>
       <c r="C15" t="n">
-        <v>258.3468615896103</v>
+        <v>323.1739116400123</v>
       </c>
       <c r="D15" t="n">
-        <v>258.3468615896103</v>
+        <v>174.2395019787611</v>
       </c>
       <c r="E15" t="n">
-        <v>258.3468615896103</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="F15" t="n">
-        <v>258.3468615896103</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="G15" t="n">
-        <v>120.930524624547</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="H15" t="n">
-        <v>20.25658013743876</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="I15" t="n">
-        <v>20.25658013743876</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="J15" t="n">
-        <v>20.25658013743876</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="K15" t="n">
-        <v>91.83061903642654</v>
+        <v>67.13418877024202</v>
       </c>
       <c r="L15" t="n">
-        <v>234.3932882762805</v>
+        <v>183.5548280772647</v>
       </c>
       <c r="M15" t="n">
-        <v>420.1140672047613</v>
+        <v>338.769091114024</v>
       </c>
       <c r="N15" t="n">
-        <v>625.158967437801</v>
+        <v>512.5000587546597</v>
       </c>
       <c r="O15" t="n">
-        <v>790.5151971795242</v>
+        <v>649.2101578476342</v>
       </c>
       <c r="P15" t="n">
-        <v>903.8950833667054</v>
+        <v>739.5989987017055</v>
       </c>
       <c r="Q15" t="n">
-        <v>929.7673382725094</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="R15" t="n">
-        <v>929.7673382725094</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="S15" t="n">
-        <v>780.7660401950211</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="T15" t="n">
-        <v>780.7660401950211</v>
+        <v>560.6825636487945</v>
       </c>
       <c r="U15" t="n">
-        <v>552.6289014348524</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="V15" t="n">
-        <v>552.6289014348524</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="W15" t="n">
-        <v>466.1983617951431</v>
+        <v>323.1739116400123</v>
       </c>
       <c r="X15" t="n">
-        <v>258.3468615896103</v>
+        <v>323.1739116400123</v>
       </c>
       <c r="Y15" t="n">
-        <v>258.3468615896103</v>
+        <v>323.1739116400123</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>133.5431668551989</v>
+        <v>67.74542702828958</v>
       </c>
       <c r="C16" t="n">
-        <v>133.5431668551989</v>
+        <v>67.74542702828958</v>
       </c>
       <c r="D16" t="n">
-        <v>133.5431668551989</v>
+        <v>67.74542702828958</v>
       </c>
       <c r="E16" t="n">
-        <v>133.5431668551989</v>
+        <v>67.74542702828958</v>
       </c>
       <c r="F16" t="n">
-        <v>133.5431668551989</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="G16" t="n">
-        <v>20.25658013743876</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="H16" t="n">
-        <v>20.25658013743876</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="I16" t="n">
-        <v>20.25658013743876</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="J16" t="n">
-        <v>20.25658013743876</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="K16" t="n">
-        <v>20.25658013743876</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="L16" t="n">
-        <v>47.3010787721022</v>
+        <v>27.03967056230167</v>
       </c>
       <c r="M16" t="n">
-        <v>79.07399367801985</v>
+        <v>42.98993985170702</v>
       </c>
       <c r="N16" t="n">
-        <v>117.9489455893794</v>
+        <v>66.41847329396312</v>
       </c>
       <c r="O16" t="n">
-        <v>133.5431668551989</v>
+        <v>67.74542702828958</v>
       </c>
       <c r="P16" t="n">
-        <v>133.5431668551989</v>
+        <v>67.74542702828958</v>
       </c>
       <c r="Q16" t="n">
-        <v>133.5431668551989</v>
+        <v>67.74542702828958</v>
       </c>
       <c r="R16" t="n">
-        <v>133.5431668551989</v>
+        <v>67.74542702828958</v>
       </c>
       <c r="S16" t="n">
-        <v>133.5431668551989</v>
+        <v>67.74542702828958</v>
       </c>
       <c r="T16" t="n">
-        <v>133.5431668551989</v>
+        <v>67.74542702828958</v>
       </c>
       <c r="U16" t="n">
-        <v>133.5431668551989</v>
+        <v>67.74542702828958</v>
       </c>
       <c r="V16" t="n">
-        <v>133.5431668551989</v>
+        <v>67.74542702828958</v>
       </c>
       <c r="W16" t="n">
-        <v>133.5431668551989</v>
+        <v>67.74542702828958</v>
       </c>
       <c r="X16" t="n">
-        <v>133.5431668551989</v>
+        <v>67.74542702828958</v>
       </c>
       <c r="Y16" t="n">
-        <v>133.5431668551989</v>
+        <v>67.74542702828958</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>759.1410506774789</v>
+        <v>659.048538154005</v>
       </c>
       <c r="C17" t="n">
-        <v>531.7863815879122</v>
+        <v>659.048538154005</v>
       </c>
       <c r="D17" t="n">
-        <v>276.0214808626754</v>
+        <v>659.048538154005</v>
       </c>
       <c r="E17" t="n">
-        <v>276.0214808626754</v>
+        <v>659.048538154005</v>
       </c>
       <c r="F17" t="n">
-        <v>20.25658013743875</v>
+        <v>340.7369884591072</v>
       </c>
       <c r="G17" t="n">
-        <v>20.25658013743875</v>
+        <v>340.7369884591072</v>
       </c>
       <c r="H17" t="n">
-        <v>20.25658013743875</v>
+        <v>25.2102747358359</v>
       </c>
       <c r="I17" t="n">
-        <v>20.25658013743875</v>
+        <v>25.2102747358359</v>
       </c>
       <c r="J17" t="n">
-        <v>45.38705923343235</v>
+        <v>68.34610104032026</v>
       </c>
       <c r="K17" t="n">
-        <v>133.7896512396353</v>
+        <v>183.7340411072845</v>
       </c>
       <c r="L17" t="n">
-        <v>280.3626455731804</v>
+        <v>363.7847459179074</v>
       </c>
       <c r="M17" t="n">
-        <v>475.1227808058544</v>
+        <v>595.7952845205616</v>
       </c>
       <c r="N17" t="n">
-        <v>677.6481470208781</v>
+        <v>836.1738045761898</v>
       </c>
       <c r="O17" t="n">
-        <v>855.551846147024</v>
+        <v>1049.821163484949</v>
       </c>
       <c r="P17" t="n">
-        <v>972.8875365446881</v>
+        <v>1197.663240548277</v>
       </c>
       <c r="Q17" t="n">
-        <v>1012.829006871937</v>
+        <v>1260.513736791795</v>
       </c>
       <c r="R17" t="n">
-        <v>1012.829006871937</v>
+        <v>1260.513736791795</v>
       </c>
       <c r="S17" t="n">
-        <v>1012.829006871937</v>
+        <v>1260.513736791795</v>
       </c>
       <c r="T17" t="n">
-        <v>1012.829006871937</v>
+        <v>1046.866419679032</v>
       </c>
       <c r="U17" t="n">
-        <v>759.1410506774789</v>
+        <v>1046.866419679032</v>
       </c>
       <c r="V17" t="n">
-        <v>759.1410506774789</v>
+        <v>1046.866419679032</v>
       </c>
       <c r="W17" t="n">
-        <v>759.1410506774789</v>
+        <v>1046.866419679032</v>
       </c>
       <c r="X17" t="n">
-        <v>759.1410506774789</v>
+        <v>977.3600878489026</v>
       </c>
       <c r="Y17" t="n">
-        <v>759.1410506774789</v>
+        <v>659.048538154005</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>304.207475075617</v>
+        <v>199.6633040169629</v>
       </c>
       <c r="C18" t="n">
-        <v>304.207475075617</v>
+        <v>25.2102747358359</v>
       </c>
       <c r="D18" t="n">
-        <v>304.207475075617</v>
+        <v>25.2102747358359</v>
       </c>
       <c r="E18" t="n">
-        <v>304.207475075617</v>
+        <v>25.2102747358359</v>
       </c>
       <c r="F18" t="n">
-        <v>157.672917102502</v>
+        <v>25.2102747358359</v>
       </c>
       <c r="G18" t="n">
-        <v>20.25658013743875</v>
+        <v>25.2102747358359</v>
       </c>
       <c r="H18" t="n">
-        <v>20.25658013743875</v>
+        <v>25.2102747358359</v>
       </c>
       <c r="I18" t="n">
-        <v>20.25658013743875</v>
+        <v>25.2102747358359</v>
       </c>
       <c r="J18" t="n">
-        <v>20.25658013743875</v>
+        <v>32.08383041580002</v>
       </c>
       <c r="K18" t="n">
-        <v>91.83061903642653</v>
+        <v>121.9866566016242</v>
       </c>
       <c r="L18" t="n">
-        <v>234.3932882762805</v>
+        <v>289.19464226147</v>
       </c>
       <c r="M18" t="n">
-        <v>420.1140672047612</v>
+        <v>503.6753430076039</v>
       </c>
       <c r="N18" t="n">
-        <v>625.158967437801</v>
+        <v>738.2413546109919</v>
       </c>
       <c r="O18" t="n">
-        <v>790.5151971795242</v>
+        <v>930.6036338393385</v>
       </c>
       <c r="P18" t="n">
-        <v>903.8950833667054</v>
+        <v>1065.658255634915</v>
       </c>
       <c r="Q18" t="n">
-        <v>929.7673382725094</v>
+        <v>1106.019497291298</v>
       </c>
       <c r="R18" t="n">
-        <v>864.229914215998</v>
+        <v>1106.019497291298</v>
       </c>
       <c r="S18" t="n">
-        <v>715.2286161385098</v>
+        <v>959.1693376440217</v>
       </c>
       <c r="T18" t="n">
-        <v>715.2286161385098</v>
+        <v>762.7478534927494</v>
       </c>
       <c r="U18" t="n">
-        <v>715.2286161385098</v>
+        <v>762.7478534927494</v>
       </c>
       <c r="V18" t="n">
-        <v>715.2286161385098</v>
+        <v>527.5957452610066</v>
       </c>
       <c r="W18" t="n">
-        <v>715.2286161385098</v>
+        <v>527.5957452610066</v>
       </c>
       <c r="X18" t="n">
-        <v>680.183110860639</v>
+        <v>319.7442450554738</v>
       </c>
       <c r="Y18" t="n">
-        <v>472.4228120956851</v>
+        <v>319.7442450554738</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>20.25658013743875</v>
+        <v>210.184378057373</v>
       </c>
       <c r="C19" t="n">
-        <v>20.25658013743875</v>
+        <v>210.184378057373</v>
       </c>
       <c r="D19" t="n">
-        <v>20.25658013743875</v>
+        <v>60.06773864503725</v>
       </c>
       <c r="E19" t="n">
-        <v>20.25658013743875</v>
+        <v>25.2102747358359</v>
       </c>
       <c r="F19" t="n">
-        <v>20.25658013743875</v>
+        <v>25.2102747358359</v>
       </c>
       <c r="G19" t="n">
-        <v>20.25658013743875</v>
+        <v>25.2102747358359</v>
       </c>
       <c r="H19" t="n">
-        <v>20.25658013743875</v>
+        <v>25.2102747358359</v>
       </c>
       <c r="I19" t="n">
-        <v>20.25658013743875</v>
+        <v>25.2102747358359</v>
       </c>
       <c r="J19" t="n">
-        <v>20.25658013743875</v>
+        <v>25.2102747358359</v>
       </c>
       <c r="K19" t="n">
-        <v>20.25658013743875</v>
+        <v>34.03013544641185</v>
       </c>
       <c r="L19" t="n">
-        <v>47.30107877210219</v>
+        <v>75.22231828639644</v>
       </c>
       <c r="M19" t="n">
-        <v>79.07399367801983</v>
+        <v>121.9119825351264</v>
       </c>
       <c r="N19" t="n">
-        <v>117.9489455893794</v>
+        <v>175.3489968305004</v>
       </c>
       <c r="O19" t="n">
-        <v>133.5431668551989</v>
+        <v>204.3936396460528</v>
       </c>
       <c r="P19" t="n">
-        <v>133.5431668551989</v>
+        <v>210.184378057373</v>
       </c>
       <c r="Q19" t="n">
-        <v>133.5431668551989</v>
+        <v>210.184378057373</v>
       </c>
       <c r="R19" t="n">
-        <v>133.5431668551989</v>
+        <v>210.184378057373</v>
       </c>
       <c r="S19" t="n">
-        <v>133.5431668551989</v>
+        <v>210.184378057373</v>
       </c>
       <c r="T19" t="n">
-        <v>133.5431668551989</v>
+        <v>210.184378057373</v>
       </c>
       <c r="U19" t="n">
-        <v>20.25658013743875</v>
+        <v>210.184378057373</v>
       </c>
       <c r="V19" t="n">
-        <v>20.25658013743875</v>
+        <v>210.184378057373</v>
       </c>
       <c r="W19" t="n">
-        <v>20.25658013743875</v>
+        <v>210.184378057373</v>
       </c>
       <c r="X19" t="n">
-        <v>20.25658013743875</v>
+        <v>210.184378057373</v>
       </c>
       <c r="Y19" t="n">
-        <v>20.25658013743875</v>
+        <v>210.184378057373</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>531.7863815879122</v>
+        <v>980.1449238205294</v>
       </c>
       <c r="C20" t="n">
-        <v>531.7863815879122</v>
+        <v>661.8333741256315</v>
       </c>
       <c r="D20" t="n">
-        <v>276.0214808626754</v>
+        <v>343.5218244307337</v>
       </c>
       <c r="E20" t="n">
-        <v>276.0214808626754</v>
+        <v>25.21027473583591</v>
       </c>
       <c r="F20" t="n">
-        <v>276.0214808626754</v>
+        <v>25.21027473583591</v>
       </c>
       <c r="G20" t="n">
-        <v>20.25658013743875</v>
+        <v>25.21027473583591</v>
       </c>
       <c r="H20" t="n">
-        <v>20.25658013743875</v>
+        <v>25.21027473583591</v>
       </c>
       <c r="I20" t="n">
-        <v>20.25658013743875</v>
+        <v>25.21027473583591</v>
       </c>
       <c r="J20" t="n">
-        <v>45.38705923343196</v>
+        <v>68.34610104032049</v>
       </c>
       <c r="K20" t="n">
-        <v>133.7896512396355</v>
+        <v>183.7340411072848</v>
       </c>
       <c r="L20" t="n">
-        <v>280.3626455731809</v>
+        <v>363.7847459179078</v>
       </c>
       <c r="M20" t="n">
-        <v>475.1227808058547</v>
+        <v>595.7952845205618</v>
       </c>
       <c r="N20" t="n">
-        <v>677.6481470208787</v>
+        <v>836.1738045761902</v>
       </c>
       <c r="O20" t="n">
-        <v>855.5518461470244</v>
+        <v>1049.821163484949</v>
       </c>
       <c r="P20" t="n">
-        <v>972.8875365446881</v>
+        <v>1197.663240548278</v>
       </c>
       <c r="Q20" t="n">
-        <v>1012.829006871937</v>
+        <v>1260.513736791795</v>
       </c>
       <c r="R20" t="n">
-        <v>949.3909883063916</v>
+        <v>1260.513736791795</v>
       </c>
       <c r="S20" t="n">
-        <v>794.2432775363957</v>
+        <v>1260.513736791795</v>
       </c>
       <c r="T20" t="n">
-        <v>794.2432775363957</v>
+        <v>1260.513736791795</v>
       </c>
       <c r="U20" t="n">
-        <v>794.2432775363957</v>
+        <v>1260.513736791795</v>
       </c>
       <c r="V20" t="n">
-        <v>794.2432775363957</v>
+        <v>1260.513736791795</v>
       </c>
       <c r="W20" t="n">
-        <v>794.2432775363957</v>
+        <v>1260.513736791795</v>
       </c>
       <c r="X20" t="n">
-        <v>538.478376811159</v>
+        <v>1260.513736791795</v>
       </c>
       <c r="Y20" t="n">
-        <v>531.7863815879122</v>
+        <v>1260.513736791795</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>20.25658013743875</v>
+        <v>133.7320450315307</v>
       </c>
       <c r="C21" t="n">
-        <v>20.25658013743875</v>
+        <v>133.7320450315307</v>
       </c>
       <c r="D21" t="n">
-        <v>20.25658013743875</v>
+        <v>25.21027473583591</v>
       </c>
       <c r="E21" t="n">
-        <v>20.25658013743875</v>
+        <v>25.21027473583591</v>
       </c>
       <c r="F21" t="n">
-        <v>20.25658013743875</v>
+        <v>25.21027473583591</v>
       </c>
       <c r="G21" t="n">
-        <v>20.25658013743875</v>
+        <v>25.21027473583591</v>
       </c>
       <c r="H21" t="n">
-        <v>20.25658013743875</v>
+        <v>25.21027473583591</v>
       </c>
       <c r="I21" t="n">
-        <v>20.25658013743875</v>
+        <v>25.21027473583591</v>
       </c>
       <c r="J21" t="n">
-        <v>20.25658013743875</v>
+        <v>32.08383041580002</v>
       </c>
       <c r="K21" t="n">
-        <v>91.8306190364265</v>
+        <v>121.9866566016242</v>
       </c>
       <c r="L21" t="n">
-        <v>234.3932882762804</v>
+        <v>289.19464226147</v>
       </c>
       <c r="M21" t="n">
-        <v>420.1140672047611</v>
+        <v>503.6753430076039</v>
       </c>
       <c r="N21" t="n">
-        <v>625.1589674378008</v>
+        <v>738.2413546109919</v>
       </c>
       <c r="O21" t="n">
-        <v>790.515197179524</v>
+        <v>930.6036338393385</v>
       </c>
       <c r="P21" t="n">
-        <v>903.8950833667052</v>
+        <v>1065.658255634915</v>
       </c>
       <c r="Q21" t="n">
-        <v>929.7673382725092</v>
+        <v>1106.019497291298</v>
       </c>
       <c r="R21" t="n">
-        <v>864.2299142159976</v>
+        <v>1047.672513758535</v>
       </c>
       <c r="S21" t="n">
-        <v>864.2299142159976</v>
+        <v>1047.672513758535</v>
       </c>
       <c r="T21" t="n">
-        <v>710.4825758313419</v>
+        <v>851.2510296072629</v>
       </c>
       <c r="U21" t="n">
-        <v>482.3454370711732</v>
+        <v>623.121509991475</v>
       </c>
       <c r="V21" t="n">
-        <v>482.3454370711732</v>
+        <v>387.9694017597323</v>
       </c>
       <c r="W21" t="n">
-        <v>228.1080803429716</v>
+        <v>133.7320450315307</v>
       </c>
       <c r="X21" t="n">
-        <v>20.25658013743875</v>
+        <v>133.7320450315307</v>
       </c>
       <c r="Y21" t="n">
-        <v>20.25658013743875</v>
+        <v>133.7320450315307</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>20.25658013743875</v>
+        <v>25.21027473583591</v>
       </c>
       <c r="C22" t="n">
-        <v>20.25658013743875</v>
+        <v>25.21027473583591</v>
       </c>
       <c r="D22" t="n">
-        <v>20.25658013743875</v>
+        <v>25.21027473583591</v>
       </c>
       <c r="E22" t="n">
-        <v>20.25658013743875</v>
+        <v>25.21027473583591</v>
       </c>
       <c r="F22" t="n">
-        <v>20.25658013743875</v>
+        <v>25.21027473583591</v>
       </c>
       <c r="G22" t="n">
-        <v>20.25658013743875</v>
+        <v>25.21027473583591</v>
       </c>
       <c r="H22" t="n">
-        <v>20.25658013743875</v>
+        <v>25.21027473583591</v>
       </c>
       <c r="I22" t="n">
-        <v>20.25658013743875</v>
+        <v>25.21027473583591</v>
       </c>
       <c r="J22" t="n">
-        <v>20.25658013743875</v>
+        <v>25.21027473583591</v>
       </c>
       <c r="K22" t="n">
-        <v>20.25658013743875</v>
+        <v>34.03013544641187</v>
       </c>
       <c r="L22" t="n">
-        <v>47.30107877210216</v>
+        <v>75.22231828639646</v>
       </c>
       <c r="M22" t="n">
-        <v>79.07399367801978</v>
+        <v>121.9119825351264</v>
       </c>
       <c r="N22" t="n">
-        <v>117.9489455893793</v>
+        <v>175.3489968305004</v>
       </c>
       <c r="O22" t="n">
-        <v>133.5431668551988</v>
+        <v>204.3936396460528</v>
       </c>
       <c r="P22" t="n">
-        <v>133.5431668551988</v>
+        <v>210.184378057373</v>
       </c>
       <c r="Q22" t="n">
-        <v>133.5431668551988</v>
+        <v>210.184378057373</v>
       </c>
       <c r="R22" t="n">
-        <v>133.5431668551988</v>
+        <v>210.184378057373</v>
       </c>
       <c r="S22" t="n">
-        <v>20.25658013743875</v>
+        <v>210.184378057373</v>
       </c>
       <c r="T22" t="n">
-        <v>20.25658013743875</v>
+        <v>210.184378057373</v>
       </c>
       <c r="U22" t="n">
-        <v>20.25658013743875</v>
+        <v>210.184378057373</v>
       </c>
       <c r="V22" t="n">
-        <v>20.25658013743875</v>
+        <v>25.21027473583591</v>
       </c>
       <c r="W22" t="n">
-        <v>20.25658013743875</v>
+        <v>25.21027473583591</v>
       </c>
       <c r="X22" t="n">
-        <v>20.25658013743875</v>
+        <v>25.21027473583591</v>
       </c>
       <c r="Y22" t="n">
-        <v>20.25658013743875</v>
+        <v>25.21027473583591</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>634.2472820412709</v>
+        <v>514.3886881176818</v>
       </c>
       <c r="C23" t="n">
-        <v>459.4002418346858</v>
+        <v>514.3886881176818</v>
       </c>
       <c r="D23" t="n">
-        <v>459.4002418346858</v>
+        <v>514.3886881176818</v>
       </c>
       <c r="E23" t="n">
-        <v>459.4002418346858</v>
+        <v>514.3886881176818</v>
       </c>
       <c r="F23" t="n">
-        <v>459.4002418346858</v>
+        <v>514.3886881176818</v>
       </c>
       <c r="G23" t="n">
-        <v>43.36919653809306</v>
+        <v>429.7231473797759</v>
       </c>
       <c r="H23" t="n">
-        <v>43.36919653809306</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I23" t="n">
         <v>43.36919653809306</v>
@@ -6022,19 +6022,19 @@
         <v>1958.285829056568</v>
       </c>
       <c r="U23" t="n">
-        <v>1704.678664719077</v>
+        <v>1958.285829056568</v>
       </c>
       <c r="V23" t="n">
-        <v>1373.615777375507</v>
+        <v>1627.222941712997</v>
       </c>
       <c r="W23" t="n">
-        <v>1020.847122105393</v>
+        <v>1274.454286442883</v>
       </c>
       <c r="X23" t="n">
-        <v>1020.847122105393</v>
+        <v>900.9885281818035</v>
       </c>
       <c r="Y23" t="n">
-        <v>1020.847122105393</v>
+        <v>900.9885281818035</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>614.1854224144272</v>
+        <v>693.0104463829875</v>
       </c>
       <c r="C24" t="n">
-        <v>614.1854224144272</v>
+        <v>693.0104463829875</v>
       </c>
       <c r="D24" t="n">
-        <v>465.2510127531759</v>
+        <v>544.0760367217363</v>
       </c>
       <c r="E24" t="n">
-        <v>306.0135577477204</v>
+        <v>384.8385817162808</v>
       </c>
       <c r="F24" t="n">
-        <v>159.4789997746054</v>
+        <v>238.3040237431657</v>
       </c>
       <c r="G24" t="n">
-        <v>43.36919653809306</v>
+        <v>101.4280299582817</v>
       </c>
       <c r="H24" t="n">
         <v>43.36919653809306</v>
@@ -6092,28 +6092,28 @@
         <v>1766.227047333487</v>
       </c>
       <c r="R24" t="n">
-        <v>1734.238298972664</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S24" t="n">
-        <v>1734.238298972664</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="T24" t="n">
-        <v>1539.52797744664</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="U24" t="n">
-        <v>1311.426387579904</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="V24" t="n">
-        <v>1076.274279348162</v>
+        <v>1531.074939101744</v>
       </c>
       <c r="W24" t="n">
-        <v>822.03692261996</v>
+        <v>1276.837582373542</v>
       </c>
       <c r="X24" t="n">
-        <v>614.1854224144272</v>
+        <v>1068.986082168009</v>
       </c>
       <c r="Y24" t="n">
-        <v>614.1854224144272</v>
+        <v>861.2257834030556</v>
       </c>
     </row>
     <row r="25">
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>507.1084205463035</v>
+        <v>341.3989295328219</v>
       </c>
       <c r="C25" t="n">
-        <v>338.1722376183965</v>
+        <v>341.3989295328219</v>
       </c>
       <c r="D25" t="n">
-        <v>338.1722376183965</v>
+        <v>191.2822901204862</v>
       </c>
       <c r="E25" t="n">
-        <v>190.2591440360034</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F25" t="n">
         <v>43.36919653809306</v>
@@ -6183,16 +6183,16 @@
         <v>520.2893470405991</v>
       </c>
       <c r="V25" t="n">
-        <v>520.2893470405991</v>
+        <v>341.3989295328219</v>
       </c>
       <c r="W25" t="n">
-        <v>520.2893470405991</v>
+        <v>341.3989295328219</v>
       </c>
       <c r="X25" t="n">
-        <v>520.2893470405991</v>
+        <v>341.3989295328219</v>
       </c>
       <c r="Y25" t="n">
-        <v>520.2893470405991</v>
+        <v>341.3989295328219</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1210.324016962511</v>
+        <v>1704.090054119599</v>
       </c>
       <c r="C26" t="n">
-        <v>1210.324016962511</v>
+        <v>1335.127537179187</v>
       </c>
       <c r="D26" t="n">
-        <v>852.058318355761</v>
+        <v>1335.127537179187</v>
       </c>
       <c r="E26" t="n">
-        <v>466.2700657575168</v>
+        <v>949.3392845809428</v>
       </c>
       <c r="F26" t="n">
-        <v>466.2700657575168</v>
+        <v>538.3533797913353</v>
       </c>
       <c r="G26" t="n">
         <v>122.3223344947425</v>
@@ -6223,19 +6223,19 @@
         <v>122.3223344947425</v>
       </c>
       <c r="I26" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J26" t="n">
-        <v>152.5078184301898</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K26" t="n">
-        <v>366.8168396232715</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L26" t="n">
-        <v>669.5878927711864</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M26" t="n">
-        <v>1038.148464578729</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N26" t="n">
         <v>1417.286540135166</v>
@@ -6244,34 +6244,34 @@
         <v>1761.960612545596</v>
       </c>
       <c r="P26" t="n">
-        <v>2021.630958172447</v>
+        <v>2021.630958172446</v>
       </c>
       <c r="Q26" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="R26" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="S26" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="T26" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="U26" t="n">
-        <v>1914.852662567162</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="V26" t="n">
-        <v>1583.789775223591</v>
+        <v>2056.858709389713</v>
       </c>
       <c r="W26" t="n">
-        <v>1583.789775223591</v>
+        <v>1704.090054119599</v>
       </c>
       <c r="X26" t="n">
-        <v>1210.324016962511</v>
+        <v>1704.090054119599</v>
       </c>
       <c r="Y26" t="n">
-        <v>1210.324016962511</v>
+        <v>1704.090054119599</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>138.8245634692599</v>
+        <v>938.5656614552026</v>
       </c>
       <c r="C27" t="n">
-        <v>138.8245634692599</v>
+        <v>764.1126321740757</v>
       </c>
       <c r="D27" t="n">
-        <v>138.8245634692599</v>
+        <v>615.1782225128244</v>
       </c>
       <c r="E27" t="n">
-        <v>138.8245634692599</v>
+        <v>455.9407675073689</v>
       </c>
       <c r="F27" t="n">
-        <v>138.8245634692599</v>
+        <v>309.4062095342539</v>
       </c>
       <c r="G27" t="n">
-        <v>138.8245634692599</v>
+        <v>172.5302157493698</v>
       </c>
       <c r="H27" t="n">
-        <v>43.36919653809306</v>
+        <v>80.03532540581917</v>
       </c>
       <c r="I27" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J27" t="n">
         <v>89.55356510562316</v>
@@ -6338,19 +6338,19 @@
         <v>1400.563316948358</v>
       </c>
       <c r="U27" t="n">
-        <v>1172.461727081622</v>
+        <v>1400.563316948358</v>
       </c>
       <c r="V27" t="n">
-        <v>937.3096188498796</v>
+        <v>1400.563316948358</v>
       </c>
       <c r="W27" t="n">
-        <v>683.072262121678</v>
+        <v>1146.325960220157</v>
       </c>
       <c r="X27" t="n">
-        <v>475.2207619161452</v>
+        <v>1146.325960220157</v>
       </c>
       <c r="Y27" t="n">
-        <v>267.4604631511913</v>
+        <v>938.5656614552026</v>
       </c>
     </row>
     <row r="28">
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>338.6408822103593</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="C28" t="n">
-        <v>169.7046992824524</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="D28" t="n">
-        <v>169.7046992824524</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="E28" t="n">
-        <v>169.7046992824524</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="F28" t="n">
-        <v>169.7046992824524</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="G28" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="H28" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="I28" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J28" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="K28" t="n">
         <v>92.71685897981521</v>
@@ -6417,19 +6417,19 @@
         <v>520.2893470405991</v>
       </c>
       <c r="U28" t="n">
-        <v>520.2893470405991</v>
+        <v>332.7863665750536</v>
       </c>
       <c r="V28" t="n">
-        <v>520.2893470405991</v>
+        <v>332.7863665750536</v>
       </c>
       <c r="W28" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="X28" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="Y28" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809305</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1450.79709949696</v>
+        <v>1256.740097465976</v>
       </c>
       <c r="C29" t="n">
-        <v>1450.79709949696</v>
+        <v>1256.740097465976</v>
       </c>
       <c r="D29" t="n">
-        <v>1092.53140089021</v>
+        <v>1256.740097465976</v>
       </c>
       <c r="E29" t="n">
-        <v>706.7431482919656</v>
+        <v>1256.740097465976</v>
       </c>
       <c r="F29" t="n">
-        <v>538.3533797913353</v>
+        <v>845.7541926763687</v>
       </c>
       <c r="G29" t="n">
-        <v>122.3223344947425</v>
+        <v>429.7231473797759</v>
       </c>
       <c r="H29" t="n">
         <v>122.3223344947425</v>
       </c>
       <c r="I29" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="J29" t="n">
-        <v>152.50781843019</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K29" t="n">
         <v>366.8168396232717</v>
       </c>
       <c r="L29" t="n">
-        <v>669.5878927711866</v>
+        <v>669.5878927711863</v>
       </c>
       <c r="M29" t="n">
-        <v>1038.14846457873</v>
+        <v>1038.148464578729</v>
       </c>
       <c r="N29" t="n">
         <v>1417.286540135166</v>
       </c>
       <c r="O29" t="n">
-        <v>1761.960612545596</v>
+        <v>1761.960612545595</v>
       </c>
       <c r="P29" t="n">
-        <v>2021.630958172447</v>
+        <v>2021.630958172446</v>
       </c>
       <c r="Q29" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="R29" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="S29" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="T29" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="U29" t="n">
-        <v>2168.459826904653</v>
+        <v>1914.852662567161</v>
       </c>
       <c r="V29" t="n">
-        <v>1837.396939561082</v>
+        <v>1583.78977522359</v>
       </c>
       <c r="W29" t="n">
-        <v>1837.396939561082</v>
+        <v>1583.78977522359</v>
       </c>
       <c r="X29" t="n">
-        <v>1837.396939561082</v>
+        <v>1583.78977522359</v>
       </c>
       <c r="Y29" t="n">
-        <v>1837.396939561082</v>
+        <v>1583.78977522359</v>
       </c>
     </row>
     <row r="30">
@@ -6518,31 +6518,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>267.4604631511913</v>
+        <v>464.9088565162518</v>
       </c>
       <c r="C30" t="n">
-        <v>93.00743387006426</v>
+        <v>290.4558272351247</v>
       </c>
       <c r="D30" t="n">
-        <v>93.00743387006426</v>
+        <v>141.5214175738735</v>
       </c>
       <c r="E30" t="n">
-        <v>93.00743387006426</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="F30" t="n">
-        <v>93.00743387006426</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="G30" t="n">
-        <v>93.00743387006426</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="H30" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="I30" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="J30" t="n">
-        <v>89.55356510562316</v>
+        <v>89.55356510562314</v>
       </c>
       <c r="K30" t="n">
         <v>246.6448318504519</v>
@@ -6566,28 +6566,28 @@
         <v>1766.227047333487</v>
       </c>
       <c r="R30" t="n">
-        <v>1734.238298972664</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S30" t="n">
-        <v>1595.273638474382</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="T30" t="n">
-        <v>1400.563316948358</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="U30" t="n">
-        <v>1172.461727081622</v>
+        <v>1538.125457466751</v>
       </c>
       <c r="V30" t="n">
-        <v>937.3096188498796</v>
+        <v>1302.973349235008</v>
       </c>
       <c r="W30" t="n">
-        <v>683.072262121678</v>
+        <v>1048.735992506806</v>
       </c>
       <c r="X30" t="n">
-        <v>475.2207619161452</v>
+        <v>840.8844923012737</v>
       </c>
       <c r="Y30" t="n">
-        <v>267.4604631511913</v>
+        <v>633.1241935363198</v>
       </c>
     </row>
     <row r="31">
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>193.4858359504288</v>
+        <v>360.2184730483931</v>
       </c>
       <c r="C31" t="n">
-        <v>193.4858359504288</v>
+        <v>191.2822901204862</v>
       </c>
       <c r="D31" t="n">
-        <v>43.36919653809306</v>
+        <v>191.2822901204862</v>
       </c>
       <c r="E31" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="F31" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="G31" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="H31" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="I31" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="J31" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="K31" t="n">
-        <v>92.71685897981521</v>
+        <v>92.7168589798152</v>
       </c>
       <c r="L31" t="n">
         <v>185.7706748018941</v>
@@ -6660,13 +6660,13 @@
         <v>520.2893470405991</v>
       </c>
       <c r="W31" t="n">
-        <v>375.1343007806685</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="X31" t="n">
-        <v>375.1343007806685</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Y31" t="n">
-        <v>375.1343007806685</v>
+        <v>360.2184730483931</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>812.620799934451</v>
+        <v>785.3448352571145</v>
       </c>
       <c r="C32" t="n">
-        <v>812.620799934451</v>
+        <v>785.3448352571145</v>
       </c>
       <c r="D32" t="n">
-        <v>454.3551013277006</v>
+        <v>761.7559142127341</v>
       </c>
       <c r="E32" t="n">
-        <v>454.3551013277006</v>
+        <v>761.7559142127341</v>
       </c>
       <c r="F32" t="n">
-        <v>43.36919653809306</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="G32" t="n">
-        <v>43.36919653809306</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="H32" t="n">
         <v>43.36919653809306</v>
@@ -6700,13 +6700,13 @@
         <v>43.36919653809306</v>
       </c>
       <c r="J32" t="n">
-        <v>152.5078184301901</v>
+        <v>152.50781843019</v>
       </c>
       <c r="K32" t="n">
-        <v>366.8168396232718</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L32" t="n">
-        <v>669.5878927711867</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M32" t="n">
         <v>1038.14846457873</v>
@@ -6727,25 +6727,25 @@
         <v>2168.459826904653</v>
       </c>
       <c r="S32" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T32" t="n">
-        <v>1883.052182612258</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U32" t="n">
-        <v>1883.052182612258</v>
+        <v>1914.852662567162</v>
       </c>
       <c r="V32" t="n">
-        <v>1551.989295268687</v>
+        <v>1914.852662567162</v>
       </c>
       <c r="W32" t="n">
-        <v>1199.220639998573</v>
+        <v>1562.084007297048</v>
       </c>
       <c r="X32" t="n">
-        <v>1199.220639998573</v>
+        <v>1562.084007297048</v>
       </c>
       <c r="Y32" t="n">
-        <v>1199.220639998573</v>
+        <v>1171.944675321236</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>501.7157464221012</v>
+        <v>475.3119633567241</v>
       </c>
       <c r="C33" t="n">
-        <v>327.2627171409741</v>
+        <v>300.8589340755971</v>
       </c>
       <c r="D33" t="n">
-        <v>327.2627171409741</v>
+        <v>300.8589340755971</v>
       </c>
       <c r="E33" t="n">
-        <v>168.0252621355186</v>
+        <v>300.8589340755971</v>
       </c>
       <c r="F33" t="n">
-        <v>168.0252621355186</v>
+        <v>154.324376102482</v>
       </c>
       <c r="G33" t="n">
-        <v>43.36919653809306</v>
+        <v>154.324376102482</v>
       </c>
       <c r="H33" t="n">
-        <v>43.36919653809306</v>
+        <v>58.86900917131521</v>
       </c>
       <c r="I33" t="n">
         <v>43.36919653809306</v>
@@ -6809,22 +6809,22 @@
         <v>1595.273638474382</v>
       </c>
       <c r="T33" t="n">
-        <v>1595.273638474382</v>
+        <v>1400.563316948358</v>
       </c>
       <c r="U33" t="n">
-        <v>1367.172048607646</v>
+        <v>1172.461727081622</v>
       </c>
       <c r="V33" t="n">
-        <v>1132.019940375904</v>
+        <v>937.3096188498796</v>
       </c>
       <c r="W33" t="n">
-        <v>877.782583647702</v>
+        <v>683.072262121678</v>
       </c>
       <c r="X33" t="n">
-        <v>669.9310834421692</v>
+        <v>683.072262121678</v>
       </c>
       <c r="Y33" t="n">
-        <v>669.9310834421692</v>
+        <v>475.3119633567241</v>
       </c>
     </row>
     <row r="34">
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>43.36919653809306</v>
+        <v>230.8721770036385</v>
       </c>
       <c r="C34" t="n">
-        <v>43.36919653809306</v>
+        <v>230.8721770036385</v>
       </c>
       <c r="D34" t="n">
-        <v>43.36919653809306</v>
+        <v>230.8721770036385</v>
       </c>
       <c r="E34" t="n">
-        <v>43.36919653809306</v>
+        <v>190.2591440360034</v>
       </c>
       <c r="F34" t="n">
         <v>43.36919653809306</v>
@@ -6888,22 +6888,22 @@
         <v>520.2893470405991</v>
       </c>
       <c r="T34" t="n">
-        <v>298.0536847439799</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U34" t="n">
-        <v>298.0536847439799</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="V34" t="n">
-        <v>43.36919653809306</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="W34" t="n">
-        <v>43.36919653809306</v>
+        <v>230.8721770036385</v>
       </c>
       <c r="X34" t="n">
-        <v>43.36919653809306</v>
+        <v>230.8721770036385</v>
       </c>
       <c r="Y34" t="n">
-        <v>43.36919653809306</v>
+        <v>230.8721770036385</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>870.3861466242934</v>
+        <v>1318.301801521354</v>
       </c>
       <c r="C35" t="n">
-        <v>870.3861466242934</v>
+        <v>949.3392845809428</v>
       </c>
       <c r="D35" t="n">
-        <v>870.3861466242934</v>
+        <v>949.3392845809428</v>
       </c>
       <c r="E35" t="n">
-        <v>870.3861466242934</v>
+        <v>949.3392845809428</v>
       </c>
       <c r="F35" t="n">
-        <v>459.4002418346858</v>
+        <v>538.3533797913353</v>
       </c>
       <c r="G35" t="n">
-        <v>43.36919653809304</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="H35" t="n">
-        <v>43.36919653809304</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I35" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J35" t="n">
         <v>152.5078184301901</v>
       </c>
       <c r="K35" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232718</v>
       </c>
       <c r="L35" t="n">
-        <v>669.5878927711863</v>
+        <v>669.5878927711867</v>
       </c>
       <c r="M35" t="n">
-        <v>1038.148464578729</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N35" t="n">
         <v>1417.286540135166</v>
       </c>
       <c r="O35" t="n">
-        <v>1761.960612545595</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P35" t="n">
-        <v>2021.630958172446</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q35" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R35" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S35" t="n">
-        <v>2036.325171642783</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T35" t="n">
-        <v>2036.325171642783</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U35" t="n">
-        <v>1999.893973934341</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="V35" t="n">
-        <v>1999.893973934341</v>
+        <v>2095.040973561288</v>
       </c>
       <c r="W35" t="n">
-        <v>1647.125318664227</v>
+        <v>2095.040973561288</v>
       </c>
       <c r="X35" t="n">
-        <v>1647.125318664227</v>
+        <v>2095.040973561288</v>
       </c>
       <c r="Y35" t="n">
-        <v>1256.985986688415</v>
+        <v>1704.901641585476</v>
       </c>
     </row>
     <row r="36">
@@ -6992,31 +6992,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>727.5992515893495</v>
+        <v>464.9088565162518</v>
       </c>
       <c r="C36" t="n">
-        <v>553.1462223082225</v>
+        <v>290.4558272351247</v>
       </c>
       <c r="D36" t="n">
-        <v>404.2118126469712</v>
+        <v>141.5214175738735</v>
       </c>
       <c r="E36" t="n">
-        <v>244.9743576415157</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F36" t="n">
-        <v>98.4397996684007</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G36" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H36" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I36" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J36" t="n">
-        <v>89.55356510562314</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K36" t="n">
         <v>246.6448318504519</v>
@@ -7040,28 +7040,28 @@
         <v>1766.227047333487</v>
       </c>
       <c r="R36" t="n">
-        <v>1734.238298972664</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S36" t="n">
-        <v>1734.238298972664</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="T36" t="n">
-        <v>1539.52797744664</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="U36" t="n">
-        <v>1311.426387579904</v>
+        <v>1538.125457466751</v>
       </c>
       <c r="V36" t="n">
-        <v>1311.426387579904</v>
+        <v>1302.973349235008</v>
       </c>
       <c r="W36" t="n">
-        <v>1311.426387579904</v>
+        <v>1048.735992506806</v>
       </c>
       <c r="X36" t="n">
-        <v>1103.574887374371</v>
+        <v>840.8844923012737</v>
       </c>
       <c r="Y36" t="n">
-        <v>895.8145886094176</v>
+        <v>633.1241935363198</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>117.8483030668292</v>
+        <v>265.6048588347122</v>
       </c>
       <c r="C37" t="n">
-        <v>117.8483030668292</v>
+        <v>265.6048588347122</v>
       </c>
       <c r="D37" t="n">
-        <v>117.8483030668292</v>
+        <v>265.6048588347122</v>
       </c>
       <c r="E37" t="n">
-        <v>117.8483030668292</v>
+        <v>265.6048588347122</v>
       </c>
       <c r="F37" t="n">
-        <v>117.8483030668292</v>
+        <v>211.5020259430747</v>
       </c>
       <c r="G37" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H37" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I37" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J37" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K37" t="n">
-        <v>92.7168589798152</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L37" t="n">
         <v>185.7706748018941</v>
@@ -7131,16 +7131,16 @@
         <v>520.2893470405991</v>
       </c>
       <c r="V37" t="n">
-        <v>520.2893470405991</v>
+        <v>265.6048588347122</v>
       </c>
       <c r="W37" t="n">
-        <v>520.2893470405991</v>
+        <v>265.6048588347122</v>
       </c>
       <c r="X37" t="n">
-        <v>520.2893470405991</v>
+        <v>265.6048588347122</v>
       </c>
       <c r="Y37" t="n">
-        <v>299.4967678970689</v>
+        <v>265.6048588347122</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1083.243186548773</v>
+        <v>1524.71333059135</v>
       </c>
       <c r="C38" t="n">
-        <v>870.3861466242934</v>
+        <v>1524.71333059135</v>
       </c>
       <c r="D38" t="n">
-        <v>870.3861466242934</v>
+        <v>1524.71333059135</v>
       </c>
       <c r="E38" t="n">
-        <v>870.3861466242934</v>
+        <v>1177.786959509327</v>
       </c>
       <c r="F38" t="n">
-        <v>459.4002418346858</v>
+        <v>766.8010547197192</v>
       </c>
       <c r="G38" t="n">
-        <v>43.36919653809306</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="H38" t="n">
         <v>43.36919653809306</v>
@@ -7201,25 +7201,25 @@
         <v>2168.459826904653</v>
       </c>
       <c r="S38" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T38" t="n">
-        <v>1826.151173794699</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U38" t="n">
-        <v>1826.151173794699</v>
+        <v>1914.852662567162</v>
       </c>
       <c r="V38" t="n">
-        <v>1826.151173794699</v>
+        <v>1914.852662567162</v>
       </c>
       <c r="W38" t="n">
-        <v>1473.382518524585</v>
+        <v>1914.852662567162</v>
       </c>
       <c r="X38" t="n">
-        <v>1473.382518524585</v>
+        <v>1914.852662567162</v>
       </c>
       <c r="Y38" t="n">
-        <v>1083.243186548773</v>
+        <v>1524.71333059135</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>767.9840153902086</v>
+        <v>700.0609647479944</v>
       </c>
       <c r="C39" t="n">
-        <v>593.5309861090816</v>
+        <v>700.0609647479944</v>
       </c>
       <c r="D39" t="n">
-        <v>444.5965764478304</v>
+        <v>551.1265550867431</v>
       </c>
       <c r="E39" t="n">
-        <v>285.3591214423749</v>
+        <v>391.8891000812876</v>
       </c>
       <c r="F39" t="n">
-        <v>138.8245634692599</v>
+        <v>275.700557254144</v>
       </c>
       <c r="G39" t="n">
         <v>138.8245634692599</v>
@@ -7277,28 +7277,28 @@
         <v>1766.227047333487</v>
       </c>
       <c r="R39" t="n">
-        <v>1734.238298972664</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S39" t="n">
-        <v>1595.273638474382</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="T39" t="n">
-        <v>1400.563316948358</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="U39" t="n">
-        <v>1351.811151380763</v>
+        <v>1538.125457466751</v>
       </c>
       <c r="V39" t="n">
-        <v>1351.811151380763</v>
+        <v>1538.125457466751</v>
       </c>
       <c r="W39" t="n">
-        <v>1351.811151380763</v>
+        <v>1283.888100738549</v>
       </c>
       <c r="X39" t="n">
-        <v>1143.95965117523</v>
+        <v>1076.036600533016</v>
       </c>
       <c r="Y39" t="n">
-        <v>936.1993524102766</v>
+        <v>868.2763017680625</v>
       </c>
     </row>
     <row r="40">
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>338.6408822103593</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C40" t="n">
-        <v>338.6408822103593</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D40" t="n">
-        <v>188.5242427980236</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E40" t="n">
         <v>43.36919653809306</v>
@@ -7371,13 +7371,13 @@
         <v>520.2893470405991</v>
       </c>
       <c r="W40" t="n">
-        <v>520.2893470405991</v>
+        <v>230.8721770036385</v>
       </c>
       <c r="X40" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="Y40" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1214.151011373342</v>
+        <v>1038.951999594605</v>
       </c>
       <c r="C41" t="n">
-        <v>845.18849443293</v>
+        <v>1038.951999594605</v>
       </c>
       <c r="D41" t="n">
-        <v>845.18849443293</v>
+        <v>1038.951999594605</v>
       </c>
       <c r="E41" t="n">
-        <v>459.4002418346858</v>
+        <v>653.1637469963605</v>
       </c>
       <c r="F41" t="n">
         <v>459.4002418346858</v>
       </c>
       <c r="G41" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="H41" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="I41" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J41" t="n">
         <v>152.5078184301901</v>
       </c>
       <c r="K41" t="n">
-        <v>366.8168396232718</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L41" t="n">
-        <v>669.5878927711867</v>
+        <v>669.5878927711869</v>
       </c>
       <c r="M41" t="n">
         <v>1038.14846457873</v>
       </c>
       <c r="N41" t="n">
-        <v>1417.286540135166</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O41" t="n">
         <v>1761.960612545596</v>
@@ -7432,31 +7432,31 @@
         <v>2021.630958172447</v>
       </c>
       <c r="Q41" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="R41" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="S41" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="T41" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="U41" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="V41" t="n">
-        <v>1705.262284299213</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="W41" t="n">
-        <v>1604.290343349154</v>
+        <v>1815.691171634538</v>
       </c>
       <c r="X41" t="n">
-        <v>1604.290343349154</v>
+        <v>1815.691171634538</v>
       </c>
       <c r="Y41" t="n">
-        <v>1214.151011373342</v>
+        <v>1425.551839658727</v>
       </c>
     </row>
     <row r="42">
@@ -7466,40 +7466,40 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>634.9516129627989</v>
+        <v>745.6225541696373</v>
       </c>
       <c r="C42" t="n">
-        <v>634.9516129627989</v>
+        <v>571.1695248885103</v>
       </c>
       <c r="D42" t="n">
-        <v>486.0172033015477</v>
+        <v>422.235115227259</v>
       </c>
       <c r="E42" t="n">
-        <v>326.7797482960922</v>
+        <v>422.235115227259</v>
       </c>
       <c r="F42" t="n">
-        <v>180.2451903229772</v>
+        <v>275.700557254144</v>
       </c>
       <c r="G42" t="n">
-        <v>43.36919653809306</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="H42" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="I42" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J42" t="n">
-        <v>89.55356510562316</v>
+        <v>89.55356510562314</v>
       </c>
       <c r="K42" t="n">
         <v>246.6448318504519</v>
       </c>
       <c r="L42" t="n">
-        <v>504.1959674104395</v>
+        <v>504.1959674104394</v>
       </c>
       <c r="M42" t="n">
-        <v>824.1028628789488</v>
+        <v>824.1028628789486</v>
       </c>
       <c r="N42" t="n">
         <v>1166.88538687358</v>
@@ -7508,34 +7508,34 @@
         <v>1458.244633128146</v>
       </c>
       <c r="P42" t="n">
-        <v>1672.753048689047</v>
+        <v>1672.753048689046</v>
       </c>
       <c r="Q42" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="R42" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="S42" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="T42" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="U42" t="n">
-        <v>1539.95287689323</v>
+        <v>1538.12545746675</v>
       </c>
       <c r="V42" t="n">
-        <v>1304.800768661487</v>
+        <v>1302.973349235008</v>
       </c>
       <c r="W42" t="n">
-        <v>1050.563411933286</v>
+        <v>1048.735992506806</v>
       </c>
       <c r="X42" t="n">
-        <v>842.7119117277527</v>
+        <v>1048.735992506806</v>
       </c>
       <c r="Y42" t="n">
-        <v>634.9516129627989</v>
+        <v>840.9756937418522</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>411.1248508126813</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="C43" t="n">
-        <v>411.1248508126813</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="D43" t="n">
-        <v>358.391973440985</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="E43" t="n">
-        <v>358.391973440985</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="F43" t="n">
-        <v>211.5020259430747</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="G43" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="H43" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="I43" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J43" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="K43" t="n">
-        <v>92.71685897981521</v>
+        <v>92.71685897981519</v>
       </c>
       <c r="L43" t="n">
         <v>185.7706748018941</v>
       </c>
       <c r="M43" t="n">
-        <v>287.1411594927332</v>
+        <v>287.1411594927331</v>
       </c>
       <c r="N43" t="n">
-        <v>393.9588065377461</v>
+        <v>393.9588065377459</v>
       </c>
       <c r="O43" t="n">
-        <v>472.3091036033659</v>
+        <v>472.3091036033657</v>
       </c>
       <c r="P43" t="n">
-        <v>520.2893470405991</v>
+        <v>520.289347040599</v>
       </c>
       <c r="Q43" t="n">
-        <v>520.2893470405991</v>
+        <v>520.289347040599</v>
       </c>
       <c r="R43" t="n">
-        <v>411.1248508126813</v>
+        <v>520.289347040599</v>
       </c>
       <c r="S43" t="n">
-        <v>411.1248508126813</v>
+        <v>520.289347040599</v>
       </c>
       <c r="T43" t="n">
-        <v>411.1248508126813</v>
+        <v>520.289347040599</v>
       </c>
       <c r="U43" t="n">
-        <v>411.1248508126813</v>
+        <v>231.1630260146225</v>
       </c>
       <c r="V43" t="n">
-        <v>411.1248508126813</v>
+        <v>231.1630260146225</v>
       </c>
       <c r="W43" t="n">
-        <v>411.1248508126813</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="X43" t="n">
-        <v>411.1248508126813</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="Y43" t="n">
-        <v>411.1248508126813</v>
+        <v>43.36919653809305</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>888.7124668435229</v>
+        <v>1408.394228579451</v>
       </c>
       <c r="C44" t="n">
-        <v>812.620799934451</v>
+        <v>1039.431711639039</v>
       </c>
       <c r="D44" t="n">
-        <v>454.3551013277006</v>
+        <v>870.3861466242934</v>
       </c>
       <c r="E44" t="n">
-        <v>454.3551013277006</v>
+        <v>870.3861466242934</v>
       </c>
       <c r="F44" t="n">
-        <v>43.36919653809305</v>
+        <v>459.4002418346858</v>
       </c>
       <c r="G44" t="n">
         <v>43.36919653809305</v>
@@ -7654,19 +7654,19 @@
         <v>366.8168396232717</v>
       </c>
       <c r="L44" t="n">
-        <v>669.5878927711869</v>
+        <v>669.5878927711864</v>
       </c>
       <c r="M44" t="n">
-        <v>1038.14846457873</v>
+        <v>1038.148464578729</v>
       </c>
       <c r="N44" t="n">
-        <v>1417.286540135167</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O44" t="n">
-        <v>1761.960612545596</v>
+        <v>1761.960612545595</v>
       </c>
       <c r="P44" t="n">
-        <v>2021.630958172447</v>
+        <v>2021.630958172446</v>
       </c>
       <c r="Q44" t="n">
         <v>2168.459826904652</v>
@@ -7675,25 +7675,25 @@
         <v>2168.459826904652</v>
       </c>
       <c r="S44" t="n">
-        <v>2036.325171642783</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="T44" t="n">
-        <v>1826.151173794698</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="U44" t="n">
-        <v>1572.544009457207</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="V44" t="n">
-        <v>1241.481122113637</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="W44" t="n">
-        <v>888.7124668435229</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="X44" t="n">
-        <v>888.7124668435229</v>
+        <v>1794.994068643573</v>
       </c>
       <c r="Y44" t="n">
-        <v>888.7124668435229</v>
+        <v>1794.994068643573</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>633.1241935363194</v>
+        <v>325.9441960179693</v>
       </c>
       <c r="C45" t="n">
-        <v>633.1241935363194</v>
+        <v>151.4911667368422</v>
       </c>
       <c r="D45" t="n">
-        <v>484.1897838750681</v>
+        <v>151.4911667368422</v>
       </c>
       <c r="E45" t="n">
-        <v>324.9523288696126</v>
+        <v>151.4911667368422</v>
       </c>
       <c r="F45" t="n">
-        <v>178.4177708964976</v>
+        <v>151.4911667368422</v>
       </c>
       <c r="G45" t="n">
-        <v>138.8245634692599</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="H45" t="n">
         <v>43.36919653809305</v>
@@ -7754,25 +7754,25 @@
         <v>1766.227047333486</v>
       </c>
       <c r="S45" t="n">
-        <v>1766.227047333486</v>
+        <v>1627.262386835204</v>
       </c>
       <c r="T45" t="n">
-        <v>1766.227047333486</v>
+        <v>1627.262386835204</v>
       </c>
       <c r="U45" t="n">
-        <v>1538.12545746675</v>
+        <v>1399.160796968468</v>
       </c>
       <c r="V45" t="n">
-        <v>1302.973349235008</v>
+        <v>1164.008688736726</v>
       </c>
       <c r="W45" t="n">
-        <v>1048.735992506806</v>
+        <v>909.771332008524</v>
       </c>
       <c r="X45" t="n">
-        <v>840.8844923012732</v>
+        <v>701.9198318029912</v>
       </c>
       <c r="Y45" t="n">
-        <v>633.1241935363194</v>
+        <v>494.1595330380373</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>321.1098614248253</v>
+        <v>361.6186653554104</v>
       </c>
       <c r="C46" t="n">
-        <v>191.2822901204862</v>
+        <v>361.6186653554104</v>
       </c>
       <c r="D46" t="n">
-        <v>191.2822901204862</v>
+        <v>211.5020259430747</v>
       </c>
       <c r="E46" t="n">
-        <v>43.36919653809305</v>
+        <v>211.5020259430747</v>
       </c>
       <c r="F46" t="n">
-        <v>43.36919653809305</v>
+        <v>211.5020259430747</v>
       </c>
       <c r="G46" t="n">
         <v>43.36919653809305</v>
@@ -7833,25 +7833,25 @@
         <v>520.289347040599</v>
       </c>
       <c r="S46" t="n">
-        <v>321.1098614248253</v>
+        <v>520.289347040599</v>
       </c>
       <c r="T46" t="n">
-        <v>321.1098614248253</v>
+        <v>520.289347040599</v>
       </c>
       <c r="U46" t="n">
-        <v>321.1098614248253</v>
+        <v>520.289347040599</v>
       </c>
       <c r="V46" t="n">
-        <v>321.1098614248253</v>
+        <v>520.289347040599</v>
       </c>
       <c r="W46" t="n">
-        <v>321.1098614248253</v>
+        <v>520.289347040599</v>
       </c>
       <c r="X46" t="n">
-        <v>321.1098614248253</v>
+        <v>361.6186653554104</v>
       </c>
       <c r="Y46" t="n">
-        <v>321.1098614248253</v>
+        <v>361.6186653554104</v>
       </c>
     </row>
   </sheetData>
@@ -22552,10 +22552,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>304.8880345935584</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>380.0821138642265</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22591,10 +22591,10 @@
         <v>1.810057396252972</v>
       </c>
       <c r="Q2" t="n">
-        <v>50.01861771953256</v>
+        <v>48.17036151149725</v>
       </c>
       <c r="R2" t="n">
-        <v>115.3674336481769</v>
+        <v>65.57242662105223</v>
       </c>
       <c r="S2" t="n">
         <v>172.6645079492214</v>
@@ -22603,7 +22603,7 @@
         <v>216.1119122710508</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2180195592479</v>
+        <v>201.4230125321233</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22615,7 +22615,7 @@
         <v>319.9360936513444</v>
       </c>
       <c r="Y2" t="n">
-        <v>336.4429316289289</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22649,7 +22649,7 @@
         <v>70.13228042782632</v>
       </c>
       <c r="J3" t="n">
-        <v>2.329504874093416</v>
+        <v>46.18894706358476</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22685,7 +22685,7 @@
         <v>225.8852226550407</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>188.9411449599339</v>
       </c>
       <c r="W3" t="n">
         <v>201.899976133795</v>
@@ -22783,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>290.0688923743784</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>262.0180923315808</v>
       </c>
       <c r="E5" t="n">
         <v>300.3110827384206</v>
@@ -22843,7 +22843,7 @@
         <v>251.1984878605957</v>
       </c>
       <c r="V5" t="n">
-        <v>235.0873091810327</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>256.5760194283108</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>293.5729893669514</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22868,19 +22868,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>54.78011627553656</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>63.44992505954265</v>
       </c>
       <c r="G6" t="n">
-        <v>136.3592641379443</v>
+        <v>43.69431484884211</v>
       </c>
       <c r="H6" t="n">
-        <v>10.06468283495377</v>
+        <v>102.729632124056</v>
       </c>
       <c r="I6" t="n">
         <v>65.63472101605001</v>
@@ -22907,28 +22907,28 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>14.3427387906227</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>84.56947841277972</v>
       </c>
       <c r="S6" t="n">
         <v>153.4011028494393</v>
       </c>
       <c r="T6" t="n">
-        <v>103.5325490100188</v>
+        <v>196.197498299121</v>
       </c>
       <c r="U6" t="n">
         <v>225.8766285924705</v>
       </c>
       <c r="V6" t="n">
-        <v>157.4285677298842</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>113.1080359143753</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -23026,7 +23026,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>242.5703814957592</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23035,7 +23035,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>301.2760442195641</v>
+        <v>314.639873306455</v>
       </c>
       <c r="H8" t="n">
         <v>319.8727099068761</v>
@@ -23044,7 +23044,7 @@
         <v>136.685125759028</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>18.59473170946464</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,7 +23065,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>15.61164031771682</v>
       </c>
       <c r="R8" t="n">
         <v>95.3531516584621</v>
@@ -23077,7 +23077,7 @@
         <v>214.717169359623</v>
       </c>
       <c r="U8" t="n">
-        <v>186.6500712433334</v>
+        <v>139.079870129261</v>
       </c>
       <c r="V8" t="n">
         <v>215.6395983452112</v>
@@ -23086,7 +23086,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>257.6184405535453</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23099,7 +23099,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>54.42052352494363</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -23114,16 +23114,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>24.20675900740713</v>
+        <v>119.666180983111</v>
       </c>
       <c r="H9" t="n">
         <v>102.3448132540521</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>64.26286446312977</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>30.08282103867671</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23144,19 +23144,19 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>9.256558775821418</v>
       </c>
       <c r="R9" t="n">
-        <v>82.095592888813</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>152.6609993460486</v>
+        <v>40.54833922112491</v>
       </c>
       <c r="T9" t="n">
-        <v>196.0368949650912</v>
+        <v>83.92423484016749</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8740072105222</v>
+        <v>113.7613470855985</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23168,7 +23168,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>98.4234488919758</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23184,7 +23184,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>144.9900955294088</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>282.8976208477874</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>217.5613044873863</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23266,19 +23266,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059421</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753918</v>
       </c>
       <c r="G11" t="n">
-        <v>412.8705340736013</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H11" t="n">
-        <v>314.56599862016</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I11" t="n">
-        <v>116.7083663906775</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,22 +23305,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>77.0817190166639</v>
       </c>
       <c r="S11" t="n">
-        <v>153.5962336622959</v>
+        <v>158.7758131900532</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>25.91829388988714</v>
       </c>
       <c r="U11" t="n">
-        <v>50.17139498003655</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V11" t="n">
-        <v>74.54500675215047</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>96.03371699942858</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23336,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23351,16 +23351,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.0421735954127</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>99.66720504223716</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I12" t="n">
-        <v>54.71734926660513</v>
+        <v>58.90455890409152</v>
       </c>
       <c r="J12" t="n">
-        <v>3.889197745894847</v>
+        <v>15.37922103265846</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>64.88204981594637</v>
+        <v>72.43289562846324</v>
       </c>
       <c r="S12" t="n">
-        <v>17.87578033104796</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T12" t="n">
-        <v>194.9194008930395</v>
+        <v>7.884010625681611</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>38.33818124377129</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23402,10 +23402,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>176.7642373931586</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>18.15710861098472</v>
       </c>
     </row>
     <row r="13">
@@ -23427,22 +23427,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>93.20510176849722</v>
       </c>
       <c r="G13" t="n">
-        <v>54.74625577559813</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H13" t="n">
-        <v>152.5271663968213</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I13" t="n">
-        <v>122.6410473056577</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J13" t="n">
-        <v>49.86152826733209</v>
+        <v>57.06999962825422</v>
       </c>
       <c r="K13" t="n">
-        <v>2.258577093130469</v>
+        <v>14.10430989402859</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,22 +23457,22 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>5.776182683435991</v>
+        <v>18.10760906709393</v>
       </c>
       <c r="Q13" t="n">
-        <v>60.14840011113779</v>
+        <v>68.6860405515973</v>
       </c>
       <c r="R13" t="n">
-        <v>128.2379412512818</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S13" t="n">
-        <v>205.0033958753615</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T13" t="n">
-        <v>223.2840322994568</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2595201165485</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>195.208254497161</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23506,16 +23506,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753919</v>
       </c>
       <c r="G14" t="n">
-        <v>412.8705340736013</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H14" t="n">
-        <v>314.56599862016</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,25 +23542,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>70.68499503062274</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V14" t="n">
-        <v>141.813750067176</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>182.2055135121495</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23579,25 +23579,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I15" t="n">
-        <v>54.71734926660513</v>
+        <v>58.90455890409151</v>
       </c>
       <c r="J15" t="n">
-        <v>3.889197745894847</v>
+        <v>15.37922103265844</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,25 +23621,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>64.88204981594637</v>
+        <v>72.43289562846323</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T15" t="n">
-        <v>194.9194008930395</v>
+        <v>7.884010625681697</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>38.33818124377137</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>166.1287489176074</v>
+        <v>204.0870048385448</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23664,22 +23664,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>93.20510176849707</v>
       </c>
       <c r="G16" t="n">
-        <v>54.74625577559813</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H16" t="n">
-        <v>152.5271663968213</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I16" t="n">
-        <v>122.6410473056577</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J16" t="n">
-        <v>49.86152826733209</v>
+        <v>57.06999962825421</v>
       </c>
       <c r="K16" t="n">
-        <v>2.258577093130469</v>
+        <v>14.10430989402857</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,22 +23694,22 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>5.776182683435991</v>
+        <v>18.10760906709392</v>
       </c>
       <c r="Q16" t="n">
-        <v>60.14840011113779</v>
+        <v>68.68604055159729</v>
       </c>
       <c r="R16" t="n">
-        <v>128.2379412512818</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S16" t="n">
-        <v>205.0033958753615</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T16" t="n">
-        <v>223.2840322994568</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2595201165485</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23734,25 +23734,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>140.1917693723365</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>101.4757899026986</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>153.6687940237271</v>
+        <v>91.74761154376273</v>
       </c>
       <c r="G17" t="n">
-        <v>412.8705340736013</v>
+        <v>412.6562485094249</v>
       </c>
       <c r="H17" t="n">
-        <v>314.56599862016</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>116.7083663906775</v>
+        <v>108.4471221777674</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>62.8036383798902</v>
+        <v>49.34302280919519</v>
       </c>
       <c r="S17" t="n">
-        <v>153.5962336622959</v>
+        <v>148.7132013686265</v>
       </c>
       <c r="T17" t="n">
-        <v>212.4488789988175</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.1339337873797</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23797,10 +23797,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>300.9198321666411</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>71.10950445810488</v>
       </c>
     </row>
     <row r="18">
@@ -23810,10 +23810,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>47.65305202174156</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -23822,19 +23822,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>135.9275207107687</v>
       </c>
       <c r="H18" t="n">
-        <v>99.66720504223716</v>
+        <v>98.55989955107012</v>
       </c>
       <c r="I18" t="n">
-        <v>54.71734926660513</v>
+        <v>50.76987056285343</v>
       </c>
       <c r="J18" t="n">
-        <v>3.889197745894847</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>57.76351369743567</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>194.9194008930395</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.855767372567</v>
+        <v>225.84822441963</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>171.0779349783854</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23895,28 +23895,28 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>111.9250733764598</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.8999766261806</v>
+        <v>166.8038554991351</v>
       </c>
       <c r="H19" t="n">
-        <v>152.5271663968213</v>
+        <v>151.6725621945439</v>
       </c>
       <c r="I19" t="n">
-        <v>122.6410473056577</v>
+        <v>119.7504228668707</v>
       </c>
       <c r="J19" t="n">
-        <v>49.86152826733209</v>
+        <v>43.0657645852142</v>
       </c>
       <c r="K19" t="n">
-        <v>2.258577093130469</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23931,22 +23931,22 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>5.776182683435991</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>60.14840011113779</v>
+        <v>52.09956646371745</v>
       </c>
       <c r="R19" t="n">
-        <v>128.2379412512818</v>
+        <v>123.9159858479444</v>
       </c>
       <c r="S19" t="n">
-        <v>205.0033958753615</v>
+        <v>203.3282667794865</v>
       </c>
       <c r="T19" t="n">
-        <v>223.2840322994568</v>
+        <v>222.8733329384441</v>
       </c>
       <c r="U19" t="n">
-        <v>174.1057992659659</v>
+        <v>286.2542771459823</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>105.1687168219273</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>50.14445757305873</v>
       </c>
       <c r="D20" t="n">
-        <v>101.4757899026986</v>
+        <v>39.55460742273414</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>66.80193587431296</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>159.663282355617</v>
+        <v>412.6562485094249</v>
       </c>
       <c r="H20" t="n">
-        <v>314.56599862016</v>
+        <v>312.3714465860386</v>
       </c>
       <c r="I20" t="n">
-        <v>116.7083663906776</v>
+        <v>108.4471221777674</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>49.34302280919519</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>148.7132013686265</v>
       </c>
       <c r="T20" t="n">
-        <v>212.4488789988175</v>
+        <v>211.5108439416354</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1510766325138</v>
+        <v>251.1339337873797</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24034,10 +24034,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>116.5238489604847</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>379.6128633850392</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24053,7 +24053,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>40.00851297190094</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24062,16 +24062,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.0421735954127</v>
+        <v>135.9275207107687</v>
       </c>
       <c r="H21" t="n">
-        <v>99.66720504223716</v>
+        <v>98.55989955107012</v>
       </c>
       <c r="I21" t="n">
-        <v>54.71734926660513</v>
+        <v>50.76987056285343</v>
       </c>
       <c r="J21" t="n">
-        <v>3.889197745894862</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24098,22 +24098,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>147.5112850967134</v>
+        <v>145.381658050804</v>
       </c>
       <c r="T21" t="n">
-        <v>42.70953589223035</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24141,19 +24141,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.8999766261806</v>
+        <v>166.8038554991351</v>
       </c>
       <c r="H22" t="n">
-        <v>152.5271663968213</v>
+        <v>151.6725621945439</v>
       </c>
       <c r="I22" t="n">
-        <v>122.6410473056577</v>
+        <v>119.7504228668707</v>
       </c>
       <c r="J22" t="n">
-        <v>49.8615282673321</v>
+        <v>43.0657645852142</v>
       </c>
       <c r="K22" t="n">
-        <v>2.258577093130498</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24168,25 +24168,25 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>5.776182683436019</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>60.1484001111378</v>
+        <v>52.09956646371745</v>
       </c>
       <c r="R22" t="n">
-        <v>128.2379412512818</v>
+        <v>123.9159858479444</v>
       </c>
       <c r="S22" t="n">
-        <v>92.84967502477912</v>
+        <v>203.3282667794865</v>
       </c>
       <c r="T22" t="n">
-        <v>223.2840322994568</v>
+        <v>222.8733329384441</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2595201165485</v>
+        <v>286.2542771459823</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>69.01328103550631</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>192.1743219664883</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24220,13 +24220,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>328.0518495131</v>
       </c>
       <c r="H23" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24262,7 +24262,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24271,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24299,10 +24299,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>20.55852864288805</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>94.50081326185514</v>
+        <v>37.02256817586844</v>
       </c>
       <c r="I24" t="n">
         <v>36.29946757904885</v>
@@ -24332,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S24" t="n">
         <v>137.5750138932992</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24353,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>166.7828629525847</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4515011109318</v>
@@ -24423,7 +24423,7 @@
         <v>286.2350578157167</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>75.03612999112863</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24445,19 +24445,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>71.36248089348032</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>304.326804756183</v>
@@ -24499,16 +24499,16 @@
         <v>208.0722578696039</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>217.2671521303451</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24521,28 +24521,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>39.18364296475526</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2.930871821740013</v>
       </c>
       <c r="I27" t="n">
-        <v>36.29946757904885</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24578,16 +24578,16 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>41.37935339401602</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H28" t="n">
         <v>148.5398113612452</v>
@@ -24657,13 +24657,13 @@
         <v>221.3678187343026</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2350578157167</v>
+        <v>100.6071071548267</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>58.95466068344268</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>240.1701749260875</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24736,7 +24736,7 @@
         <v>208.0722578696039</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24758,16 +24758,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>154.9751948918335</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24776,7 +24776,7 @@
         <v>135.5072338470353</v>
       </c>
       <c r="H30" t="n">
-        <v>45.35895830320365</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>36.29946757904885</v>
@@ -24806,13 +24806,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24900,13 +24900,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>142.8195025392597</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>60.1144880998109</v>
       </c>
     </row>
     <row r="32">
@@ -24922,7 +24922,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>331.3300097867464</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24934,7 +24934,7 @@
         <v>411.8707348436268</v>
       </c>
       <c r="H32" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>78.16360657708299</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T32" t="n">
-        <v>56.33199872938303</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -25004,19 +25004,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>12.09772890558395</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H33" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>36.29946757904885</v>
+        <v>20.95465307215892</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25049,7 +25049,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25061,10 +25061,10 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25083,10 +25083,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>106.2270600086105</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4515011109318</v>
@@ -25128,16 +25128,16 @@
         <v>197.1876907596159</v>
       </c>
       <c r="T34" t="n">
-        <v>1.354513060649708</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U34" t="n">
         <v>286.2350578157167</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25156,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25174,7 +25174,7 @@
         <v>304.326804756183</v>
       </c>
       <c r="I35" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T35" t="n">
         <v>208.0722578696039</v>
       </c>
       <c r="U35" t="n">
-        <v>215.0042069627583</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>255.0675936602037</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25241,13 +25241,13 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>60.47438162997835</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>80.98733674803067</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H36" t="n">
         <v>94.50081326185514</v>
@@ -25280,22 +25280,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S36" t="n">
         <v>137.5750138932992</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25323,10 +25323,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>91.85924346021008</v>
       </c>
       <c r="G37" t="n">
-        <v>92.71718564748296</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.5398113612452</v>
@@ -25371,7 +25371,7 @@
         <v>286.2350578157167</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25393,13 +25393,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>154.5444222457726</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>38.47326270105856</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>78.16360657708299</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25472,7 +25472,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -25481,10 +25481,10 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>30.04255499451169</v>
       </c>
       <c r="G39" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -25517,22 +25517,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U39" t="n">
-        <v>177.5559300561497</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>2.730466849237956</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25611,10 +25611,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>40.08170472814723</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25639,7 +25639,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>215.0501756316535</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>304.326804756183</v>
       </c>
       <c r="I41" t="n">
-        <v>78.16360657708299</v>
+        <v>78.16360657708302</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>130.8133087092505</v>
       </c>
       <c r="T41" t="n">
         <v>208.0722578696039</v>
@@ -25687,10 +25687,10 @@
         <v>251.0710926941158</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>249.278747176854</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25706,16 +25706,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>72.13357547337459</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -25724,10 +25724,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>36.29946757904885</v>
+        <v>36.29946757904886</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>31.66886087721431</v>
+        <v>31.66886087721433</v>
       </c>
       <c r="S42" t="n">
         <v>137.5750138932992</v>
@@ -25763,7 +25763,7 @@
         <v>192.7632183107638</v>
       </c>
       <c r="U42" t="n">
-        <v>1.809145232214377</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25772,7 +25772,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25791,16 +25791,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>96.40992442023301</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H43" t="n">
         <v>148.5398113612452</v>
@@ -25809,7 +25809,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J43" t="n">
-        <v>18.15430933923925</v>
+        <v>18.15430933923926</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,10 +25830,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>22.59469128425553</v>
+        <v>22.59469128425556</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S43" t="n">
         <v>197.1876907596159</v>
@@ -25842,13 +25842,13 @@
         <v>221.3678187343026</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>100.6071071548269</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>289.9421415310264</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>187.3279322560847</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>411.8707348436268</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>304.326804756183</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>130.8133087092505</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25943,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>96.30995849406996</v>
+        <v>28.46648335027355</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I45" t="n">
         <v>36.29946757904886</v>
@@ -25994,7 +25994,7 @@
         <v>31.66886087721433</v>
       </c>
       <c r="S45" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>192.7632183107638</v>
@@ -26025,19 +26025,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>38.71752550733206</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.5398113612452</v>
@@ -26073,7 +26073,7 @@
         <v>108.0728512656386</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T46" t="n">
         <v>221.3678187343026</v>
@@ -26088,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>68.62568052070046</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>468224.6527275802</v>
+        <v>424931.0936061949</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>468224.6527275802</v>
+        <v>424931.0936061951</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>468224.6527275802</v>
+        <v>509023.0632255167</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>468224.65272758</v>
+        <v>509023.0632255166</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>658545.8706526515</v>
+        <v>658545.8706526518</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>658545.8706526515</v>
+        <v>658545.8706526514</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>658545.8706526515</v>
+        <v>658545.8706526516</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>658545.8706526514</v>
+        <v>658545.8706526516</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>658545.8706526515</v>
+        <v>658545.8706526516</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>658545.8706526516</v>
+        <v>658545.8706526515</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>658545.8706526516</v>
+        <v>658545.8706526518</v>
       </c>
     </row>
   </sheetData>
@@ -26322,40 +26322,40 @@
         <v>136004.8801859003</v>
       </c>
       <c r="E2" t="n">
-        <v>174436.6353298828</v>
+        <v>158307.6623238765</v>
       </c>
       <c r="F2" t="n">
-        <v>174436.6353298828</v>
+        <v>158307.6623238765</v>
       </c>
       <c r="G2" t="n">
-        <v>174436.6353298828</v>
+        <v>189636.0431624473</v>
       </c>
       <c r="H2" t="n">
-        <v>174436.6353298827</v>
+        <v>189636.0431624473</v>
       </c>
       <c r="I2" t="n">
         <v>245340.6184784387</v>
       </c>
       <c r="J2" t="n">
-        <v>245340.6184784387</v>
+        <v>245340.6184784386</v>
       </c>
       <c r="K2" t="n">
-        <v>245340.6184784387</v>
+        <v>245340.6184784386</v>
       </c>
       <c r="L2" t="n">
         <v>245340.6184784387</v>
       </c>
       <c r="M2" t="n">
-        <v>245340.6184784386</v>
+        <v>245340.6184784387</v>
       </c>
       <c r="N2" t="n">
         <v>245340.6184784387</v>
       </c>
       <c r="O2" t="n">
+        <v>245340.6184784386</v>
+      </c>
+      <c r="P2" t="n">
         <v>245340.6184784387</v>
-      </c>
-      <c r="P2" t="n">
-        <v>245340.6184784386</v>
       </c>
     </row>
     <row r="3">
@@ -26374,37 +26374,37 @@
         <v>21905.62569575126</v>
       </c>
       <c r="E3" t="n">
-        <v>145682.2540662463</v>
+        <v>80646.21400928566</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>120376.4632767663</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>264035.3461263064</v>
+        <v>207445.0213781841</v>
       </c>
       <c r="J3" t="n">
-        <v>13028.56481860499</v>
+        <v>13028.56481860496</v>
       </c>
       <c r="K3" t="n">
-        <v>11033.35130008064</v>
+        <v>11033.35130008061</v>
       </c>
       <c r="L3" t="n">
-        <v>4922.040583148902</v>
+        <v>4922.04058314896</v>
       </c>
       <c r="M3" t="n">
-        <v>35161.33660335705</v>
+        <v>18793.20307042403</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>30707.75274100856</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>81.37067654131212</v>
       </c>
       <c r="E4" t="n">
-        <v>182.2589384760899</v>
+        <v>137.8001180723338</v>
       </c>
       <c r="F4" t="n">
-        <v>182.2589384760899</v>
+        <v>137.8001180723338</v>
       </c>
       <c r="G4" t="n">
-        <v>182.2589384760899</v>
+        <v>225.1452198420042</v>
       </c>
       <c r="H4" t="n">
-        <v>182.2589384760898</v>
+        <v>225.1452198420043</v>
       </c>
       <c r="I4" t="n">
         <v>384.3219252469136</v>
@@ -26456,7 +26456,7 @@
         <v>384.3219252469136</v>
       </c>
       <c r="O4" t="n">
-        <v>384.3219252469136</v>
+        <v>384.3219252469135</v>
       </c>
       <c r="P4" t="n">
         <v>384.3219252469135</v>
@@ -26478,16 +26478,16 @@
         <v>50823.37311172271</v>
       </c>
       <c r="E5" t="n">
-        <v>28584.23211703038</v>
+        <v>23358.20041161354</v>
       </c>
       <c r="F5" t="n">
-        <v>28584.23211703038</v>
+        <v>23358.20041161354</v>
       </c>
       <c r="G5" t="n">
-        <v>28584.23211703037</v>
+        <v>33511.05705494971</v>
       </c>
       <c r="H5" t="n">
-        <v>28584.23211703037</v>
+        <v>33511.05705494972</v>
       </c>
       <c r="I5" t="n">
         <v>51571.48185587223</v>
@@ -26496,13 +26496,13 @@
         <v>51571.48185587223</v>
       </c>
       <c r="K5" t="n">
-        <v>51571.48185587223</v>
+        <v>51571.48185587222</v>
       </c>
       <c r="L5" t="n">
         <v>51571.48185587223</v>
       </c>
       <c r="M5" t="n">
-        <v>51571.48185587222</v>
+        <v>51571.48185587223</v>
       </c>
       <c r="N5" t="n">
         <v>51571.48185587223</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-346359.9606441642</v>
+        <v>-333223.9970673505</v>
       </c>
       <c r="C6" t="n">
-        <v>-2145.981629436714</v>
+        <v>10169.8174244617</v>
       </c>
       <c r="D6" t="n">
-        <v>49826.61804400958</v>
+        <v>61857.72143609752</v>
       </c>
       <c r="E6" t="n">
-        <v>-11357.27849479902</v>
+        <v>52946.04158300152</v>
       </c>
       <c r="F6" t="n">
-        <v>134324.9755714473</v>
+        <v>133592.2555922871</v>
       </c>
       <c r="G6" t="n">
-        <v>134324.9755714473</v>
+        <v>34468.85762392562</v>
       </c>
       <c r="H6" t="n">
-        <v>134324.9755714472</v>
+        <v>154845.320900692</v>
       </c>
       <c r="I6" t="n">
-        <v>-78263.91154514978</v>
+        <v>-14821.54469248077</v>
       </c>
       <c r="J6" t="n">
-        <v>172742.8697625516</v>
+        <v>179594.9118670982</v>
       </c>
       <c r="K6" t="n">
-        <v>174738.0832810759</v>
+        <v>181590.1253856226</v>
       </c>
       <c r="L6" t="n">
-        <v>180849.3939980077</v>
+        <v>187701.4361025543</v>
       </c>
       <c r="M6" t="n">
-        <v>150610.0979777995</v>
+        <v>173830.2736152792</v>
       </c>
       <c r="N6" t="n">
-        <v>185771.4345811566</v>
+        <v>192623.4766857033</v>
       </c>
       <c r="O6" t="n">
-        <v>185771.4345811566</v>
+        <v>161915.7239446946</v>
       </c>
       <c r="P6" t="n">
-        <v>185771.4345811566</v>
+        <v>192623.4766857033</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>476.1157511985022</v>
       </c>
       <c r="E3" t="n">
-        <v>605.0106060815103</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="F3" t="n">
-        <v>605.0106060815103</v>
+        <v>548.4699409129043</v>
       </c>
       <c r="G3" t="n">
-        <v>605.0106060815103</v>
+        <v>658.3141401703867</v>
       </c>
       <c r="H3" t="n">
-        <v>605.0106060815102</v>
+        <v>658.3141401703867</v>
       </c>
       <c r="I3" t="n">
         <v>853.7106645376841</v>
@@ -26776,7 +26776,7 @@
         <v>853.7106645376841</v>
       </c>
       <c r="O3" t="n">
-        <v>853.7106645376841</v>
+        <v>853.710664537684</v>
       </c>
       <c r="P3" t="n">
         <v>853.710664537684</v>
@@ -26798,37 +26798,37 @@
         <v>112.1126601249237</v>
       </c>
       <c r="E4" t="n">
-        <v>253.2072517179844</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="F4" t="n">
-        <v>253.2072517179844</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="G4" t="n">
-        <v>253.2072517179843</v>
+        <v>315.1284341979487</v>
       </c>
       <c r="H4" t="n">
-        <v>253.2072517179843</v>
+        <v>315.1284341979488</v>
       </c>
       <c r="I4" t="n">
         <v>542.1149567261632</v>
       </c>
       <c r="J4" t="n">
-        <v>542.1149567261632</v>
+        <v>542.1149567261631</v>
       </c>
       <c r="K4" t="n">
-        <v>542.1149567261632</v>
+        <v>542.114956726163</v>
       </c>
       <c r="L4" t="n">
         <v>542.1149567261632</v>
       </c>
       <c r="M4" t="n">
-        <v>542.114956726163</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="N4" t="n">
         <v>542.1149567261632</v>
       </c>
       <c r="O4" t="n">
-        <v>542.1149567261632</v>
+        <v>542.1149567261631</v>
       </c>
       <c r="P4" t="n">
         <v>542.1149567261631</v>
@@ -26968,19 +26968,19 @@
         <v>18.52443243433669</v>
       </c>
       <c r="E3" t="n">
-        <v>128.8948548830081</v>
+        <v>72.35418971440203</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>109.8441992574824</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>248.7000584561739</v>
+        <v>195.3965243672974</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,37 +27020,37 @@
         <v>19.44771083582151</v>
       </c>
       <c r="E4" t="n">
-        <v>141.0945915930607</v>
+        <v>75.41292704139593</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>127.6028470316292</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>288.9077050081789</v>
+        <v>226.9865225282144</v>
       </c>
       <c r="J4" t="n">
-        <v>49.7950070271246</v>
+        <v>49.79500702712448</v>
       </c>
       <c r="K4" t="n">
-        <v>42.86994226197757</v>
+        <v>42.86994226197746</v>
       </c>
       <c r="L4" t="n">
-        <v>19.44771083582151</v>
+        <v>19.44771083582174</v>
       </c>
       <c r="M4" t="n">
-        <v>141.0945915930605</v>
+        <v>75.41292704139593</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>127.602847031629</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>19.44771083582151</v>
       </c>
       <c r="M4" t="n">
-        <v>141.0945915930607</v>
+        <v>75.41292704139593</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>127.6028470316292</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31141,13 +31141,13 @@
         <v>191.9290409491429</v>
       </c>
       <c r="N3" t="n">
-        <v>153.0991627102423</v>
+        <v>181.1367191104579</v>
       </c>
       <c r="O3" t="n">
         <v>192.3912514715691</v>
       </c>
       <c r="P3" t="n">
-        <v>163.0046057545602</v>
+        <v>134.9670493543445</v>
       </c>
       <c r="Q3" t="n">
         <v>108.96426215905</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.432203441533708</v>
+        <v>2.204904285077</v>
       </c>
       <c r="H11" t="n">
-        <v>24.90880349560709</v>
+        <v>22.58097600954483</v>
       </c>
       <c r="I11" t="n">
-        <v>93.76752317972837</v>
+        <v>85.00457245043114</v>
       </c>
       <c r="J11" t="n">
-        <v>206.4302268458717</v>
+        <v>187.1384950655542</v>
       </c>
       <c r="K11" t="n">
-        <v>309.3853985259937</v>
+        <v>280.4720934528637</v>
       </c>
       <c r="L11" t="n">
-        <v>383.8199445998309</v>
+        <v>347.950432967289</v>
       </c>
       <c r="M11" t="n">
-        <v>427.073642553206</v>
+        <v>387.1618995470271</v>
       </c>
       <c r="N11" t="n">
-        <v>433.9841405814637</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O11" t="n">
-        <v>409.7989176097129</v>
+        <v>371.5015668622677</v>
       </c>
       <c r="P11" t="n">
-        <v>349.7538951468494</v>
+        <v>317.0679923244292</v>
       </c>
       <c r="Q11" t="n">
-        <v>262.6506093969234</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R11" t="n">
-        <v>152.7818994342419</v>
+        <v>138.5038187974682</v>
       </c>
       <c r="S11" t="n">
-        <v>55.42383592394943</v>
+        <v>50.24425639619219</v>
       </c>
       <c r="T11" t="n">
-        <v>10.64697056531381</v>
+        <v>9.651968507924574</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1945762753226966</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.301343567797966</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H12" t="n">
-        <v>12.5682391942593</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I12" t="n">
-        <v>44.80503073339487</v>
+        <v>40.61782109590848</v>
       </c>
       <c r="J12" t="n">
-        <v>122.9484289207718</v>
+        <v>111.4584056340082</v>
       </c>
       <c r="K12" t="n">
-        <v>210.1384479632355</v>
+        <v>190.5001680621735</v>
       </c>
       <c r="L12" t="n">
-        <v>282.5570759817469</v>
+        <v>256.1509851405031</v>
       </c>
       <c r="M12" t="n">
-        <v>329.7307803144231</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N12" t="n">
-        <v>338.4577729247876</v>
+        <v>306.8275379829652</v>
       </c>
       <c r="O12" t="n">
-        <v>309.6227391330537</v>
+        <v>280.6872536292671</v>
       </c>
       <c r="P12" t="n">
-        <v>248.4995449771396</v>
+        <v>225.276266862887</v>
       </c>
       <c r="Q12" t="n">
-        <v>166.1153648999649</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R12" t="n">
-        <v>80.79745414801758</v>
+        <v>73.24660833550071</v>
       </c>
       <c r="S12" t="n">
-        <v>24.17188600712448</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T12" t="n">
-        <v>5.245327801782149</v>
+        <v>4.755130902820366</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08561470840776093</v>
+        <v>0.07761367088390157</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.091002732278133</v>
+        <v>0.9890441557445813</v>
       </c>
       <c r="H13" t="n">
-        <v>9.70000611061832</v>
+        <v>8.793501675620011</v>
       </c>
       <c r="I13" t="n">
-        <v>32.8094276216006</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J13" t="n">
-        <v>77.13389317206402</v>
+        <v>69.92542181114189</v>
       </c>
       <c r="K13" t="n">
-        <v>126.7546810774049</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L13" t="n">
-        <v>162.2023516697872</v>
+        <v>147.0438920276989</v>
       </c>
       <c r="M13" t="n">
-        <v>171.0196373879259</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N13" t="n">
-        <v>166.9531726585257</v>
+        <v>151.3507297604413</v>
       </c>
       <c r="O13" t="n">
-        <v>154.2082771041857</v>
+        <v>139.7968957592432</v>
       </c>
       <c r="P13" t="n">
-        <v>131.9518213657116</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q13" t="n">
-        <v>91.35660151830805</v>
+        <v>82.81896107784854</v>
       </c>
       <c r="R13" t="n">
-        <v>49.05545012588769</v>
+        <v>44.47102176647907</v>
       </c>
       <c r="S13" t="n">
-        <v>19.01320216161074</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T13" t="n">
-        <v>4.66155712882475</v>
+        <v>4.225915938181392</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0595092399424437</v>
+        <v>0.05394786304061359</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.432203441533708</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H14" t="n">
-        <v>24.90880349560709</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I14" t="n">
-        <v>93.76752317972837</v>
+        <v>85.00457245043116</v>
       </c>
       <c r="J14" t="n">
-        <v>206.4302268458717</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K14" t="n">
-        <v>309.3853985259937</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L14" t="n">
-        <v>383.8199445998309</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M14" t="n">
-        <v>427.073642553206</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N14" t="n">
-        <v>433.9841405814637</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O14" t="n">
-        <v>409.7989176097129</v>
+        <v>371.5015668622678</v>
       </c>
       <c r="P14" t="n">
-        <v>349.7538951468494</v>
+        <v>317.0679923244293</v>
       </c>
       <c r="Q14" t="n">
-        <v>262.6506093969234</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R14" t="n">
-        <v>152.7818994342419</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S14" t="n">
-        <v>55.42383592394943</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T14" t="n">
-        <v>10.64697056531381</v>
+        <v>9.651968507924575</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1945762753226966</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.301343567797966</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H15" t="n">
-        <v>12.5682391942593</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I15" t="n">
-        <v>44.80503073339487</v>
+        <v>40.61782109590849</v>
       </c>
       <c r="J15" t="n">
-        <v>122.9484289207718</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K15" t="n">
-        <v>210.1384479632355</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L15" t="n">
-        <v>282.5570759817469</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M15" t="n">
-        <v>329.7307803144231</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N15" t="n">
-        <v>338.4577729247876</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O15" t="n">
-        <v>309.6227391330537</v>
+        <v>280.6872536292672</v>
       </c>
       <c r="P15" t="n">
-        <v>248.4995449771396</v>
+        <v>225.2762668628871</v>
       </c>
       <c r="Q15" t="n">
-        <v>166.1153648999649</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R15" t="n">
-        <v>80.79745414801758</v>
+        <v>73.24660833550072</v>
       </c>
       <c r="S15" t="n">
-        <v>24.17188600712448</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T15" t="n">
-        <v>5.245327801782149</v>
+        <v>4.755130902820367</v>
       </c>
       <c r="U15" t="n">
-        <v>0.08561470840776093</v>
+        <v>0.07761367088390159</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.091002732278133</v>
+        <v>0.9890441557445815</v>
       </c>
       <c r="H16" t="n">
-        <v>9.70000611061832</v>
+        <v>8.793501675620012</v>
       </c>
       <c r="I16" t="n">
-        <v>32.8094276216006</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J16" t="n">
-        <v>77.13389317206402</v>
+        <v>69.9254218111419</v>
       </c>
       <c r="K16" t="n">
-        <v>126.7546810774049</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L16" t="n">
-        <v>162.2023516697872</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M16" t="n">
-        <v>171.0196373879259</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N16" t="n">
-        <v>166.9531726585257</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O16" t="n">
-        <v>154.2082771041857</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P16" t="n">
-        <v>131.9518213657116</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q16" t="n">
-        <v>91.35660151830805</v>
+        <v>82.81896107784856</v>
       </c>
       <c r="R16" t="n">
-        <v>49.05545012588769</v>
+        <v>44.47102176647908</v>
       </c>
       <c r="S16" t="n">
-        <v>19.01320216161074</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T16" t="n">
-        <v>4.66155712882475</v>
+        <v>4.225915938181393</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0595092399424437</v>
+        <v>0.0539478630406136</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.432203441533708</v>
+        <v>2.646489005710095</v>
       </c>
       <c r="H17" t="n">
-        <v>24.90880349560709</v>
+        <v>27.10335552972852</v>
       </c>
       <c r="I17" t="n">
-        <v>93.76752317972837</v>
+        <v>102.0287673926386</v>
       </c>
       <c r="J17" t="n">
-        <v>206.4302268458717</v>
+        <v>224.6174462483874</v>
       </c>
       <c r="K17" t="n">
-        <v>309.3853985259937</v>
+        <v>336.6433258600958</v>
       </c>
       <c r="L17" t="n">
-        <v>383.8199445998309</v>
+        <v>417.6358137685962</v>
       </c>
       <c r="M17" t="n">
-        <v>427.073642553206</v>
+        <v>464.7003126238931</v>
       </c>
       <c r="N17" t="n">
-        <v>433.9841405814637</v>
+        <v>472.219649511367</v>
       </c>
       <c r="O17" t="n">
-        <v>409.7989176097129</v>
+        <v>445.9036244608372</v>
       </c>
       <c r="P17" t="n">
-        <v>349.7538951468494</v>
+        <v>380.5684271323692</v>
       </c>
       <c r="Q17" t="n">
-        <v>262.6506093969234</v>
+        <v>285.7910396153763</v>
       </c>
       <c r="R17" t="n">
-        <v>152.7818994342419</v>
+        <v>166.2425150049369</v>
       </c>
       <c r="S17" t="n">
-        <v>55.42383592394943</v>
+        <v>60.30686821761886</v>
       </c>
       <c r="T17" t="n">
-        <v>10.64697056531381</v>
+        <v>11.58500562249595</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1945762753226966</v>
+        <v>0.2117191204568076</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.301343567797966</v>
+        <v>1.415996452441964</v>
       </c>
       <c r="H18" t="n">
-        <v>12.5682391942593</v>
+        <v>13.67554468542634</v>
       </c>
       <c r="I18" t="n">
-        <v>44.80503073339487</v>
+        <v>48.75250943714657</v>
       </c>
       <c r="J18" t="n">
-        <v>122.9484289207718</v>
+        <v>133.780612201984</v>
       </c>
       <c r="K18" t="n">
-        <v>210.1384479632355</v>
+        <v>228.6523745155956</v>
       </c>
       <c r="L18" t="n">
-        <v>282.5570759817469</v>
+        <v>307.4513349918396</v>
       </c>
       <c r="M18" t="n">
-        <v>329.7307803144231</v>
+        <v>358.7812063928607</v>
       </c>
       <c r="N18" t="n">
-        <v>338.4577729247876</v>
+        <v>368.2770773392808</v>
       </c>
       <c r="O18" t="n">
-        <v>309.6227391330537</v>
+        <v>336.9015769983299</v>
       </c>
       <c r="P18" t="n">
-        <v>248.4995449771396</v>
+        <v>270.3932173088519</v>
       </c>
       <c r="Q18" t="n">
-        <v>166.1153648999649</v>
+        <v>180.7507050520655</v>
       </c>
       <c r="R18" t="n">
-        <v>80.79745414801758</v>
+        <v>87.91599026652828</v>
       </c>
       <c r="S18" t="n">
-        <v>24.17188600712448</v>
+        <v>26.30151305303383</v>
       </c>
       <c r="T18" t="n">
-        <v>5.245327801782149</v>
+        <v>5.707459385062124</v>
       </c>
       <c r="U18" t="n">
-        <v>0.08561470840776093</v>
+        <v>0.09315766134486608</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.091002732278133</v>
+        <v>1.187123859323648</v>
       </c>
       <c r="H19" t="n">
-        <v>9.70000611061832</v>
+        <v>10.55461031289571</v>
       </c>
       <c r="I19" t="n">
-        <v>32.8094276216006</v>
+        <v>35.70005206038753</v>
       </c>
       <c r="J19" t="n">
-        <v>77.13389317206402</v>
+        <v>83.92965685418191</v>
       </c>
       <c r="K19" t="n">
-        <v>126.7546810774049</v>
+        <v>137.9222083832384</v>
       </c>
       <c r="L19" t="n">
-        <v>162.2023516697872</v>
+        <v>176.4929417761722</v>
       </c>
       <c r="M19" t="n">
-        <v>171.0196373879259</v>
+        <v>186.0870609665242</v>
       </c>
       <c r="N19" t="n">
-        <v>166.9531726585257</v>
+        <v>181.6623265817726</v>
       </c>
       <c r="O19" t="n">
-        <v>154.2082771041857</v>
+        <v>167.7945614978553</v>
       </c>
       <c r="P19" t="n">
-        <v>131.9518213657116</v>
+        <v>143.5772347676528</v>
       </c>
       <c r="Q19" t="n">
-        <v>91.35660151830805</v>
+        <v>99.40543516572839</v>
       </c>
       <c r="R19" t="n">
-        <v>49.05545012588769</v>
+        <v>53.37740552922511</v>
       </c>
       <c r="S19" t="n">
-        <v>19.01320216161074</v>
+        <v>20.68833125748575</v>
       </c>
       <c r="T19" t="n">
-        <v>4.66155712882475</v>
+        <v>5.072256489837404</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0595092399424437</v>
+        <v>0.0647522105085627</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.432203441533708</v>
+        <v>2.646489005710095</v>
       </c>
       <c r="H20" t="n">
-        <v>24.90880349560709</v>
+        <v>27.10335552972852</v>
       </c>
       <c r="I20" t="n">
-        <v>93.76752317972836</v>
+        <v>102.0287673926386</v>
       </c>
       <c r="J20" t="n">
-        <v>206.4302268458717</v>
+        <v>224.6174462483874</v>
       </c>
       <c r="K20" t="n">
-        <v>309.3853985259936</v>
+        <v>336.6433258600958</v>
       </c>
       <c r="L20" t="n">
-        <v>383.8199445998309</v>
+        <v>417.6358137685962</v>
       </c>
       <c r="M20" t="n">
-        <v>427.073642553206</v>
+        <v>464.7003126238931</v>
       </c>
       <c r="N20" t="n">
-        <v>433.9841405814636</v>
+        <v>472.219649511367</v>
       </c>
       <c r="O20" t="n">
-        <v>409.7989176097128</v>
+        <v>445.9036244608372</v>
       </c>
       <c r="P20" t="n">
-        <v>349.7538951468493</v>
+        <v>380.5684271323692</v>
       </c>
       <c r="Q20" t="n">
-        <v>262.6506093969234</v>
+        <v>285.7910396153763</v>
       </c>
       <c r="R20" t="n">
-        <v>152.7818994342419</v>
+        <v>166.2425150049369</v>
       </c>
       <c r="S20" t="n">
-        <v>55.42383592394942</v>
+        <v>60.30686821761886</v>
       </c>
       <c r="T20" t="n">
-        <v>10.64697056531381</v>
+        <v>11.58500562249595</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1945762753226966</v>
+        <v>0.2117191204568076</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.301343567797965</v>
+        <v>1.415996452441964</v>
       </c>
       <c r="H21" t="n">
-        <v>12.5682391942593</v>
+        <v>13.67554468542634</v>
       </c>
       <c r="I21" t="n">
-        <v>44.80503073339487</v>
+        <v>48.75250943714657</v>
       </c>
       <c r="J21" t="n">
-        <v>122.9484289207718</v>
+        <v>133.780612201984</v>
       </c>
       <c r="K21" t="n">
-        <v>210.1384479632355</v>
+        <v>228.6523745155956</v>
       </c>
       <c r="L21" t="n">
-        <v>282.5570759817468</v>
+        <v>307.4513349918396</v>
       </c>
       <c r="M21" t="n">
-        <v>329.730780314423</v>
+        <v>358.7812063928607</v>
       </c>
       <c r="N21" t="n">
-        <v>338.4577729247875</v>
+        <v>368.2770773392808</v>
       </c>
       <c r="O21" t="n">
-        <v>309.6227391330536</v>
+        <v>336.9015769983299</v>
       </c>
       <c r="P21" t="n">
-        <v>248.4995449771396</v>
+        <v>270.3932173088519</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.1153648999649</v>
+        <v>180.7507050520655</v>
       </c>
       <c r="R21" t="n">
-        <v>80.79745414801756</v>
+        <v>87.91599026652828</v>
       </c>
       <c r="S21" t="n">
-        <v>24.17188600712447</v>
+        <v>26.30151305303383</v>
       </c>
       <c r="T21" t="n">
-        <v>5.245327801782148</v>
+        <v>5.707459385062124</v>
       </c>
       <c r="U21" t="n">
-        <v>0.08561470840776092</v>
+        <v>0.09315766134486608</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.091002732278133</v>
+        <v>1.187123859323648</v>
       </c>
       <c r="H22" t="n">
-        <v>9.700006110618318</v>
+        <v>10.55461031289571</v>
       </c>
       <c r="I22" t="n">
-        <v>32.80942762160059</v>
+        <v>35.70005206038753</v>
       </c>
       <c r="J22" t="n">
-        <v>77.13389317206401</v>
+        <v>83.92965685418191</v>
       </c>
       <c r="K22" t="n">
-        <v>126.7546810774049</v>
+        <v>137.9222083832384</v>
       </c>
       <c r="L22" t="n">
-        <v>162.2023516697872</v>
+        <v>176.4929417761722</v>
       </c>
       <c r="M22" t="n">
-        <v>171.0196373879259</v>
+        <v>186.0870609665242</v>
       </c>
       <c r="N22" t="n">
-        <v>166.9531726585257</v>
+        <v>181.6623265817726</v>
       </c>
       <c r="O22" t="n">
-        <v>154.2082771041856</v>
+        <v>167.7945614978553</v>
       </c>
       <c r="P22" t="n">
-        <v>131.9518213657116</v>
+        <v>143.5772347676528</v>
       </c>
       <c r="Q22" t="n">
-        <v>91.35660151830804</v>
+        <v>99.40543516572839</v>
       </c>
       <c r="R22" t="n">
-        <v>49.05545012588768</v>
+        <v>53.37740552922511</v>
       </c>
       <c r="S22" t="n">
-        <v>19.01320216161073</v>
+        <v>20.68833125748575</v>
       </c>
       <c r="T22" t="n">
-        <v>4.661557128824749</v>
+        <v>5.072256489837404</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05950923994244369</v>
+        <v>0.0647522105085627</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34137,10 +34137,10 @@
         <v>436.5636098258711</v>
       </c>
       <c r="L41" t="n">
-        <v>541.5957615840426</v>
+        <v>541.5957615840425</v>
       </c>
       <c r="M41" t="n">
-        <v>602.6296390934779</v>
+        <v>602.6296390934777</v>
       </c>
       <c r="N41" t="n">
         <v>612.3808166839008</v>
@@ -34149,22 +34149,22 @@
         <v>578.2538401190903</v>
       </c>
       <c r="P41" t="n">
-        <v>493.5262741662298</v>
+        <v>493.5262741662297</v>
       </c>
       <c r="Q41" t="n">
-        <v>370.6176784928395</v>
+        <v>370.6176784928394</v>
       </c>
       <c r="R41" t="n">
         <v>215.5855378141319</v>
       </c>
       <c r="S41" t="n">
-        <v>78.20676087699491</v>
+        <v>78.20676087699489</v>
       </c>
       <c r="T41" t="n">
         <v>15.02359169452748</v>
       </c>
       <c r="U41" t="n">
-        <v>0.274560213720662</v>
+        <v>0.2745602137206619</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,7 +34207,7 @@
         <v>17.73463097464133</v>
       </c>
       <c r="I42" t="n">
-        <v>63.22291242095115</v>
+        <v>63.22291242095114</v>
       </c>
       <c r="J42" t="n">
         <v>173.4885040076062</v>
@@ -34216,19 +34216,19 @@
         <v>296.5194861913577</v>
       </c>
       <c r="L42" t="n">
-        <v>398.7070419616798</v>
+        <v>398.7070419616797</v>
       </c>
       <c r="M42" t="n">
-        <v>465.2723121730378</v>
+        <v>465.2723121730377</v>
       </c>
       <c r="N42" t="n">
-        <v>477.5866858152843</v>
+        <v>477.5866858152842</v>
       </c>
       <c r="O42" t="n">
-        <v>436.8985133884505</v>
+        <v>436.8985133884504</v>
       </c>
       <c r="P42" t="n">
-        <v>350.6495746475632</v>
+        <v>350.6495746475631</v>
       </c>
       <c r="Q42" t="n">
         <v>234.3999545349506</v>
@@ -34237,10 +34237,10 @@
         <v>114.0106430867496</v>
       </c>
       <c r="S42" t="n">
-        <v>34.10815721053859</v>
+        <v>34.10815721053858</v>
       </c>
       <c r="T42" t="n">
-        <v>7.401510384057843</v>
+        <v>7.401510384057842</v>
       </c>
       <c r="U42" t="n">
         <v>0.1208081129062761</v>
@@ -34286,22 +34286,22 @@
         <v>13.68736114619435</v>
       </c>
       <c r="I43" t="n">
-        <v>46.29630948017475</v>
+        <v>46.29630948017474</v>
       </c>
       <c r="J43" t="n">
-        <v>108.8411121001569</v>
+        <v>108.8411121001568</v>
       </c>
       <c r="K43" t="n">
         <v>178.8593818490426</v>
       </c>
       <c r="L43" t="n">
-        <v>228.8784296368736</v>
+        <v>228.8784296368735</v>
       </c>
       <c r="M43" t="n">
-        <v>241.3202129282506</v>
+        <v>241.3202129282505</v>
       </c>
       <c r="N43" t="n">
-        <v>235.5821576420139</v>
+        <v>235.5821576420138</v>
       </c>
       <c r="O43" t="n">
         <v>217.5982526595396</v>
@@ -34313,13 +34313,13 @@
         <v>128.9103103451903</v>
       </c>
       <c r="R43" t="n">
-        <v>69.22054011153089</v>
+        <v>69.22054011153088</v>
       </c>
       <c r="S43" t="n">
         <v>26.82890727735639</v>
       </c>
       <c r="T43" t="n">
-        <v>6.577770693978875</v>
+        <v>6.577770693978874</v>
       </c>
       <c r="U43" t="n">
         <v>0.08397154077419852</v>
@@ -34392,7 +34392,7 @@
         <v>370.6176784928394</v>
       </c>
       <c r="R44" t="n">
-        <v>215.5855378141319</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S44" t="n">
         <v>78.20676087699489</v>
@@ -34789,13 +34789,13 @@
         <v>49.79500702712463</v>
       </c>
       <c r="N3" t="n">
-        <v>21.75745062690899</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="O3" t="n">
         <v>49.79500702712463</v>
       </c>
       <c r="P3" t="n">
-        <v>29.03019834022993</v>
+        <v>0.9926419400142784</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>25.38432231918546</v>
+        <v>6.092590538867938</v>
       </c>
       <c r="K11" t="n">
-        <v>89.2955474810131</v>
+        <v>60.38224240788315</v>
       </c>
       <c r="L11" t="n">
-        <v>148.0535296298437</v>
+        <v>112.1840179973018</v>
       </c>
       <c r="M11" t="n">
-        <v>196.7274093259333</v>
+        <v>156.8156663197544</v>
       </c>
       <c r="N11" t="n">
-        <v>204.5710769848728</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O11" t="n">
-        <v>179.7007061880261</v>
+        <v>141.403355440581</v>
       </c>
       <c r="P11" t="n">
-        <v>118.5208993915799</v>
+        <v>85.83499656915967</v>
       </c>
       <c r="Q11" t="n">
-        <v>40.34491952247393</v>
+        <v>15.79916774065958</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>72.29700898887654</v>
+        <v>52.65872908781455</v>
       </c>
       <c r="L12" t="n">
-        <v>144.0026962018727</v>
+        <v>117.5966053606289</v>
       </c>
       <c r="M12" t="n">
-        <v>187.5967463924048</v>
+        <v>156.7820838755144</v>
       </c>
       <c r="N12" t="n">
-        <v>207.1160608414543</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O12" t="n">
-        <v>167.0264946886093</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P12" t="n">
-        <v>114.5251375628094</v>
+        <v>91.3018594485568</v>
       </c>
       <c r="Q12" t="n">
-        <v>26.13359081394339</v>
+        <v>10.60944440764987</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35573,16 +35573,16 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>27.31767538854893</v>
+        <v>12.15921574646066</v>
       </c>
       <c r="M13" t="n">
-        <v>32.09385344032086</v>
+        <v>16.11138312061144</v>
       </c>
       <c r="N13" t="n">
-        <v>39.26762819329252</v>
+        <v>23.66518529520815</v>
       </c>
       <c r="O13" t="n">
-        <v>15.75173865234288</v>
+        <v>1.340357307400438</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>25.38432231918546</v>
+        <v>6.092590538867967</v>
       </c>
       <c r="K14" t="n">
-        <v>89.2955474810131</v>
+        <v>60.38224240788321</v>
       </c>
       <c r="L14" t="n">
-        <v>148.0535296298437</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M14" t="n">
-        <v>196.7274093259333</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N14" t="n">
-        <v>204.5710769848728</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O14" t="n">
-        <v>179.7007061880261</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P14" t="n">
-        <v>118.5208993915799</v>
+        <v>85.83499656915973</v>
       </c>
       <c r="Q14" t="n">
-        <v>40.34491952247393</v>
+        <v>15.79916774065964</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>72.29700898887654</v>
+        <v>52.65872908781461</v>
       </c>
       <c r="L15" t="n">
-        <v>144.0026962018727</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M15" t="n">
-        <v>187.5967463924048</v>
+        <v>156.7820838755145</v>
       </c>
       <c r="N15" t="n">
-        <v>207.1160608414543</v>
+        <v>175.485825899632</v>
       </c>
       <c r="O15" t="n">
-        <v>167.0264946886093</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P15" t="n">
-        <v>114.5251375628094</v>
+        <v>91.30185944855685</v>
       </c>
       <c r="Q15" t="n">
-        <v>26.13359081394339</v>
+        <v>10.6094444076499</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35810,16 +35810,16 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>27.31767538854893</v>
+        <v>12.15921574646072</v>
       </c>
       <c r="M16" t="n">
-        <v>32.09385344032086</v>
+        <v>16.11138312061146</v>
       </c>
       <c r="N16" t="n">
-        <v>39.26762819329252</v>
+        <v>23.66518529520818</v>
       </c>
       <c r="O16" t="n">
-        <v>15.75173865234288</v>
+        <v>1.340357307400467</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>25.38432231918546</v>
+        <v>43.57154172170112</v>
       </c>
       <c r="K17" t="n">
-        <v>89.2955474810131</v>
+        <v>116.5534748151153</v>
       </c>
       <c r="L17" t="n">
-        <v>148.0535296298437</v>
+        <v>181.869398798609</v>
       </c>
       <c r="M17" t="n">
-        <v>196.7274093259333</v>
+        <v>234.3540793966204</v>
       </c>
       <c r="N17" t="n">
-        <v>204.5710769848728</v>
+        <v>242.8065859147761</v>
       </c>
       <c r="O17" t="n">
-        <v>179.7007061880261</v>
+        <v>215.8054130391505</v>
       </c>
       <c r="P17" t="n">
-        <v>118.5208993915799</v>
+        <v>149.3354313770996</v>
       </c>
       <c r="Q17" t="n">
-        <v>40.34491952247393</v>
+        <v>63.48534974092681</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>6.942985535317291</v>
       </c>
       <c r="K18" t="n">
-        <v>72.29700898887654</v>
+        <v>90.81093554123657</v>
       </c>
       <c r="L18" t="n">
-        <v>144.0026962018727</v>
+        <v>168.8969552119654</v>
       </c>
       <c r="M18" t="n">
-        <v>187.5967463924048</v>
+        <v>216.6471724708424</v>
       </c>
       <c r="N18" t="n">
-        <v>207.1160608414543</v>
+        <v>236.9353652559475</v>
       </c>
       <c r="O18" t="n">
-        <v>167.0264946886093</v>
+        <v>194.3053325538855</v>
       </c>
       <c r="P18" t="n">
-        <v>114.5251375628094</v>
+        <v>136.4188098945216</v>
       </c>
       <c r="Q18" t="n">
-        <v>26.13359081394339</v>
+        <v>40.76893096604394</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>8.90895021270299</v>
       </c>
       <c r="L19" t="n">
-        <v>27.31767538854893</v>
+        <v>41.60826549493393</v>
       </c>
       <c r="M19" t="n">
-        <v>32.09385344032086</v>
+        <v>47.16127701891915</v>
       </c>
       <c r="N19" t="n">
-        <v>39.26762819329252</v>
+        <v>53.97678211653937</v>
       </c>
       <c r="O19" t="n">
-        <v>15.75173865234288</v>
+        <v>29.33802304601255</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>5.849230718505197</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>25.38432231918543</v>
+        <v>43.57154172170112</v>
       </c>
       <c r="K20" t="n">
-        <v>89.29554748101305</v>
+        <v>116.5534748151153</v>
       </c>
       <c r="L20" t="n">
-        <v>148.0535296298436</v>
+        <v>181.869398798609</v>
       </c>
       <c r="M20" t="n">
-        <v>196.7274093259332</v>
+        <v>234.3540793966204</v>
       </c>
       <c r="N20" t="n">
-        <v>204.5710769848727</v>
+        <v>242.8065859147761</v>
       </c>
       <c r="O20" t="n">
-        <v>179.7007061880261</v>
+        <v>215.8054130391505</v>
       </c>
       <c r="P20" t="n">
-        <v>118.5208993915798</v>
+        <v>149.3354313770996</v>
       </c>
       <c r="Q20" t="n">
-        <v>40.34491952247387</v>
+        <v>63.48534974092681</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>6.942985535317291</v>
       </c>
       <c r="K21" t="n">
-        <v>72.29700898887651</v>
+        <v>90.81093554123657</v>
       </c>
       <c r="L21" t="n">
-        <v>144.0026962018727</v>
+        <v>168.8969552119654</v>
       </c>
       <c r="M21" t="n">
-        <v>187.5967463924047</v>
+        <v>216.6471724708424</v>
       </c>
       <c r="N21" t="n">
-        <v>207.1160608414542</v>
+        <v>236.9353652559475</v>
       </c>
       <c r="O21" t="n">
-        <v>167.0264946886092</v>
+        <v>194.3053325538855</v>
       </c>
       <c r="P21" t="n">
-        <v>114.5251375628093</v>
+        <v>136.4188098945216</v>
       </c>
       <c r="Q21" t="n">
-        <v>26.13359081394336</v>
+        <v>40.76893096604394</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>8.90895021270299</v>
       </c>
       <c r="L22" t="n">
-        <v>27.31767538854891</v>
+        <v>41.60826549493393</v>
       </c>
       <c r="M22" t="n">
-        <v>32.09385344032083</v>
+        <v>47.16127701891915</v>
       </c>
       <c r="N22" t="n">
-        <v>39.2676281932925</v>
+        <v>53.97678211653937</v>
       </c>
       <c r="O22" t="n">
-        <v>15.75173865234285</v>
+        <v>29.33802304601255</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>5.849230718505197</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -37779,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>110.2410322142395</v>
+        <v>110.2410322142394</v>
       </c>
       <c r="K41" t="n">
-        <v>216.4737587808906</v>
+        <v>216.4737587808905</v>
       </c>
       <c r="L41" t="n">
-        <v>305.8293466140554</v>
+        <v>305.8293466140553</v>
       </c>
       <c r="M41" t="n">
-        <v>372.2834058662052</v>
+        <v>372.283405866205</v>
       </c>
       <c r="N41" t="n">
         <v>382.9677530873099</v>
@@ -37797,7 +37797,7 @@
         <v>348.1556286974036</v>
       </c>
       <c r="P41" t="n">
-        <v>262.2932784109602</v>
+        <v>262.2932784109601</v>
       </c>
       <c r="Q41" t="n">
         <v>148.31198861839</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>46.6508773409395</v>
+        <v>46.65087734093947</v>
       </c>
       <c r="K42" t="n">
         <v>158.6780472169987</v>
@@ -37867,7 +37867,7 @@
         <v>260.1526621818056</v>
       </c>
       <c r="M42" t="n">
-        <v>323.1382782510195</v>
+        <v>323.1382782510194</v>
       </c>
       <c r="N42" t="n">
         <v>346.2449737319509</v>
@@ -37879,7 +37879,7 @@
         <v>216.6751672332329</v>
       </c>
       <c r="Q42" t="n">
-        <v>94.41818044892906</v>
+        <v>94.41818044892904</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,19 +37940,19 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>49.84612367850724</v>
+        <v>49.84612367850721</v>
       </c>
       <c r="L43" t="n">
-        <v>93.99375335563528</v>
+        <v>93.99375335563525</v>
       </c>
       <c r="M43" t="n">
         <v>102.3944289806455</v>
       </c>
       <c r="N43" t="n">
-        <v>107.8966131767807</v>
+        <v>107.8966131767806</v>
       </c>
       <c r="O43" t="n">
-        <v>79.14171420769682</v>
+        <v>79.14171420769679</v>
       </c>
       <c r="P43" t="n">
         <v>48.46489236084162</v>
